--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -33,7 +33,7 @@
     <t>Dataset description</t>
   </si>
   <si>
-    <t xml:space="preserve">A dataset that include current and previous local authorities, as well as some planned but not in force yet
+    <t xml:space="preserve">A dataset that includes current and previous local authorities, as well as some planned but not in force yet
 </t>
   </si>
   <si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Contributors</t>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Contributors</t>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Contributors</t>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -14439,7 +14439,7 @@
         <v>1940</v>
       </c>
       <c r="L5" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="N5" t="s">
         <v>992</v>
@@ -15216,7 +15216,7 @@
         <v>1940</v>
       </c>
       <c r="L14" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N14" t="s">
         <v>1001</v>
@@ -15560,7 +15560,7 @@
         <v>1940</v>
       </c>
       <c r="L18" t="s">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
         <v>1005</v>
@@ -15738,7 +15738,7 @@
         <v>1940</v>
       </c>
       <c r="L20" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s">
         <v>1958</v>
@@ -17459,7 +17459,7 @@
         <v>1940</v>
       </c>
       <c r="L39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N39" t="s">
         <v>1026</v>
@@ -17806,7 +17806,7 @@
         <v>1940</v>
       </c>
       <c r="L43" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="N43" t="s">
         <v>1976</v>
@@ -18877,7 +18877,7 @@
         <v>1940</v>
       </c>
       <c r="L55" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N55" t="s">
         <v>1042</v>
@@ -19524,7 +19524,7 @@
         <v>1940</v>
       </c>
       <c r="L62" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N62" t="s">
         <v>1049</v>
@@ -20351,7 +20351,7 @@
         <v>1940</v>
       </c>
       <c r="L72" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="N72" t="s">
         <v>1994</v>
@@ -20695,7 +20695,7 @@
         <v>1940</v>
       </c>
       <c r="L76" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N76" t="s">
         <v>1063</v>
@@ -21428,7 +21428,7 @@
         <v>1940</v>
       </c>
       <c r="L84" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="N84" t="s">
         <v>1071</v>
@@ -22481,7 +22481,7 @@
         <v>1940</v>
       </c>
       <c r="L96" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N96" t="s">
         <v>1083</v>
@@ -23656,7 +23656,7 @@
         <v>1940</v>
       </c>
       <c r="L109" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N109" t="s">
         <v>1096</v>
@@ -24267,7 +24267,7 @@
         <v>1940</v>
       </c>
       <c r="L116" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="N116" t="s">
         <v>1102</v>
@@ -25753,7 +25753,7 @@
         <v>1940</v>
       </c>
       <c r="L133" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="N133" t="s">
         <v>2034</v>
@@ -26278,7 +26278,7 @@
         <v>1940</v>
       </c>
       <c r="L139" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N139" t="s">
         <v>2038</v>
@@ -30737,7 +30737,7 @@
         <v>1940</v>
       </c>
       <c r="L189" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N189" t="s">
         <v>1175</v>
@@ -32004,7 +32004,7 @@
         <v>1940</v>
       </c>
       <c r="L203" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N203" t="s">
         <v>2077</v>
@@ -33526,7 +33526,7 @@
         <v>1940</v>
       </c>
       <c r="L220" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="N220" t="s">
         <v>1205</v>
@@ -34615,7 +34615,7 @@
         <v>1940</v>
       </c>
       <c r="L232" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="N232" t="s">
         <v>1217</v>
@@ -36190,7 +36190,7 @@
         <v>1940</v>
       </c>
       <c r="L250" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="N250" t="s">
         <v>1235</v>
@@ -36466,7 +36466,7 @@
         <v>1940</v>
       </c>
       <c r="L253" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N253" t="s">
         <v>1238</v>
@@ -39094,7 +39094,7 @@
         <v>1940</v>
       </c>
       <c r="L295" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N295" t="s">
         <v>2123</v>
@@ -40040,7 +40040,7 @@
         <v>1940</v>
       </c>
       <c r="L306" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N306" t="s">
         <v>1290</v>
@@ -41393,7 +41393,7 @@
         <v>1940</v>
       </c>
       <c r="L321" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="N321" t="s">
         <v>2144</v>
@@ -41568,7 +41568,7 @@
         <v>1940</v>
       </c>
       <c r="L323" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N323" t="s">
         <v>1307</v>
@@ -42019,7 +42019,7 @@
         <v>1940</v>
       </c>
       <c r="L328" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="N328" t="s">
         <v>1312</v>
@@ -42295,7 +42295,7 @@
         <v>1940</v>
       </c>
       <c r="L331" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="N331" t="s">
         <v>1315</v>
@@ -42752,7 +42752,7 @@
         <v>1940</v>
       </c>
       <c r="L336" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N336" t="s">
         <v>1320</v>
@@ -43289,7 +43289,7 @@
         <v>1940</v>
       </c>
       <c r="L342" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N342" t="s">
         <v>2154</v>
@@ -44265,7 +44265,7 @@
         <v>1940</v>
       </c>
       <c r="L353" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N353" t="s">
         <v>2160</v>
@@ -46615,7 +46615,7 @@
         <v>1940</v>
       </c>
       <c r="L379" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="N379" t="s">
         <v>1361</v>
@@ -47342,7 +47342,7 @@
         <v>1940</v>
       </c>
       <c r="L387" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="N387" t="s">
         <v>2184</v>
@@ -47968,7 +47968,7 @@
         <v>1940</v>
       </c>
       <c r="L394" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N394" t="s">
         <v>1376</v>
@@ -48235,7 +48235,7 @@
         <v>1940</v>
       </c>
       <c r="L397" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="N397" t="s">
         <v>1379</v>
@@ -48576,7 +48576,7 @@
         <v>1940</v>
       </c>
       <c r="L401" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="N401" t="s">
         <v>1383</v>
@@ -48665,7 +48665,7 @@
         <v>1940</v>
       </c>
       <c r="L402" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="N402" t="s">
         <v>1384</v>
@@ -48938,7 +48938,7 @@
         <v>1940</v>
       </c>
       <c r="L405" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="N405" t="s">
         <v>1387</v>
@@ -50184,7 +50184,7 @@
         <v>1940</v>
       </c>
       <c r="L419" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="N419" t="s">
         <v>1401</v>
@@ -51948,7 +51948,7 @@
         <v>1940</v>
       </c>
       <c r="L440" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="N440" t="s">
         <v>2212</v>
@@ -54614,7 +54614,7 @@
         <v>4492</v>
       </c>
       <c r="D13" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E13" t="s">
         <v>4497</v>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.5</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -15560,7 +15560,7 @@
         <v>1940</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="N18" t="s">
         <v>1005</v>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8720" uniqueCount="4504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8723" uniqueCount="4504">
   <si>
     <t>Dataset</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.5</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -16209,7 +16209,7 @@
       <c r="K25" t="s">
         <v>1943</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>208</v>
       </c>
       <c r="N25" t="s">
@@ -16298,7 +16298,7 @@
       <c r="K26" t="s">
         <v>1943</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>208</v>
       </c>
       <c r="N26" t="s">
@@ -16387,7 +16387,7 @@
       <c r="K27" t="s">
         <v>1943</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>208</v>
       </c>
       <c r="N27" t="s">
@@ -17078,7 +17078,7 @@
       <c r="K35" t="s">
         <v>1943</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>208</v>
       </c>
       <c r="N35" t="s">
@@ -17265,7 +17265,7 @@
       <c r="K37" t="s">
         <v>1944</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>398</v>
       </c>
       <c r="N37" t="s">
@@ -18621,7 +18621,7 @@
       <c r="K52" t="s">
         <v>1943</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>208</v>
       </c>
       <c r="N52" t="s">
@@ -21249,7 +21249,7 @@
       <c r="K82" t="s">
         <v>1943</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>208</v>
       </c>
       <c r="N82" t="s">
@@ -22302,7 +22302,7 @@
       <c r="K94" t="s">
         <v>1943</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>208</v>
       </c>
       <c r="N94" t="s">
@@ -23376,7 +23376,7 @@
       <c r="K106" t="s">
         <v>1944</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>398</v>
       </c>
       <c r="N106" t="s">
@@ -24088,7 +24088,7 @@
       <c r="K114" t="s">
         <v>1943</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>208</v>
       </c>
       <c r="N114" t="s">
@@ -25497,7 +25497,7 @@
       <c r="K130" t="s">
         <v>1943</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>208</v>
       </c>
       <c r="N130" t="s">
@@ -26114,6 +26114,9 @@
       <c r="K137" t="s">
         <v>1940</v>
       </c>
+      <c r="L137" t="s">
+        <v>404</v>
+      </c>
       <c r="N137" t="s">
         <v>1123</v>
       </c>
@@ -28110,7 +28113,7 @@
       <c r="K160" t="s">
         <v>1943</v>
       </c>
-      <c r="L160" t="s">
+      <c r="M160" t="s">
         <v>208</v>
       </c>
       <c r="N160" t="s">
@@ -28748,7 +28751,7 @@
       <c r="K167" t="s">
         <v>1942</v>
       </c>
-      <c r="L167" t="s">
+      <c r="M167" t="s">
         <v>263</v>
       </c>
       <c r="N167" t="s">
@@ -29291,7 +29294,7 @@
       <c r="K173" t="s">
         <v>1943</v>
       </c>
-      <c r="L173" t="s">
+      <c r="M173" t="s">
         <v>208</v>
       </c>
       <c r="N173" t="s">
@@ -29380,7 +29383,7 @@
       <c r="K174" t="s">
         <v>1943</v>
       </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>208</v>
       </c>
       <c r="N174" t="s">
@@ -29742,7 +29745,7 @@
       <c r="K178" t="s">
         <v>1943</v>
       </c>
-      <c r="L178" t="s">
+      <c r="M178" t="s">
         <v>208</v>
       </c>
       <c r="N178" t="s">
@@ -30006,7 +30009,7 @@
       <c r="K181" t="s">
         <v>1943</v>
       </c>
-      <c r="L181" t="s">
+      <c r="M181" t="s">
         <v>208</v>
       </c>
       <c r="N181" t="s">
@@ -30095,7 +30098,7 @@
       <c r="K182" t="s">
         <v>1943</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>208</v>
       </c>
       <c r="N182" t="s">
@@ -30466,7 +30469,7 @@
       <c r="K186" t="s">
         <v>1943</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>208</v>
       </c>
       <c r="N186" t="s">
@@ -30555,7 +30558,7 @@
       <c r="K187" t="s">
         <v>1943</v>
       </c>
-      <c r="L187" t="s">
+      <c r="M187" t="s">
         <v>208</v>
       </c>
       <c r="N187" t="s">
@@ -31104,7 +31107,7 @@
       <c r="K193" t="s">
         <v>1943</v>
       </c>
-      <c r="L193" t="s">
+      <c r="M193" t="s">
         <v>208</v>
       </c>
       <c r="N193" t="s">
@@ -31279,7 +31282,7 @@
       <c r="K195" t="s">
         <v>1943</v>
       </c>
-      <c r="L195" t="s">
+      <c r="M195" t="s">
         <v>208</v>
       </c>
       <c r="N195" t="s">
@@ -31816,7 +31819,7 @@
       <c r="K201" t="s">
         <v>1943</v>
       </c>
-      <c r="L201" t="s">
+      <c r="M201" t="s">
         <v>208</v>
       </c>
       <c r="N201" t="s">
@@ -31908,7 +31911,7 @@
       <c r="K202" t="s">
         <v>1944</v>
       </c>
-      <c r="L202" t="s">
+      <c r="M202" t="s">
         <v>263</v>
       </c>
       <c r="N202" t="s">
@@ -32261,7 +32264,7 @@
       <c r="K206" t="s">
         <v>1943</v>
       </c>
-      <c r="L206" t="s">
+      <c r="M206" t="s">
         <v>208</v>
       </c>
       <c r="N206" t="s">
@@ -32792,7 +32795,7 @@
       <c r="K212" t="s">
         <v>1943</v>
       </c>
-      <c r="L212" t="s">
+      <c r="M212" t="s">
         <v>208</v>
       </c>
       <c r="N212" t="s">
@@ -33154,7 +33157,7 @@
       <c r="K216" t="s">
         <v>1944</v>
       </c>
-      <c r="L216" t="s">
+      <c r="M216" t="s">
         <v>263</v>
       </c>
       <c r="N216" t="s">
@@ -33252,7 +33255,7 @@
       <c r="K217" t="s">
         <v>1948</v>
       </c>
-      <c r="L217" t="s">
+      <c r="M217" t="s">
         <v>208</v>
       </c>
       <c r="N217" t="s">
@@ -34792,7 +34795,7 @@
       <c r="K234" t="s">
         <v>1943</v>
       </c>
-      <c r="L234" t="s">
+      <c r="M234" t="s">
         <v>208</v>
       </c>
       <c r="N234" t="s">
@@ -39182,7 +39185,7 @@
       <c r="K296" t="s">
         <v>1943</v>
       </c>
-      <c r="L296" t="s">
+      <c r="M296" t="s">
         <v>208</v>
       </c>
       <c r="N296" t="s">
@@ -41119,7 +41122,7 @@
       <c r="K318" t="s">
         <v>1943</v>
       </c>
-      <c r="L318" t="s">
+      <c r="M318" t="s">
         <v>208</v>
       </c>
       <c r="N318" t="s">
@@ -41656,7 +41659,7 @@
       <c r="K324" t="s">
         <v>1943</v>
       </c>
-      <c r="L324" t="s">
+      <c r="M324" t="s">
         <v>208</v>
       </c>
       <c r="N324" t="s">
@@ -42110,7 +42113,7 @@
       <c r="K329" t="s">
         <v>1944</v>
       </c>
-      <c r="L329" t="s">
+      <c r="M329" t="s">
         <v>398</v>
       </c>
       <c r="N329" t="s">
@@ -43982,7 +43985,7 @@
       <c r="K350" t="s">
         <v>1944</v>
       </c>
-      <c r="L350" t="s">
+      <c r="M350" t="s">
         <v>263</v>
       </c>
       <c r="N350" t="s">
@@ -44356,7 +44359,7 @@
       <c r="K354" t="s">
         <v>1944</v>
       </c>
-      <c r="L354" t="s">
+      <c r="M354" t="s">
         <v>398</v>
       </c>
       <c r="N354" t="s">
@@ -44454,7 +44457,7 @@
       <c r="K355" t="s">
         <v>1944</v>
       </c>
-      <c r="L355" t="s">
+      <c r="M355" t="s">
         <v>263</v>
       </c>
       <c r="N355" t="s">
@@ -46884,7 +46887,7 @@
       <c r="K382" t="s">
         <v>1943</v>
       </c>
-      <c r="L382" t="s">
+      <c r="M382" t="s">
         <v>208</v>
       </c>
       <c r="N382" t="s">
@@ -47878,7 +47881,7 @@
       <c r="K393" t="s">
         <v>1943</v>
       </c>
-      <c r="L393" t="s">
+      <c r="M393" t="s">
         <v>208</v>
       </c>
       <c r="N393" t="s">
@@ -48065,6 +48068,9 @@
       <c r="K395" t="s">
         <v>1940</v>
       </c>
+      <c r="L395" t="s">
+        <v>424</v>
+      </c>
       <c r="N395" t="s">
         <v>2189</v>
       </c>
@@ -49827,7 +49833,7 @@
       <c r="K415" t="s">
         <v>1943</v>
       </c>
-      <c r="L415" t="s">
+      <c r="M415" t="s">
         <v>208</v>
       </c>
       <c r="N415" t="s">
@@ -49917,7 +49923,7 @@
         <v>1940</v>
       </c>
       <c r="L416" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="N416" t="s">
         <v>1398</v>
@@ -51389,7 +51395,7 @@
       <c r="K434" t="s">
         <v>1943</v>
       </c>
-      <c r="L434" t="s">
+      <c r="M434" t="s">
         <v>208</v>
       </c>
       <c r="N434" t="s">
@@ -52374,7 +52380,7 @@
       <c r="K445" t="s">
         <v>1943</v>
       </c>
-      <c r="L445" t="s">
+      <c r="M445" t="s">
         <v>208</v>
       </c>
       <c r="N445" t="s">
@@ -53169,7 +53175,7 @@
       <c r="K454" t="s">
         <v>1944</v>
       </c>
-      <c r="L454" t="s">
+      <c r="M454" t="s">
         <v>263</v>
       </c>
       <c r="N454" t="s">
@@ -53451,6 +53457,9 @@
       <c r="K457" t="s">
         <v>1940</v>
       </c>
+      <c r="L457" t="s">
+        <v>404</v>
+      </c>
       <c r="N457" t="s">
         <v>1439</v>
       </c>
@@ -53522,7 +53531,7 @@
       <c r="K458" t="s">
         <v>1943</v>
       </c>
-      <c r="L458" t="s">
+      <c r="M458" t="s">
         <v>208</v>
       </c>
       <c r="N458" t="s">

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8723" uniqueCount="4504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8691" uniqueCount="4503">
   <si>
     <t>Dataset</t>
   </si>
@@ -13513,22 +13513,19 @@
     <t>No</t>
   </si>
   <si>
-    <t>[, ]</t>
-  </si>
-  <si>
-    <t>[, ', N, o, r, t, h, e, r, n,  , I, r, e, l, a, n, d, ', ,,  , ', S, c, o, t, l, a, n, d, ', ,,  , ', E, n, g, l, a, n, d, ', ,,  , ', W, a, l, e, s, ', ]</t>
-  </si>
-  <si>
-    <t>[, ', N, I, D, ', ,,  , ', S, C, O, ', ,,  , ', N, M, D, ', ,,  , ', W, P, A, ', ,,  , ', U, A, ', ,,  , ', L, B, O, ', ,,  , ', M, D, ', ,,  , ', C, T, Y, ', ,,  , ', C, O, M, B, ', ,,  , ', S, R, A, ', ,,  , ', C, C, ', ]</t>
-  </si>
-  <si>
-    <t>[, ', N, I,  , d, i, s, t, r, i, c, t, ', ,,  , ', S, c, o, t, t, i, s, h,  , u, n, i, t, a, r, y,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', N, o, n, -, m, e, t, r, o, p, o, l, i, t, a, n,  , d, i, s, t, r, i, c, t, ', ,,  , ', W, e, l, s, h,  , u, n, i, t, a, r, y,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', U, n, i, t, a, r, y,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', L, o, n, d, o, n,  , b, o, r, o, u, g, h, ', ,,  , ', M, e, t, r, o, p, o, l, i, t, a, n,  , d, i, s, t, r, i, c, t, ', ,,  , ', C, o, u, n, t, y, ', ,,  , ', C, o, m, b, i, n, e, d,  , a, u, t, h, o, r, i, t, y, ', ,,  , ', S, t, r, a, t, e, g, i, c,  , R, e, g, i, o, n, a, l,  , A, u, t, h, o, r, i, t, y, ', ,,  , ', C, i, t, y,  , c, o, r, p, o, r, a, t, i, o, n, ', ]</t>
-  </si>
-  <si>
-    <t>[, T, r, u, e, ,,  , F, a, l, s, e, ]</t>
-  </si>
-  <si>
-    <t>[, ', n, i,  , d, i, s, t, r, i, c, t, ', ,,  , ', u, n, i, t, a, r, y, ', ,,  , ', l, o, w, e, r,  , t, i, e, r, ', ,,  , ', u, p, p, e, r,  , t, i, e, r, ', ,,  , ', c, o, m, b, i, n, e, d, ', ]</t>
+    <t>Northern Ireland, Scotland, England, Wales</t>
+  </si>
+  <si>
+    <t>NID, SCO, NMD, WPA, UA, LBO, MD, CTY, COMB, SRA, CC</t>
+  </si>
+  <si>
+    <t>NI district, Scottish unitary authority, Non-metropolitan district, Welsh unitary authority, Unitary authority, London borough, Metropolitan district, County, Combined authority, Strategic Regional Authority, City corporation</t>
+  </si>
+  <si>
+    <t>True, False</t>
+  </si>
+  <si>
+    <t>ni district, unitary, lower tier, upper tier, combined</t>
   </si>
 </sst>
 </file>
@@ -54369,7 +54366,7 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="110.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="749.7109375" customWidth="1"/>
+    <col min="6" max="6" width="229.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -54408,9 +54405,6 @@
       <c r="E2" t="s">
         <v>4496</v>
       </c>
-      <c r="F2" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -54428,9 +54422,6 @@
       <c r="E3" t="s">
         <v>4496</v>
       </c>
-      <c r="F3" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -54448,9 +54439,6 @@
       <c r="E4" t="s">
         <v>4497</v>
       </c>
-      <c r="F4" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -54468,9 +54456,6 @@
       <c r="E5" t="s">
         <v>4497</v>
       </c>
-      <c r="F5" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -54488,9 +54473,6 @@
       <c r="E6" t="s">
         <v>4497</v>
       </c>
-      <c r="F6" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
@@ -54508,9 +54490,6 @@
       <c r="E7" t="s">
         <v>4497</v>
       </c>
-      <c r="F7" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -54528,9 +54507,6 @@
       <c r="E8" t="s">
         <v>4497</v>
       </c>
-      <c r="F8" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -54549,7 +54525,7 @@
         <v>4497</v>
       </c>
       <c r="F9" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -54568,9 +54544,6 @@
       <c r="E10" t="s">
         <v>4497</v>
       </c>
-      <c r="F10" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -54589,7 +54562,7 @@
         <v>4497</v>
       </c>
       <c r="F11" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -54609,7 +54582,7 @@
         <v>4497</v>
       </c>
       <c r="F12" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -54628,9 +54601,6 @@
       <c r="E13" t="s">
         <v>4497</v>
       </c>
-      <c r="F13" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -54648,9 +54618,6 @@
       <c r="E14" t="s">
         <v>4497</v>
       </c>
-      <c r="F14" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
@@ -54668,9 +54635,6 @@
       <c r="E15" t="s">
         <v>4496</v>
       </c>
-      <c r="F15" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -54688,9 +54652,6 @@
       <c r="E16" t="s">
         <v>4497</v>
       </c>
-      <c r="F16" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -54708,9 +54669,6 @@
       <c r="E17" t="s">
         <v>4497</v>
       </c>
-      <c r="F17" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -54729,7 +54687,7 @@
         <v>4497</v>
       </c>
       <c r="F18" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -54748,9 +54706,6 @@
       <c r="E19" t="s">
         <v>4497</v>
       </c>
-      <c r="F19" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
@@ -54768,9 +54723,6 @@
       <c r="E20" t="s">
         <v>4497</v>
       </c>
-      <c r="F20" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -54788,9 +54740,6 @@
       <c r="E21" t="s">
         <v>4497</v>
       </c>
-      <c r="F21" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -54808,9 +54757,6 @@
       <c r="E22" t="s">
         <v>4497</v>
       </c>
-      <c r="F22" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -54828,9 +54774,6 @@
       <c r="E23" t="s">
         <v>4497</v>
       </c>
-      <c r="F23" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -54848,9 +54791,6 @@
       <c r="E24" t="s">
         <v>4497</v>
       </c>
-      <c r="F24" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -54868,9 +54808,6 @@
       <c r="E25" t="s">
         <v>4497</v>
       </c>
-      <c r="F25" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -54888,9 +54825,6 @@
       <c r="E26" t="s">
         <v>4497</v>
       </c>
-      <c r="F26" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -54908,9 +54842,6 @@
       <c r="E27" t="s">
         <v>4497</v>
       </c>
-      <c r="F27" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -54928,9 +54859,6 @@
       <c r="E28" t="s">
         <v>4497</v>
       </c>
-      <c r="F28" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -54949,7 +54877,7 @@
         <v>4497</v>
       </c>
       <c r="F29" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -54969,7 +54897,7 @@
         <v>4497</v>
       </c>
       <c r="F30" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -54988,9 +54916,6 @@
       <c r="E31" t="s">
         <v>4497</v>
       </c>
-      <c r="F31" t="s">
-        <v>4498</v>
-      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
@@ -55008,11 +54933,8 @@
       <c r="E32" t="s">
         <v>4497</v>
       </c>
-      <c r="F32" t="s">
-        <v>4498</v>
-      </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -55028,11 +54950,8 @@
       <c r="E33" t="s">
         <v>4497</v>
       </c>
-      <c r="F33" t="s">
-        <v>4498</v>
-      </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -55048,11 +54967,8 @@
       <c r="E34" t="s">
         <v>4497</v>
       </c>
-      <c r="F34" t="s">
-        <v>4498</v>
-      </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -55068,11 +54984,8 @@
       <c r="E35" t="s">
         <v>4497</v>
       </c>
-      <c r="F35" t="s">
-        <v>4498</v>
-      </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -55088,11 +55001,8 @@
       <c r="E36" t="s">
         <v>4497</v>
       </c>
-      <c r="F36" t="s">
-        <v>4498</v>
-      </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -55108,11 +55018,8 @@
       <c r="E37" t="s">
         <v>4497</v>
       </c>
-      <c r="F37" t="s">
-        <v>4498</v>
-      </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -55128,11 +55035,8 @@
       <c r="E38" t="s">
         <v>4497</v>
       </c>
-      <c r="F38" t="s">
-        <v>4498</v>
-      </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -55147,9 +55051,6 @@
       </c>
       <c r="E39" t="s">
         <v>4497</v>
-      </c>
-      <c r="F39" t="s">
-        <v>4498</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -13504,7 +13504,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>True</t>
+    <t>False</t>
   </si>
   <si>
     <t>Yes</t>
@@ -13595,10 +13595,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -14006,7 +14009,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
@@ -14018,9 +14021,9 @@
     <col min="11" max="11" width="32.7109375" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" customWidth="1"/>
-    <col min="14" max="14" width="263.7109375" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="110.7109375" customWidth="1"/>
+    <col min="16" max="16" width="50.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
@@ -14046,118 +14049,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14165,7 +14168,7 @@
       <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>523</v>
       </c>
       <c r="C2" t="s">
@@ -14189,7 +14192,7 @@
       <c r="K2" t="s">
         <v>1938</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>1949</v>
       </c>
       <c r="Q2" t="b">
@@ -14242,7 +14245,7 @@
       <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>524</v>
       </c>
       <c r="C3" t="s">
@@ -14266,7 +14269,7 @@
       <c r="K3" t="s">
         <v>1939</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>1950</v>
       </c>
       <c r="Q3" t="b">
@@ -14328,7 +14331,7 @@
       <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>525</v>
       </c>
       <c r="C4" t="s">
@@ -14352,7 +14355,7 @@
       <c r="K4" t="s">
         <v>1939</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>1951</v>
       </c>
       <c r="Q4" t="b">
@@ -14414,7 +14417,7 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>526</v>
       </c>
       <c r="C5" t="s">
@@ -14438,7 +14441,7 @@
       <c r="L5" t="s">
         <v>515</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>992</v>
       </c>
       <c r="Q5" t="b">
@@ -14503,7 +14506,7 @@
       <c r="A6" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>527</v>
       </c>
       <c r="C6" t="s">
@@ -14527,7 +14530,7 @@
       <c r="K6" t="s">
         <v>1939</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>1952</v>
       </c>
       <c r="Q6" t="b">
@@ -14589,7 +14592,7 @@
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>528</v>
       </c>
       <c r="C7" t="s">
@@ -14613,7 +14616,7 @@
       <c r="K7" t="s">
         <v>1941</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>1953</v>
       </c>
       <c r="Q7" t="b">
@@ -14678,7 +14681,7 @@
       <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>529</v>
       </c>
       <c r="C8" t="s">
@@ -14708,7 +14711,7 @@
       <c r="L8" t="s">
         <v>136</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3" t="s">
         <v>995</v>
       </c>
       <c r="Q8" t="b">
@@ -14773,7 +14776,7 @@
       <c r="A9" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>530</v>
       </c>
       <c r="C9" t="s">
@@ -14797,7 +14800,7 @@
       <c r="L9" t="s">
         <v>155</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3" t="s">
         <v>996</v>
       </c>
       <c r="Q9" t="b">
@@ -14862,7 +14865,7 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>531</v>
       </c>
       <c r="C10" t="s">
@@ -14886,7 +14889,7 @@
       <c r="K10" t="s">
         <v>1938</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>1954</v>
       </c>
       <c r="Q10" t="b">
@@ -14939,7 +14942,7 @@
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>532</v>
       </c>
       <c r="C11" t="s">
@@ -14963,7 +14966,7 @@
       <c r="K11" t="s">
         <v>1938</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3" t="s">
         <v>1955</v>
       </c>
       <c r="Q11" t="b">
@@ -15016,7 +15019,7 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>533</v>
       </c>
       <c r="C12" t="s">
@@ -15040,7 +15043,7 @@
       <c r="K12" t="s">
         <v>1939</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>1956</v>
       </c>
       <c r="Q12" t="b">
@@ -15102,7 +15105,7 @@
       <c r="A13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>534</v>
       </c>
       <c r="C13" t="s">
@@ -15126,7 +15129,7 @@
       <c r="L13" t="s">
         <v>515</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="3" t="s">
         <v>1000</v>
       </c>
       <c r="Q13" t="b">
@@ -15191,7 +15194,7 @@
       <c r="A14" t="s">
         <v>69</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>535</v>
       </c>
       <c r="C14" t="s">
@@ -15215,7 +15218,7 @@
       <c r="L14" t="s">
         <v>251</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="3" t="s">
         <v>1001</v>
       </c>
       <c r="Q14" t="b">
@@ -15280,7 +15283,7 @@
       <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>536</v>
       </c>
       <c r="C15" t="s">
@@ -15304,7 +15307,7 @@
       <c r="L15" t="s">
         <v>346</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="3" t="s">
         <v>1002</v>
       </c>
       <c r="Q15" t="b">
@@ -15369,7 +15372,7 @@
       <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>537</v>
       </c>
       <c r="C16" t="s">
@@ -15399,7 +15402,7 @@
       <c r="L16" t="s">
         <v>87</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="3" t="s">
         <v>1003</v>
       </c>
       <c r="Q16" t="b">
@@ -15446,7 +15449,7 @@
       <c r="A17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>538</v>
       </c>
       <c r="C17" t="s">
@@ -15470,7 +15473,7 @@
       <c r="L17" t="s">
         <v>404</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>1004</v>
       </c>
       <c r="Q17" t="b">
@@ -15535,7 +15538,7 @@
       <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>539</v>
       </c>
       <c r="C18" t="s">
@@ -15559,7 +15562,7 @@
       <c r="L18" t="s">
         <v>346</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>1005</v>
       </c>
       <c r="Q18" t="b">
@@ -15624,7 +15627,7 @@
       <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>540</v>
       </c>
       <c r="C19" t="s">
@@ -15648,7 +15651,7 @@
       <c r="L19" t="s">
         <v>193</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="3" t="s">
         <v>1957</v>
       </c>
       <c r="Q19" t="b">
@@ -15713,7 +15716,7 @@
       <c r="A20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>541</v>
       </c>
       <c r="C20" t="s">
@@ -15737,7 +15740,7 @@
       <c r="L20" t="s">
         <v>223</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3" t="s">
         <v>1958</v>
       </c>
       <c r="Q20" t="b">
@@ -15802,7 +15805,7 @@
       <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>542</v>
       </c>
       <c r="C21" t="s">
@@ -15832,7 +15835,7 @@
       <c r="L21" t="s">
         <v>136</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3" t="s">
         <v>1008</v>
       </c>
       <c r="Q21" t="b">
@@ -15897,7 +15900,7 @@
       <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>543</v>
       </c>
       <c r="C22" t="s">
@@ -15924,7 +15927,7 @@
       <c r="M22" t="s">
         <v>485</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>1959</v>
       </c>
       <c r="Q22" t="b">
@@ -15995,7 +15998,7 @@
       <c r="A23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C23" t="s">
@@ -16019,7 +16022,7 @@
       <c r="K23" t="s">
         <v>1942</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="3" t="s">
         <v>1960</v>
       </c>
       <c r="Q23" t="b">
@@ -16090,7 +16093,7 @@
       <c r="A24" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>545</v>
       </c>
       <c r="C24" t="s">
@@ -16114,7 +16117,7 @@
       <c r="K24" t="s">
         <v>1942</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="3" t="s">
         <v>1961</v>
       </c>
       <c r="Q24" t="b">
@@ -16185,7 +16188,7 @@
       <c r="A25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>546</v>
       </c>
       <c r="C25" t="s">
@@ -16209,7 +16212,7 @@
       <c r="M25" t="s">
         <v>208</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="3" t="s">
         <v>1962</v>
       </c>
       <c r="Q25" t="b">
@@ -16274,7 +16277,7 @@
       <c r="A26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>547</v>
       </c>
       <c r="C26" t="s">
@@ -16298,7 +16301,7 @@
       <c r="M26" t="s">
         <v>208</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="3" t="s">
         <v>1963</v>
       </c>
       <c r="Q26" t="b">
@@ -16363,7 +16366,7 @@
       <c r="A27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C27" t="s">
@@ -16387,7 +16390,7 @@
       <c r="M27" t="s">
         <v>208</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="3" t="s">
         <v>1964</v>
       </c>
       <c r="Q27" t="b">
@@ -16452,7 +16455,7 @@
       <c r="A28" t="s">
         <v>83</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>549</v>
       </c>
       <c r="C28" t="s">
@@ -16476,7 +16479,7 @@
       <c r="K28" t="s">
         <v>1938</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="3" t="s">
         <v>1965</v>
       </c>
       <c r="Q28" t="b">
@@ -16532,7 +16535,7 @@
       <c r="A29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>550</v>
       </c>
       <c r="C29" t="s">
@@ -16556,7 +16559,7 @@
       <c r="K29" t="s">
         <v>1941</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="3" t="s">
         <v>1966</v>
       </c>
       <c r="Q29" t="b">
@@ -16621,7 +16624,7 @@
       <c r="A30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>551</v>
       </c>
       <c r="C30" t="s">
@@ -16645,7 +16648,7 @@
       <c r="K30" t="s">
         <v>1941</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="3" t="s">
         <v>1967</v>
       </c>
       <c r="Q30" t="b">
@@ -16710,7 +16713,7 @@
       <c r="A31" t="s">
         <v>86</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>552</v>
       </c>
       <c r="C31" t="s">
@@ -16737,7 +16740,7 @@
       <c r="M31" t="s">
         <v>499</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="3" t="s">
         <v>1968</v>
       </c>
       <c r="Q31" t="b">
@@ -16808,7 +16811,7 @@
       <c r="A32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>553</v>
       </c>
       <c r="C32" t="s">
@@ -16835,7 +16838,7 @@
       <c r="K32" t="s">
         <v>1945</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="3" t="s">
         <v>1969</v>
       </c>
       <c r="Q32" t="b">
@@ -16888,7 +16891,7 @@
       <c r="A33" t="s">
         <v>88</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>554</v>
       </c>
       <c r="C33" t="s">
@@ -16912,7 +16915,7 @@
       <c r="L33" t="s">
         <v>265</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="3" t="s">
         <v>1020</v>
       </c>
       <c r="Q33" t="b">
@@ -16977,7 +16980,7 @@
       <c r="A34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>555</v>
       </c>
       <c r="C34" t="s">
@@ -17004,7 +17007,7 @@
       <c r="K34" t="s">
         <v>1942</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="3" t="s">
         <v>1970</v>
       </c>
       <c r="Q34" t="b">
@@ -17054,7 +17057,7 @@
       <c r="A35" t="s">
         <v>90</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>556</v>
       </c>
       <c r="C35" t="s">
@@ -17078,7 +17081,7 @@
       <c r="M35" t="s">
         <v>208</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="3" t="s">
         <v>1022</v>
       </c>
       <c r="Q35" t="b">
@@ -17143,7 +17146,7 @@
       <c r="A36" t="s">
         <v>91</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>557</v>
       </c>
       <c r="C36" t="s">
@@ -17167,7 +17170,7 @@
       <c r="K36" t="s">
         <v>1942</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="3" t="s">
         <v>1971</v>
       </c>
       <c r="Q36" t="b">
@@ -17238,7 +17241,7 @@
       <c r="A37" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>558</v>
       </c>
       <c r="C37" t="s">
@@ -17265,7 +17268,7 @@
       <c r="M37" t="s">
         <v>398</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="3" t="s">
         <v>1972</v>
       </c>
       <c r="Q37" t="b">
@@ -17336,7 +17339,7 @@
       <c r="A38" t="s">
         <v>93</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>559</v>
       </c>
       <c r="C38" t="s">
@@ -17363,7 +17366,7 @@
       <c r="M38" t="s">
         <v>212</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="3" t="s">
         <v>1973</v>
       </c>
       <c r="Q38" t="b">
@@ -17434,7 +17437,7 @@
       <c r="A39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C39" t="s">
@@ -17458,7 +17461,7 @@
       <c r="L39" t="s">
         <v>155</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="3" t="s">
         <v>1026</v>
       </c>
       <c r="Q39" t="b">
@@ -17523,7 +17526,7 @@
       <c r="A40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>561</v>
       </c>
       <c r="C40" t="s">
@@ -17547,7 +17550,7 @@
       <c r="L40" t="s">
         <v>270</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="3" t="s">
         <v>1027</v>
       </c>
       <c r="Q40" t="b">
@@ -17612,7 +17615,7 @@
       <c r="A41" t="s">
         <v>96</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C41" t="s">
@@ -17636,7 +17639,7 @@
       <c r="K41" t="s">
         <v>1942</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="3" t="s">
         <v>1974</v>
       </c>
       <c r="Q41" t="b">
@@ -17686,7 +17689,7 @@
       <c r="A42" t="s">
         <v>97</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>563</v>
       </c>
       <c r="C42" t="s">
@@ -17710,7 +17713,7 @@
       <c r="K42" t="s">
         <v>1942</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="3" t="s">
         <v>1975</v>
       </c>
       <c r="Q42" t="b">
@@ -17781,7 +17784,7 @@
       <c r="A43" t="s">
         <v>98</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>564</v>
       </c>
       <c r="C43" t="s">
@@ -17805,7 +17808,7 @@
       <c r="L43" t="s">
         <v>193</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="3" t="s">
         <v>1976</v>
       </c>
       <c r="Q43" t="b">
@@ -17870,7 +17873,7 @@
       <c r="A44" t="s">
         <v>99</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C44" t="s">
@@ -17894,7 +17897,7 @@
       <c r="K44" t="s">
         <v>1942</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="3" t="s">
         <v>1977</v>
       </c>
       <c r="Q44" t="b">
@@ -17965,7 +17968,7 @@
       <c r="A45" t="s">
         <v>100</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>566</v>
       </c>
       <c r="C45" t="s">
@@ -17992,7 +17995,7 @@
       <c r="M45" t="s">
         <v>517</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="3" t="s">
         <v>1978</v>
       </c>
       <c r="Q45" t="b">
@@ -18063,7 +18066,7 @@
       <c r="A46" t="s">
         <v>101</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>567</v>
       </c>
       <c r="C46" t="s">
@@ -18087,7 +18090,7 @@
       <c r="L46" t="s">
         <v>306</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="3" t="s">
         <v>1033</v>
       </c>
       <c r="Q46" t="b">
@@ -18152,7 +18155,7 @@
       <c r="A47" t="s">
         <v>102</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>568</v>
       </c>
       <c r="C47" t="s">
@@ -18176,7 +18179,7 @@
       <c r="L47" t="s">
         <v>506</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="3" t="s">
         <v>1979</v>
       </c>
       <c r="Q47" t="b">
@@ -18241,7 +18244,7 @@
       <c r="A48" t="s">
         <v>103</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>569</v>
       </c>
       <c r="C48" t="s">
@@ -18265,7 +18268,7 @@
       <c r="L48" t="s">
         <v>306</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="3" t="s">
         <v>1980</v>
       </c>
       <c r="Q48" t="b">
@@ -18330,7 +18333,7 @@
       <c r="A49" t="s">
         <v>104</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>570</v>
       </c>
       <c r="C49" t="s">
@@ -18354,7 +18357,7 @@
       <c r="L49" t="s">
         <v>346</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" s="3" t="s">
         <v>1036</v>
       </c>
       <c r="Q49" t="b">
@@ -18419,7 +18422,7 @@
       <c r="A50" t="s">
         <v>105</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>571</v>
       </c>
       <c r="C50" t="s">
@@ -18443,7 +18446,7 @@
       <c r="L50" t="s">
         <v>193</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="3" t="s">
         <v>1037</v>
       </c>
       <c r="Q50" t="b">
@@ -18508,7 +18511,7 @@
       <c r="A51" t="s">
         <v>106</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>572</v>
       </c>
       <c r="C51" t="s">
@@ -18532,7 +18535,7 @@
       <c r="L51" t="s">
         <v>240</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" s="3" t="s">
         <v>1981</v>
       </c>
       <c r="Q51" t="b">
@@ -18597,7 +18600,7 @@
       <c r="A52" t="s">
         <v>107</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>573</v>
       </c>
       <c r="C52" t="s">
@@ -18621,7 +18624,7 @@
       <c r="M52" t="s">
         <v>208</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="3" t="s">
         <v>1982</v>
       </c>
       <c r="Q52" t="b">
@@ -18686,7 +18689,7 @@
       <c r="A53" t="s">
         <v>108</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>574</v>
       </c>
       <c r="C53" t="s">
@@ -18713,7 +18716,7 @@
       <c r="M53" t="s">
         <v>485</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="3" t="s">
         <v>1983</v>
       </c>
       <c r="Q53" t="b">
@@ -18784,7 +18787,7 @@
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>575</v>
       </c>
       <c r="C54" t="s">
@@ -18808,7 +18811,7 @@
       <c r="K54" t="s">
         <v>1942</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="3" t="s">
         <v>1984</v>
       </c>
       <c r="Q54" t="b">
@@ -18852,7 +18855,7 @@
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>576</v>
       </c>
       <c r="C55" t="s">
@@ -18876,7 +18879,7 @@
       <c r="L55" t="s">
         <v>259</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="3" t="s">
         <v>1042</v>
       </c>
       <c r="Q55" t="b">
@@ -18941,7 +18944,7 @@
       <c r="A56" t="s">
         <v>111</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>577</v>
       </c>
       <c r="C56" t="s">
@@ -18968,7 +18971,7 @@
       <c r="M56" t="s">
         <v>212</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="3" t="s">
         <v>1985</v>
       </c>
       <c r="Q56" t="b">
@@ -19039,7 +19042,7 @@
       <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>578</v>
       </c>
       <c r="C57" t="s">
@@ -19066,7 +19069,7 @@
       <c r="M57" t="s">
         <v>145</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="3" t="s">
         <v>1044</v>
       </c>
       <c r="Q57" t="b">
@@ -19131,7 +19134,7 @@
       <c r="A58" t="s">
         <v>113</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>579</v>
       </c>
       <c r="C58" t="s">
@@ -19155,7 +19158,7 @@
       <c r="M58" t="s">
         <v>145</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="3" t="s">
         <v>1986</v>
       </c>
       <c r="Q58" t="b">
@@ -19226,7 +19229,7 @@
       <c r="A59" t="s">
         <v>114</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>580</v>
       </c>
       <c r="C59" t="s">
@@ -19250,7 +19253,7 @@
       <c r="L59" t="s">
         <v>440</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="3" t="s">
         <v>1046</v>
       </c>
       <c r="Q59" t="b">
@@ -19315,7 +19318,7 @@
       <c r="A60" t="s">
         <v>115</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>581</v>
       </c>
       <c r="C60" t="s">
@@ -19345,7 +19348,7 @@
       <c r="L60" t="s">
         <v>136</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="Q60" t="b">
@@ -19410,7 +19413,7 @@
       <c r="A61" t="s">
         <v>116</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>582</v>
       </c>
       <c r="C61" t="s">
@@ -19434,7 +19437,7 @@
       <c r="L61" t="s">
         <v>193</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="3" t="s">
         <v>1048</v>
       </c>
       <c r="Q61" t="b">
@@ -19499,7 +19502,7 @@
       <c r="A62" t="s">
         <v>117</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>583</v>
       </c>
       <c r="C62" t="s">
@@ -19523,7 +19526,7 @@
       <c r="L62" t="s">
         <v>251</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="3" t="s">
         <v>1049</v>
       </c>
       <c r="Q62" t="b">
@@ -19588,7 +19591,7 @@
       <c r="A63" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>584</v>
       </c>
       <c r="C63" t="s">
@@ -19612,7 +19615,7 @@
       <c r="K63" t="s">
         <v>1941</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="3" t="s">
         <v>1987</v>
       </c>
       <c r="Q63" t="b">
@@ -19677,7 +19680,7 @@
       <c r="A64" t="s">
         <v>119</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>585</v>
       </c>
       <c r="C64" t="s">
@@ -19698,7 +19701,7 @@
       <c r="K64" t="s">
         <v>1942</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="Q64" t="b">
@@ -19715,7 +19718,7 @@
       <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>586</v>
       </c>
       <c r="C65" t="s">
@@ -19739,7 +19742,7 @@
       <c r="K65" t="s">
         <v>1942</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="3" t="s">
         <v>1989</v>
       </c>
       <c r="Q65" t="b">
@@ -19810,7 +19813,7 @@
       <c r="A66" t="s">
         <v>121</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>587</v>
       </c>
       <c r="C66" t="s">
@@ -19834,7 +19837,7 @@
       <c r="K66" t="s">
         <v>1938</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" s="3" t="s">
         <v>1990</v>
       </c>
       <c r="Q66" t="b">
@@ -19887,7 +19890,7 @@
       <c r="A67" t="s">
         <v>122</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>588</v>
       </c>
       <c r="C67" t="s">
@@ -19911,7 +19914,7 @@
       <c r="K67" t="s">
         <v>1941</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" s="3" t="s">
         <v>1991</v>
       </c>
       <c r="Q67" t="b">
@@ -19976,7 +19979,7 @@
       <c r="A68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>589</v>
       </c>
       <c r="C68" t="s">
@@ -20000,7 +20003,7 @@
       <c r="L68" t="s">
         <v>265</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="3" t="s">
         <v>1055</v>
       </c>
       <c r="Q68" t="b">
@@ -20065,7 +20068,7 @@
       <c r="A69" t="s">
         <v>124</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>590</v>
       </c>
       <c r="C69" t="s">
@@ -20092,7 +20095,7 @@
       <c r="L69" t="s">
         <v>163</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="Q69" t="b">
@@ -20139,7 +20142,7 @@
       <c r="A70" t="s">
         <v>125</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>591</v>
       </c>
       <c r="C70" t="s">
@@ -20163,7 +20166,7 @@
       <c r="K70" t="s">
         <v>1942</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" s="3" t="s">
         <v>1992</v>
       </c>
       <c r="Q70" t="b">
@@ -20234,7 +20237,7 @@
       <c r="A71" t="s">
         <v>126</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>592</v>
       </c>
       <c r="C71" t="s">
@@ -20261,7 +20264,7 @@
       <c r="L71" t="s">
         <v>515</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71" s="3" t="s">
         <v>1993</v>
       </c>
       <c r="Q71" t="b">
@@ -20326,7 +20329,7 @@
       <c r="A72" t="s">
         <v>127</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>593</v>
       </c>
       <c r="C72" t="s">
@@ -20350,7 +20353,7 @@
       <c r="L72" t="s">
         <v>193</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" s="3" t="s">
         <v>1994</v>
       </c>
       <c r="Q72" t="b">
@@ -20415,7 +20418,7 @@
       <c r="A73" t="s">
         <v>128</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>594</v>
       </c>
       <c r="C73" t="s">
@@ -20445,7 +20448,7 @@
       <c r="L73" t="s">
         <v>87</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" s="3" t="s">
         <v>1060</v>
       </c>
       <c r="Q73" t="b">
@@ -20492,7 +20495,7 @@
       <c r="A74" t="s">
         <v>129</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>595</v>
       </c>
       <c r="C74" t="s">
@@ -20516,7 +20519,7 @@
       <c r="L74" t="s">
         <v>259</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" s="3" t="s">
         <v>1061</v>
       </c>
       <c r="Q74" t="b">
@@ -20581,7 +20584,7 @@
       <c r="A75" t="s">
         <v>130</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>596</v>
       </c>
       <c r="C75" t="s">
@@ -20605,7 +20608,7 @@
       <c r="L75" t="s">
         <v>358</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" s="3" t="s">
         <v>1062</v>
       </c>
       <c r="Q75" t="b">
@@ -20670,7 +20673,7 @@
       <c r="A76" t="s">
         <v>131</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>597</v>
       </c>
       <c r="C76" t="s">
@@ -20694,7 +20697,7 @@
       <c r="L76" t="s">
         <v>155</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" s="3" t="s">
         <v>1063</v>
       </c>
       <c r="Q76" t="b">
@@ -20759,7 +20762,7 @@
       <c r="A77" t="s">
         <v>132</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>598</v>
       </c>
       <c r="C77" t="s">
@@ -20783,7 +20786,7 @@
       <c r="L77" t="s">
         <v>211</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N77" s="3" t="s">
         <v>1995</v>
       </c>
       <c r="Q77" t="b">
@@ -20848,7 +20851,7 @@
       <c r="A78" t="s">
         <v>133</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>599</v>
       </c>
       <c r="C78" t="s">
@@ -20872,7 +20875,7 @@
       <c r="K78" t="s">
         <v>1942</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N78" s="3" t="s">
         <v>1996</v>
       </c>
       <c r="Q78" t="b">
@@ -20943,7 +20946,7 @@
       <c r="A79" t="s">
         <v>134</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>600</v>
       </c>
       <c r="C79" t="s">
@@ -20970,7 +20973,7 @@
       <c r="M79" t="s">
         <v>517</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" s="3" t="s">
         <v>1997</v>
       </c>
       <c r="Q79" t="b">
@@ -21041,7 +21044,7 @@
       <c r="A80" t="s">
         <v>135</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>601</v>
       </c>
       <c r="C80" t="s">
@@ -21065,7 +21068,7 @@
       <c r="K80" t="s">
         <v>1939</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N80" s="3" t="s">
         <v>1998</v>
       </c>
       <c r="Q80" t="b">
@@ -21127,7 +21130,7 @@
       <c r="A81" t="s">
         <v>136</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>602</v>
       </c>
       <c r="C81" t="s">
@@ -21154,7 +21157,7 @@
       <c r="K81" t="s">
         <v>1945</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N81" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="Q81" t="b">
@@ -21225,7 +21228,7 @@
       <c r="A82" t="s">
         <v>137</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>603</v>
       </c>
       <c r="C82" t="s">
@@ -21249,7 +21252,7 @@
       <c r="M82" t="s">
         <v>208</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N82" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="Q82" t="b">
@@ -21314,7 +21317,7 @@
       <c r="A83" t="s">
         <v>138</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>604</v>
       </c>
       <c r="C83" t="s">
@@ -21338,7 +21341,7 @@
       <c r="K83" t="s">
         <v>1941</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N83" s="3" t="s">
         <v>2001</v>
       </c>
       <c r="Q83" t="b">
@@ -21403,7 +21406,7 @@
       <c r="A84" t="s">
         <v>139</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>605</v>
       </c>
       <c r="C84" t="s">
@@ -21427,7 +21430,7 @@
       <c r="L84" t="s">
         <v>193</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N84" s="3" t="s">
         <v>1071</v>
       </c>
       <c r="Q84" t="b">
@@ -21492,7 +21495,7 @@
       <c r="A85" t="s">
         <v>140</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>606</v>
       </c>
       <c r="C85" t="s">
@@ -21516,7 +21519,7 @@
       <c r="K85" t="s">
         <v>1942</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N85" s="3" t="s">
         <v>2002</v>
       </c>
       <c r="Q85" t="b">
@@ -21587,7 +21590,7 @@
       <c r="A86" t="s">
         <v>141</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>607</v>
       </c>
       <c r="C86" t="s">
@@ -21617,7 +21620,7 @@
       <c r="L86" t="s">
         <v>136</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N86" s="3" t="s">
         <v>1073</v>
       </c>
       <c r="Q86" t="b">
@@ -21682,7 +21685,7 @@
       <c r="A87" t="s">
         <v>142</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>608</v>
       </c>
       <c r="C87" t="s">
@@ -21712,7 +21715,7 @@
       <c r="L87" t="s">
         <v>344</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" s="3" t="s">
         <v>1074</v>
       </c>
       <c r="Q87" t="b">
@@ -21759,7 +21762,7 @@
       <c r="A88" t="s">
         <v>143</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>609</v>
       </c>
       <c r="C88" t="s">
@@ -21783,7 +21786,7 @@
       <c r="L88" t="s">
         <v>211</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N88" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="Q88" t="b">
@@ -21848,7 +21851,7 @@
       <c r="A89" t="s">
         <v>144</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>610</v>
       </c>
       <c r="C89" t="s">
@@ -21875,7 +21878,7 @@
       <c r="M89" t="s">
         <v>499</v>
       </c>
-      <c r="N89" t="s">
+      <c r="N89" s="3" t="s">
         <v>2003</v>
       </c>
       <c r="Q89" t="b">
@@ -21946,7 +21949,7 @@
       <c r="A90" t="s">
         <v>145</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>611</v>
       </c>
       <c r="C90" t="s">
@@ -21970,7 +21973,7 @@
       <c r="K90" t="s">
         <v>1946</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N90" s="3" t="s">
         <v>2004</v>
       </c>
       <c r="Q90" t="b">
@@ -22002,7 +22005,7 @@
       <c r="A91" t="s">
         <v>146</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>612</v>
       </c>
       <c r="C91" t="s">
@@ -22032,7 +22035,7 @@
       <c r="L91" t="s">
         <v>354</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N91" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="Q91" t="b">
@@ -22097,7 +22100,7 @@
       <c r="A92" t="s">
         <v>147</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>613</v>
       </c>
       <c r="C92" t="s">
@@ -22121,7 +22124,7 @@
       <c r="K92" t="s">
         <v>1941</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N92" s="3" t="s">
         <v>2005</v>
       </c>
       <c r="Q92" t="b">
@@ -22186,7 +22189,7 @@
       <c r="A93" t="s">
         <v>148</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>614</v>
       </c>
       <c r="C93" t="s">
@@ -22213,7 +22216,7 @@
       <c r="L93" t="s">
         <v>515</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N93" s="3" t="s">
         <v>2006</v>
       </c>
       <c r="Q93" t="b">
@@ -22278,7 +22281,7 @@
       <c r="A94" t="s">
         <v>149</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>615</v>
       </c>
       <c r="C94" t="s">
@@ -22302,7 +22305,7 @@
       <c r="M94" t="s">
         <v>208</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N94" s="3" t="s">
         <v>2007</v>
       </c>
       <c r="Q94" t="b">
@@ -22367,7 +22370,7 @@
       <c r="A95" t="s">
         <v>150</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>616</v>
       </c>
       <c r="C95" t="s">
@@ -22391,7 +22394,7 @@
       <c r="K95" t="s">
         <v>1941</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N95" s="3" t="s">
         <v>2008</v>
       </c>
       <c r="Q95" t="b">
@@ -22456,7 +22459,7 @@
       <c r="A96" t="s">
         <v>151</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>617</v>
       </c>
       <c r="C96" t="s">
@@ -22480,7 +22483,7 @@
       <c r="L96" t="s">
         <v>240</v>
       </c>
-      <c r="N96" t="s">
+      <c r="N96" s="3" t="s">
         <v>1083</v>
       </c>
       <c r="Q96" t="b">
@@ -22545,7 +22548,7 @@
       <c r="A97" t="s">
         <v>152</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>618</v>
       </c>
       <c r="C97" t="s">
@@ -22572,7 +22575,7 @@
       <c r="M97" t="s">
         <v>469</v>
       </c>
-      <c r="N97" t="s">
+      <c r="N97" s="3" t="s">
         <v>2009</v>
       </c>
       <c r="Q97" t="b">
@@ -22643,7 +22646,7 @@
       <c r="A98" t="s">
         <v>153</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>619</v>
       </c>
       <c r="C98" t="s">
@@ -22667,7 +22670,7 @@
       <c r="L98" t="s">
         <v>251</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N98" s="3" t="s">
         <v>1085</v>
       </c>
       <c r="Q98" t="b">
@@ -22732,7 +22735,7 @@
       <c r="A99" t="s">
         <v>154</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>620</v>
       </c>
       <c r="C99" t="s">
@@ -22762,7 +22765,7 @@
       <c r="L99" t="s">
         <v>344</v>
       </c>
-      <c r="N99" t="s">
+      <c r="N99" s="3" t="s">
         <v>1086</v>
       </c>
       <c r="Q99" t="b">
@@ -22809,7 +22812,7 @@
       <c r="A100" t="s">
         <v>155</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>621</v>
       </c>
       <c r="C100" t="s">
@@ -22830,7 +22833,7 @@
       <c r="K100" t="s">
         <v>1945</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N100" s="3" t="s">
         <v>2010</v>
       </c>
       <c r="Q100" t="b">
@@ -22901,7 +22904,7 @@
       <c r="A101" t="s">
         <v>156</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>622</v>
       </c>
       <c r="C101" t="s">
@@ -22925,7 +22928,7 @@
       <c r="L101" t="s">
         <v>155</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N101" s="3" t="s">
         <v>1088</v>
       </c>
       <c r="Q101" t="b">
@@ -22990,7 +22993,7 @@
       <c r="A102" t="s">
         <v>157</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>623</v>
       </c>
       <c r="C102" t="s">
@@ -23014,7 +23017,7 @@
       <c r="K102" t="s">
         <v>1941</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N102" s="3" t="s">
         <v>2011</v>
       </c>
       <c r="Q102" t="b">
@@ -23079,7 +23082,7 @@
       <c r="A103" t="s">
         <v>158</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>624</v>
       </c>
       <c r="C103" t="s">
@@ -23100,7 +23103,7 @@
       <c r="K103" t="s">
         <v>1942</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N103" s="3" t="s">
         <v>2012</v>
       </c>
       <c r="Q103" t="b">
@@ -23171,7 +23174,7 @@
       <c r="A104" t="s">
         <v>159</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>625</v>
       </c>
       <c r="C104" t="s">
@@ -23192,7 +23195,7 @@
       <c r="K104" t="s">
         <v>1945</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="Q104" t="b">
@@ -23263,7 +23266,7 @@
       <c r="A105" t="s">
         <v>160</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C105" t="s">
@@ -23287,7 +23290,7 @@
       <c r="K105" t="s">
         <v>1939</v>
       </c>
-      <c r="N105" t="s">
+      <c r="N105" s="3" t="s">
         <v>2014</v>
       </c>
       <c r="Q105" t="b">
@@ -23349,7 +23352,7 @@
       <c r="A106" t="s">
         <v>161</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C106" t="s">
@@ -23376,7 +23379,7 @@
       <c r="M106" t="s">
         <v>398</v>
       </c>
-      <c r="N106" t="s">
+      <c r="N106" s="3" t="s">
         <v>2015</v>
       </c>
       <c r="Q106" t="b">
@@ -23447,7 +23450,7 @@
       <c r="A107" t="s">
         <v>162</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C107" t="s">
@@ -23471,7 +23474,7 @@
       <c r="K107" t="s">
         <v>1939</v>
       </c>
-      <c r="N107" t="s">
+      <c r="N107" s="3" t="s">
         <v>2016</v>
       </c>
       <c r="Q107" t="b">
@@ -23533,7 +23536,7 @@
       <c r="A108" t="s">
         <v>163</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>629</v>
       </c>
       <c r="C108" t="s">
@@ -23560,7 +23563,7 @@
       <c r="K108" t="s">
         <v>1945</v>
       </c>
-      <c r="N108" t="s">
+      <c r="N108" s="3" t="s">
         <v>2017</v>
       </c>
       <c r="Q108" t="b">
@@ -23631,7 +23634,7 @@
       <c r="A109" t="s">
         <v>164</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>630</v>
       </c>
       <c r="C109" t="s">
@@ -23655,7 +23658,7 @@
       <c r="L109" t="s">
         <v>251</v>
       </c>
-      <c r="N109" t="s">
+      <c r="N109" s="3" t="s">
         <v>1096</v>
       </c>
       <c r="Q109" t="b">
@@ -23720,7 +23723,7 @@
       <c r="A110" t="s">
         <v>165</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>631</v>
       </c>
       <c r="C110" t="s">
@@ -23744,7 +23747,7 @@
       <c r="K110" t="s">
         <v>1938</v>
       </c>
-      <c r="N110" t="s">
+      <c r="N110" s="3" t="s">
         <v>2018</v>
       </c>
       <c r="Q110" t="b">
@@ -23797,7 +23800,7 @@
       <c r="A111" t="s">
         <v>166</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>632</v>
       </c>
       <c r="C111" t="s">
@@ -23821,7 +23824,7 @@
       <c r="K111" t="s">
         <v>1942</v>
       </c>
-      <c r="N111" t="s">
+      <c r="N111" s="3" t="s">
         <v>2019</v>
       </c>
       <c r="Q111" t="b">
@@ -23868,7 +23871,7 @@
       <c r="A112" t="s">
         <v>167</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>633</v>
       </c>
       <c r="C112" t="s">
@@ -23895,7 +23898,7 @@
       <c r="M112" t="s">
         <v>499</v>
       </c>
-      <c r="N112" t="s">
+      <c r="N112" s="3" t="s">
         <v>2020</v>
       </c>
       <c r="Q112" t="b">
@@ -23966,7 +23969,7 @@
       <c r="A113" t="s">
         <v>168</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>634</v>
       </c>
       <c r="C113" t="s">
@@ -23993,7 +23996,7 @@
       <c r="M113" t="s">
         <v>301</v>
       </c>
-      <c r="N113" t="s">
+      <c r="N113" s="3" t="s">
         <v>2021</v>
       </c>
       <c r="Q113" t="b">
@@ -24064,7 +24067,7 @@
       <c r="A114" t="s">
         <v>169</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C114" t="s">
@@ -24088,7 +24091,7 @@
       <c r="M114" t="s">
         <v>208</v>
       </c>
-      <c r="N114" t="s">
+      <c r="N114" s="3" t="s">
         <v>2022</v>
       </c>
       <c r="Q114" t="b">
@@ -24153,7 +24156,7 @@
       <c r="A115" t="s">
         <v>170</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>636</v>
       </c>
       <c r="C115" t="s">
@@ -24177,7 +24180,7 @@
       <c r="L115" t="s">
         <v>195</v>
       </c>
-      <c r="N115" t="s">
+      <c r="N115" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="Q115" t="b">
@@ -24242,7 +24245,7 @@
       <c r="A116" t="s">
         <v>171</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>637</v>
       </c>
       <c r="C116" t="s">
@@ -24266,7 +24269,7 @@
       <c r="L116" t="s">
         <v>223</v>
       </c>
-      <c r="N116" t="s">
+      <c r="N116" s="3" t="s">
         <v>1102</v>
       </c>
       <c r="Q116" t="b">
@@ -24331,7 +24334,7 @@
       <c r="A117" t="s">
         <v>172</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C117" t="s">
@@ -24355,7 +24358,7 @@
       <c r="K117" t="s">
         <v>1939</v>
       </c>
-      <c r="N117" t="s">
+      <c r="N117" s="3" t="s">
         <v>2023</v>
       </c>
       <c r="Q117" t="b">
@@ -24417,7 +24420,7 @@
       <c r="A118" t="s">
         <v>173</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>639</v>
       </c>
       <c r="C118" t="s">
@@ -24444,7 +24447,7 @@
       <c r="M118" t="s">
         <v>145</v>
       </c>
-      <c r="N118" t="s">
+      <c r="N118" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="Q118" t="b">
@@ -24509,7 +24512,7 @@
       <c r="A119" t="s">
         <v>174</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>640</v>
       </c>
       <c r="C119" t="s">
@@ -24533,7 +24536,7 @@
       <c r="L119" t="s">
         <v>159</v>
       </c>
-      <c r="N119" t="s">
+      <c r="N119" s="3" t="s">
         <v>2024</v>
       </c>
       <c r="Q119" t="b">
@@ -24598,7 +24601,7 @@
       <c r="A120" t="s">
         <v>175</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>641</v>
       </c>
       <c r="C120" t="s">
@@ -24622,7 +24625,7 @@
       <c r="K120" t="s">
         <v>1939</v>
       </c>
-      <c r="N120" t="s">
+      <c r="N120" s="3" t="s">
         <v>2025</v>
       </c>
       <c r="Q120" t="b">
@@ -24684,7 +24687,7 @@
       <c r="A121" t="s">
         <v>176</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>642</v>
       </c>
       <c r="C121" t="s">
@@ -24714,7 +24717,7 @@
       <c r="L121" t="s">
         <v>136</v>
       </c>
-      <c r="N121" t="s">
+      <c r="N121" s="3" t="s">
         <v>1107</v>
       </c>
       <c r="Q121" t="b">
@@ -24779,7 +24782,7 @@
       <c r="A122" t="s">
         <v>177</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>643</v>
       </c>
       <c r="C122" t="s">
@@ -24806,7 +24809,7 @@
       <c r="L122" t="s">
         <v>163</v>
       </c>
-      <c r="N122" t="s">
+      <c r="N122" s="3" t="s">
         <v>2026</v>
       </c>
       <c r="Q122" t="b">
@@ -24853,7 +24856,7 @@
       <c r="A123" t="s">
         <v>178</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>644</v>
       </c>
       <c r="C123" t="s">
@@ -24877,7 +24880,7 @@
       <c r="K123" t="s">
         <v>1939</v>
       </c>
-      <c r="N123" t="s">
+      <c r="N123" s="3" t="s">
         <v>2027</v>
       </c>
       <c r="O123" t="s">
@@ -24942,7 +24945,7 @@
       <c r="A124" t="s">
         <v>179</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>645</v>
       </c>
       <c r="C124" t="s">
@@ -24966,7 +24969,7 @@
       <c r="L124" t="s">
         <v>223</v>
       </c>
-      <c r="N124" t="s">
+      <c r="N124" s="3" t="s">
         <v>2028</v>
       </c>
       <c r="Q124" t="b">
@@ -25031,7 +25034,7 @@
       <c r="A125" t="s">
         <v>180</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>646</v>
       </c>
       <c r="C125" t="s">
@@ -25055,7 +25058,7 @@
       <c r="L125" t="s">
         <v>240</v>
       </c>
-      <c r="N125" t="s">
+      <c r="N125" s="3" t="s">
         <v>2029</v>
       </c>
       <c r="O125" t="s">
@@ -25123,7 +25126,7 @@
       <c r="A126" t="s">
         <v>181</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>647</v>
       </c>
       <c r="C126" t="s">
@@ -25147,7 +25150,7 @@
       <c r="L126" t="s">
         <v>270</v>
       </c>
-      <c r="N126" t="s">
+      <c r="N126" s="3" t="s">
         <v>2030</v>
       </c>
       <c r="Q126" t="b">
@@ -25212,7 +25215,7 @@
       <c r="A127" t="s">
         <v>182</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>648</v>
       </c>
       <c r="C127" t="s">
@@ -25236,7 +25239,7 @@
       <c r="L127" t="s">
         <v>429</v>
       </c>
-      <c r="N127" t="s">
+      <c r="N127" s="3" t="s">
         <v>1113</v>
       </c>
       <c r="Q127" t="b">
@@ -25301,7 +25304,7 @@
       <c r="A128" t="s">
         <v>183</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>649</v>
       </c>
       <c r="C128" t="s">
@@ -25325,7 +25328,7 @@
       <c r="K128" t="s">
         <v>1939</v>
       </c>
-      <c r="N128" t="s">
+      <c r="N128" s="3" t="s">
         <v>2031</v>
       </c>
       <c r="Q128" t="b">
@@ -25387,7 +25390,7 @@
       <c r="A129" t="s">
         <v>184</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>650</v>
       </c>
       <c r="C129" t="s">
@@ -25411,7 +25414,7 @@
       <c r="K129" t="s">
         <v>1939</v>
       </c>
-      <c r="N129" t="s">
+      <c r="N129" s="3" t="s">
         <v>2032</v>
       </c>
       <c r="Q129" t="b">
@@ -25473,7 +25476,7 @@
       <c r="A130" t="s">
         <v>185</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>651</v>
       </c>
       <c r="C130" t="s">
@@ -25497,7 +25500,7 @@
       <c r="M130" t="s">
         <v>208</v>
       </c>
-      <c r="N130" t="s">
+      <c r="N130" s="3" t="s">
         <v>2033</v>
       </c>
       <c r="Q130" t="b">
@@ -25562,7 +25565,7 @@
       <c r="A131" t="s">
         <v>186</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>652</v>
       </c>
       <c r="C131" t="s">
@@ -25592,7 +25595,7 @@
       <c r="L131" t="s">
         <v>344</v>
       </c>
-      <c r="N131" t="s">
+      <c r="N131" s="3" t="s">
         <v>1117</v>
       </c>
       <c r="Q131" t="b">
@@ -25639,7 +25642,7 @@
       <c r="A132" t="s">
         <v>187</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>653</v>
       </c>
       <c r="C132" t="s">
@@ -25663,7 +25666,7 @@
       <c r="L132" t="s">
         <v>193</v>
       </c>
-      <c r="N132" t="s">
+      <c r="N132" s="3" t="s">
         <v>1118</v>
       </c>
       <c r="Q132" t="b">
@@ -25728,7 +25731,7 @@
       <c r="A133" t="s">
         <v>188</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>654</v>
       </c>
       <c r="C133" t="s">
@@ -25752,7 +25755,7 @@
       <c r="L133" t="s">
         <v>429</v>
       </c>
-      <c r="N133" t="s">
+      <c r="N133" s="3" t="s">
         <v>2034</v>
       </c>
       <c r="Q133" t="b">
@@ -25817,7 +25820,7 @@
       <c r="A134" t="s">
         <v>189</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>655</v>
       </c>
       <c r="C134" t="s">
@@ -25841,7 +25844,7 @@
       <c r="L134" t="s">
         <v>155</v>
       </c>
-      <c r="N134" t="s">
+      <c r="N134" s="3" t="s">
         <v>1120</v>
       </c>
       <c r="Q134" t="b">
@@ -25906,7 +25909,7 @@
       <c r="A135" t="s">
         <v>190</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>656</v>
       </c>
       <c r="C135" t="s">
@@ -25930,7 +25933,7 @@
       <c r="K135" t="s">
         <v>1939</v>
       </c>
-      <c r="N135" t="s">
+      <c r="N135" s="3" t="s">
         <v>2035</v>
       </c>
       <c r="Q135" t="b">
@@ -25992,7 +25995,7 @@
       <c r="A136" t="s">
         <v>191</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>657</v>
       </c>
       <c r="C136" t="s">
@@ -26016,7 +26019,7 @@
       <c r="K136" t="s">
         <v>1942</v>
       </c>
-      <c r="N136" t="s">
+      <c r="N136" s="3" t="s">
         <v>2036</v>
       </c>
       <c r="Q136" t="b">
@@ -26087,7 +26090,7 @@
       <c r="A137" t="s">
         <v>192</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>658</v>
       </c>
       <c r="C137" t="s">
@@ -26114,7 +26117,7 @@
       <c r="L137" t="s">
         <v>404</v>
       </c>
-      <c r="N137" t="s">
+      <c r="N137" s="3" t="s">
         <v>1123</v>
       </c>
       <c r="Q137" t="b">
@@ -26164,7 +26167,7 @@
       <c r="A138" t="s">
         <v>193</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>659</v>
       </c>
       <c r="C138" t="s">
@@ -26185,7 +26188,7 @@
       <c r="K138" t="s">
         <v>1945</v>
       </c>
-      <c r="N138" t="s">
+      <c r="N138" s="3" t="s">
         <v>2037</v>
       </c>
       <c r="Q138" t="b">
@@ -26256,7 +26259,7 @@
       <c r="A139" t="s">
         <v>194</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>660</v>
       </c>
       <c r="C139" t="s">
@@ -26280,7 +26283,7 @@
       <c r="L139" t="s">
         <v>440</v>
       </c>
-      <c r="N139" t="s">
+      <c r="N139" s="3" t="s">
         <v>2038</v>
       </c>
       <c r="Q139" t="b">
@@ -26345,7 +26348,7 @@
       <c r="A140" t="s">
         <v>195</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>661</v>
       </c>
       <c r="C140" t="s">
@@ -26366,7 +26369,7 @@
       <c r="K140" t="s">
         <v>1945</v>
       </c>
-      <c r="N140" t="s">
+      <c r="N140" s="3" t="s">
         <v>2039</v>
       </c>
       <c r="Q140" t="b">
@@ -26437,7 +26440,7 @@
       <c r="A141" t="s">
         <v>196</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>662</v>
       </c>
       <c r="C141" t="s">
@@ -26461,7 +26464,7 @@
       <c r="L141" t="s">
         <v>159</v>
       </c>
-      <c r="N141" t="s">
+      <c r="N141" s="3" t="s">
         <v>1127</v>
       </c>
       <c r="Q141" t="b">
@@ -26526,7 +26529,7 @@
       <c r="A142" t="s">
         <v>197</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>663</v>
       </c>
       <c r="C142" t="s">
@@ -26550,7 +26553,7 @@
       <c r="K142" t="s">
         <v>1939</v>
       </c>
-      <c r="N142" t="s">
+      <c r="N142" s="3" t="s">
         <v>2040</v>
       </c>
       <c r="Q142" t="b">
@@ -26612,7 +26615,7 @@
       <c r="A143" t="s">
         <v>198</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>664</v>
       </c>
       <c r="C143" t="s">
@@ -26636,7 +26639,7 @@
       <c r="L143" t="s">
         <v>223</v>
       </c>
-      <c r="N143" t="s">
+      <c r="N143" s="3" t="s">
         <v>1129</v>
       </c>
       <c r="Q143" t="b">
@@ -26701,7 +26704,7 @@
       <c r="A144" t="s">
         <v>199</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>665</v>
       </c>
       <c r="C144" t="s">
@@ -26728,7 +26731,7 @@
       <c r="M144" t="s">
         <v>145</v>
       </c>
-      <c r="N144" t="s">
+      <c r="N144" s="3" t="s">
         <v>1130</v>
       </c>
       <c r="Q144" t="b">
@@ -26793,7 +26796,7 @@
       <c r="A145" t="s">
         <v>200</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>666</v>
       </c>
       <c r="C145" t="s">
@@ -26817,7 +26820,7 @@
       <c r="K145" t="s">
         <v>1939</v>
       </c>
-      <c r="N145" t="s">
+      <c r="N145" s="3" t="s">
         <v>2041</v>
       </c>
       <c r="O145" t="s">
@@ -26882,7 +26885,7 @@
       <c r="A146" t="s">
         <v>201</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>667</v>
       </c>
       <c r="C146" t="s">
@@ -26906,7 +26909,7 @@
       <c r="K146" t="s">
         <v>1941</v>
       </c>
-      <c r="N146" t="s">
+      <c r="N146" s="3" t="s">
         <v>2042</v>
       </c>
       <c r="Q146" t="b">
@@ -26971,7 +26974,7 @@
       <c r="A147" t="s">
         <v>202</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>668</v>
       </c>
       <c r="C147" t="s">
@@ -26995,7 +26998,7 @@
       <c r="K147" t="s">
         <v>1938</v>
       </c>
-      <c r="N147" t="s">
+      <c r="N147" s="3" t="s">
         <v>2043</v>
       </c>
       <c r="Q147" t="b">
@@ -27048,7 +27051,7 @@
       <c r="A148" t="s">
         <v>203</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>669</v>
       </c>
       <c r="C148" t="s">
@@ -27072,7 +27075,7 @@
       <c r="L148" t="s">
         <v>211</v>
       </c>
-      <c r="N148" t="s">
+      <c r="N148" s="3" t="s">
         <v>1134</v>
       </c>
       <c r="Q148" t="b">
@@ -27137,7 +27140,7 @@
       <c r="A149" t="s">
         <v>204</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>670</v>
       </c>
       <c r="C149" t="s">
@@ -27164,7 +27167,7 @@
       <c r="L149" t="s">
         <v>429</v>
       </c>
-      <c r="N149" t="s">
+      <c r="N149" s="3" t="s">
         <v>1135</v>
       </c>
       <c r="Q149" t="b">
@@ -27211,7 +27214,7 @@
       <c r="A150" t="s">
         <v>205</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C150" t="s">
@@ -27235,7 +27238,7 @@
       <c r="L150" t="s">
         <v>259</v>
       </c>
-      <c r="N150" t="s">
+      <c r="N150" s="3" t="s">
         <v>1136</v>
       </c>
       <c r="Q150" t="b">
@@ -27300,7 +27303,7 @@
       <c r="A151" t="s">
         <v>206</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>672</v>
       </c>
       <c r="C151" t="s">
@@ -27327,7 +27330,7 @@
       <c r="M151" t="s">
         <v>301</v>
       </c>
-      <c r="N151" t="s">
+      <c r="N151" s="3" t="s">
         <v>2044</v>
       </c>
       <c r="O151" t="s">
@@ -27398,7 +27401,7 @@
       <c r="A152" t="s">
         <v>207</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C152" t="s">
@@ -27422,7 +27425,7 @@
       <c r="L152" t="s">
         <v>346</v>
       </c>
-      <c r="N152" t="s">
+      <c r="N152" s="3" t="s">
         <v>1138</v>
       </c>
       <c r="Q152" t="b">
@@ -27487,7 +27490,7 @@
       <c r="A153" t="s">
         <v>208</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>674</v>
       </c>
       <c r="C153" t="s">
@@ -27511,10 +27514,10 @@
       <c r="K153" t="s">
         <v>1947</v>
       </c>
-      <c r="N153" t="s">
+      <c r="N153" s="3" t="s">
         <v>2045</v>
       </c>
-      <c r="P153" t="s">
+      <c r="P153" s="3" t="s">
         <v>2244</v>
       </c>
       <c r="Q153" t="b">
@@ -27573,7 +27576,7 @@
       <c r="A154" t="s">
         <v>209</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>675</v>
       </c>
       <c r="C154" t="s">
@@ -27597,7 +27600,7 @@
       <c r="K154" t="s">
         <v>1939</v>
       </c>
-      <c r="N154" t="s">
+      <c r="N154" s="3" t="s">
         <v>2046</v>
       </c>
       <c r="O154" t="s">
@@ -27662,7 +27665,7 @@
       <c r="A155" t="s">
         <v>210</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>676</v>
       </c>
       <c r="C155" t="s">
@@ -27686,7 +27689,7 @@
       <c r="L155" t="s">
         <v>211</v>
       </c>
-      <c r="N155" t="s">
+      <c r="N155" s="3" t="s">
         <v>1141</v>
       </c>
       <c r="Q155" t="b">
@@ -27751,7 +27754,7 @@
       <c r="A156" t="s">
         <v>211</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>677</v>
       </c>
       <c r="C156" t="s">
@@ -27772,7 +27775,7 @@
       <c r="K156" t="s">
         <v>1945</v>
       </c>
-      <c r="N156" t="s">
+      <c r="N156" s="3" t="s">
         <v>2047</v>
       </c>
       <c r="Q156" t="b">
@@ -27843,7 +27846,7 @@
       <c r="A157" t="s">
         <v>212</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>678</v>
       </c>
       <c r="C157" t="s">
@@ -27867,7 +27870,7 @@
       <c r="K157" t="s">
         <v>1946</v>
       </c>
-      <c r="N157" t="s">
+      <c r="N157" s="3" t="s">
         <v>2048</v>
       </c>
       <c r="Q157" t="b">
@@ -27911,7 +27914,7 @@
       <c r="A158" t="s">
         <v>213</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>679</v>
       </c>
       <c r="C158" t="s">
@@ -27935,7 +27938,7 @@
       <c r="L158" t="s">
         <v>223</v>
       </c>
-      <c r="N158" t="s">
+      <c r="N158" s="3" t="s">
         <v>1144</v>
       </c>
       <c r="Q158" t="b">
@@ -28000,7 +28003,7 @@
       <c r="A159" t="s">
         <v>214</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>680</v>
       </c>
       <c r="C159" t="s">
@@ -28024,7 +28027,7 @@
       <c r="L159" t="s">
         <v>251</v>
       </c>
-      <c r="N159" t="s">
+      <c r="N159" s="3" t="s">
         <v>1145</v>
       </c>
       <c r="Q159" t="b">
@@ -28089,7 +28092,7 @@
       <c r="A160" t="s">
         <v>215</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>681</v>
       </c>
       <c r="C160" t="s">
@@ -28113,7 +28116,7 @@
       <c r="M160" t="s">
         <v>208</v>
       </c>
-      <c r="N160" t="s">
+      <c r="N160" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="Q160" t="b">
@@ -28178,7 +28181,7 @@
       <c r="A161" t="s">
         <v>216</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>682</v>
       </c>
       <c r="C161" t="s">
@@ -28202,7 +28205,7 @@
       <c r="L161" t="s">
         <v>429</v>
       </c>
-      <c r="N161" t="s">
+      <c r="N161" s="3" t="s">
         <v>1147</v>
       </c>
       <c r="Q161" t="b">
@@ -28267,7 +28270,7 @@
       <c r="A162" t="s">
         <v>217</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>683</v>
       </c>
       <c r="C162" t="s">
@@ -28291,7 +28294,7 @@
       <c r="L162" t="s">
         <v>306</v>
       </c>
-      <c r="N162" t="s">
+      <c r="N162" s="3" t="s">
         <v>2050</v>
       </c>
       <c r="Q162" t="b">
@@ -28356,7 +28359,7 @@
       <c r="A163" t="s">
         <v>218</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>684</v>
       </c>
       <c r="C163" t="s">
@@ -28380,7 +28383,7 @@
       <c r="K163" t="s">
         <v>1941</v>
       </c>
-      <c r="N163" t="s">
+      <c r="N163" s="3" t="s">
         <v>2051</v>
       </c>
       <c r="Q163" t="b">
@@ -28445,7 +28448,7 @@
       <c r="A164" t="s">
         <v>219</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>685</v>
       </c>
       <c r="C164" t="s">
@@ -28469,7 +28472,7 @@
       <c r="L164" t="s">
         <v>223</v>
       </c>
-      <c r="N164" t="s">
+      <c r="N164" s="3" t="s">
         <v>1150</v>
       </c>
       <c r="Q164" t="b">
@@ -28534,7 +28537,7 @@
       <c r="A165" t="s">
         <v>220</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>686</v>
       </c>
       <c r="C165" t="s">
@@ -28564,7 +28567,7 @@
       <c r="L165" t="s">
         <v>354</v>
       </c>
-      <c r="N165" t="s">
+      <c r="N165" s="3" t="s">
         <v>1151</v>
       </c>
       <c r="Q165" t="b">
@@ -28629,7 +28632,7 @@
       <c r="A166" t="s">
         <v>221</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>687</v>
       </c>
       <c r="C166" t="s">
@@ -28659,7 +28662,7 @@
       <c r="L166" t="s">
         <v>354</v>
       </c>
-      <c r="N166" t="s">
+      <c r="N166" s="3" t="s">
         <v>1152</v>
       </c>
       <c r="Q166" t="b">
@@ -28724,7 +28727,7 @@
       <c r="A167" t="s">
         <v>222</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>688</v>
       </c>
       <c r="C167" t="s">
@@ -28751,7 +28754,7 @@
       <c r="M167" t="s">
         <v>263</v>
       </c>
-      <c r="N167" t="s">
+      <c r="N167" s="3" t="s">
         <v>2052</v>
       </c>
       <c r="Q167" t="b">
@@ -28822,7 +28825,7 @@
       <c r="A168" t="s">
         <v>223</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>689</v>
       </c>
       <c r="C168" t="s">
@@ -28843,7 +28846,7 @@
       <c r="K168" t="s">
         <v>1945</v>
       </c>
-      <c r="N168" t="s">
+      <c r="N168" s="3" t="s">
         <v>2053</v>
       </c>
       <c r="Q168" t="b">
@@ -28914,7 +28917,7 @@
       <c r="A169" t="s">
         <v>224</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>690</v>
       </c>
       <c r="C169" t="s">
@@ -28938,7 +28941,7 @@
       <c r="L169" t="s">
         <v>265</v>
       </c>
-      <c r="N169" t="s">
+      <c r="N169" s="3" t="s">
         <v>1155</v>
       </c>
       <c r="Q169" t="b">
@@ -29003,7 +29006,7 @@
       <c r="A170" t="s">
         <v>225</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>691</v>
       </c>
       <c r="C170" t="s">
@@ -29027,7 +29030,7 @@
       <c r="L170" t="s">
         <v>193</v>
       </c>
-      <c r="N170" t="s">
+      <c r="N170" s="3" t="s">
         <v>1156</v>
       </c>
       <c r="Q170" t="b">
@@ -29092,7 +29095,7 @@
       <c r="A171" t="s">
         <v>226</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>692</v>
       </c>
       <c r="C171" t="s">
@@ -29116,7 +29119,7 @@
       <c r="L171" t="s">
         <v>195</v>
       </c>
-      <c r="N171" t="s">
+      <c r="N171" s="3" t="s">
         <v>1157</v>
       </c>
       <c r="Q171" t="b">
@@ -29181,7 +29184,7 @@
       <c r="A172" t="s">
         <v>227</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>693</v>
       </c>
       <c r="C172" t="s">
@@ -29205,7 +29208,7 @@
       <c r="L172" t="s">
         <v>223</v>
       </c>
-      <c r="N172" t="s">
+      <c r="N172" s="3" t="s">
         <v>2054</v>
       </c>
       <c r="Q172" t="b">
@@ -29270,7 +29273,7 @@
       <c r="A173" t="s">
         <v>228</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>694</v>
       </c>
       <c r="C173" t="s">
@@ -29294,7 +29297,7 @@
       <c r="M173" t="s">
         <v>208</v>
       </c>
-      <c r="N173" t="s">
+      <c r="N173" s="3" t="s">
         <v>2055</v>
       </c>
       <c r="Q173" t="b">
@@ -29359,7 +29362,7 @@
       <c r="A174" t="s">
         <v>229</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C174" t="s">
@@ -29383,7 +29386,7 @@
       <c r="M174" t="s">
         <v>208</v>
       </c>
-      <c r="N174" t="s">
+      <c r="N174" s="3" t="s">
         <v>2056</v>
       </c>
       <c r="Q174" t="b">
@@ -29448,7 +29451,7 @@
       <c r="A175" t="s">
         <v>230</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>696</v>
       </c>
       <c r="C175" t="s">
@@ -29472,7 +29475,7 @@
       <c r="K175" t="s">
         <v>1942</v>
       </c>
-      <c r="N175" t="s">
+      <c r="N175" s="3" t="s">
         <v>2057</v>
       </c>
       <c r="Q175" t="b">
@@ -29543,7 +29546,7 @@
       <c r="A176" t="s">
         <v>231</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>697</v>
       </c>
       <c r="C176" t="s">
@@ -29567,7 +29570,7 @@
       <c r="L176" t="s">
         <v>240</v>
       </c>
-      <c r="N176" t="s">
+      <c r="N176" s="3" t="s">
         <v>1162</v>
       </c>
       <c r="Q176" t="b">
@@ -29632,7 +29635,7 @@
       <c r="A177" t="s">
         <v>232</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C177" t="s">
@@ -29656,7 +29659,7 @@
       <c r="L177" t="s">
         <v>155</v>
       </c>
-      <c r="N177" t="s">
+      <c r="N177" s="3" t="s">
         <v>1163</v>
       </c>
       <c r="Q177" t="b">
@@ -29721,7 +29724,7 @@
       <c r="A178" t="s">
         <v>233</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>699</v>
       </c>
       <c r="C178" t="s">
@@ -29745,7 +29748,7 @@
       <c r="M178" t="s">
         <v>208</v>
       </c>
-      <c r="N178" t="s">
+      <c r="N178" s="3" t="s">
         <v>2058</v>
       </c>
       <c r="Q178" t="b">
@@ -29810,7 +29813,7 @@
       <c r="A179" t="s">
         <v>234</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>700</v>
       </c>
       <c r="C179" t="s">
@@ -29834,7 +29837,7 @@
       <c r="L179" t="s">
         <v>265</v>
       </c>
-      <c r="N179" t="s">
+      <c r="N179" s="3" t="s">
         <v>2059</v>
       </c>
       <c r="Q179" t="b">
@@ -29899,7 +29902,7 @@
       <c r="A180" t="s">
         <v>235</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>701</v>
       </c>
       <c r="C180" t="s">
@@ -29923,7 +29926,7 @@
       <c r="K180" t="s">
         <v>1939</v>
       </c>
-      <c r="N180" t="s">
+      <c r="N180" s="3" t="s">
         <v>2060</v>
       </c>
       <c r="Q180" t="b">
@@ -29985,7 +29988,7 @@
       <c r="A181" t="s">
         <v>236</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>702</v>
       </c>
       <c r="C181" t="s">
@@ -30009,7 +30012,7 @@
       <c r="M181" t="s">
         <v>208</v>
       </c>
-      <c r="N181" t="s">
+      <c r="N181" s="3" t="s">
         <v>2061</v>
       </c>
       <c r="Q181" t="b">
@@ -30074,7 +30077,7 @@
       <c r="A182" t="s">
         <v>237</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>703</v>
       </c>
       <c r="C182" t="s">
@@ -30098,7 +30101,7 @@
       <c r="M182" t="s">
         <v>208</v>
       </c>
-      <c r="N182" t="s">
+      <c r="N182" s="3" t="s">
         <v>2062</v>
       </c>
       <c r="Q182" t="b">
@@ -30163,7 +30166,7 @@
       <c r="A183" t="s">
         <v>238</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>704</v>
       </c>
       <c r="C183" t="s">
@@ -30190,7 +30193,7 @@
       <c r="L183" t="s">
         <v>515</v>
       </c>
-      <c r="N183" t="s">
+      <c r="N183" s="3" t="s">
         <v>1169</v>
       </c>
       <c r="Q183" t="b">
@@ -30255,7 +30258,7 @@
       <c r="A184" t="s">
         <v>239</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>705</v>
       </c>
       <c r="C184" t="s">
@@ -30282,7 +30285,7 @@
       <c r="M184" t="s">
         <v>469</v>
       </c>
-      <c r="N184" t="s">
+      <c r="N184" s="3" t="s">
         <v>2063</v>
       </c>
       <c r="Q184" t="b">
@@ -30353,7 +30356,7 @@
       <c r="A185" t="s">
         <v>240</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>706</v>
       </c>
       <c r="C185" t="s">
@@ -30374,7 +30377,7 @@
       <c r="K185" t="s">
         <v>1945</v>
       </c>
-      <c r="N185" t="s">
+      <c r="N185" s="3" t="s">
         <v>1171</v>
       </c>
       <c r="Q185" t="b">
@@ -30445,7 +30448,7 @@
       <c r="A186" t="s">
         <v>241</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>707</v>
       </c>
       <c r="C186" t="s">
@@ -30469,7 +30472,7 @@
       <c r="M186" t="s">
         <v>208</v>
       </c>
-      <c r="N186" t="s">
+      <c r="N186" s="3" t="s">
         <v>2064</v>
       </c>
       <c r="Q186" t="b">
@@ -30534,7 +30537,7 @@
       <c r="A187" t="s">
         <v>242</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>708</v>
       </c>
       <c r="C187" t="s">
@@ -30558,7 +30561,7 @@
       <c r="M187" t="s">
         <v>208</v>
       </c>
-      <c r="N187" t="s">
+      <c r="N187" s="3" t="s">
         <v>2065</v>
       </c>
       <c r="Q187" t="b">
@@ -30623,7 +30626,7 @@
       <c r="A188" t="s">
         <v>243</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>709</v>
       </c>
       <c r="C188" t="s">
@@ -30650,7 +30653,7 @@
       <c r="M188" t="s">
         <v>145</v>
       </c>
-      <c r="N188" t="s">
+      <c r="N188" s="3" t="s">
         <v>1174</v>
       </c>
       <c r="Q188" t="b">
@@ -30715,7 +30718,7 @@
       <c r="A189" t="s">
         <v>244</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>710</v>
       </c>
       <c r="C189" t="s">
@@ -30739,7 +30742,7 @@
       <c r="L189" t="s">
         <v>259</v>
       </c>
-      <c r="N189" t="s">
+      <c r="N189" s="3" t="s">
         <v>1175</v>
       </c>
       <c r="Q189" t="b">
@@ -30804,7 +30807,7 @@
       <c r="A190" t="s">
         <v>245</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>711</v>
       </c>
       <c r="C190" t="s">
@@ -30828,7 +30831,7 @@
       <c r="K190" t="s">
         <v>1942</v>
       </c>
-      <c r="N190" t="s">
+      <c r="N190" s="3" t="s">
         <v>2066</v>
       </c>
       <c r="Q190" t="b">
@@ -30899,7 +30902,7 @@
       <c r="A191" t="s">
         <v>246</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>712</v>
       </c>
       <c r="C191" t="s">
@@ -30923,7 +30926,7 @@
       <c r="K191" t="s">
         <v>1942</v>
       </c>
-      <c r="N191" t="s">
+      <c r="N191" s="3" t="s">
         <v>2067</v>
       </c>
       <c r="Q191" t="b">
@@ -30994,7 +30997,7 @@
       <c r="A192" t="s">
         <v>247</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>713</v>
       </c>
       <c r="C192" t="s">
@@ -31018,7 +31021,7 @@
       <c r="L192" t="s">
         <v>404</v>
       </c>
-      <c r="N192" t="s">
+      <c r="N192" s="3" t="s">
         <v>1178</v>
       </c>
       <c r="Q192" t="b">
@@ -31083,7 +31086,7 @@
       <c r="A193" t="s">
         <v>248</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>714</v>
       </c>
       <c r="C193" t="s">
@@ -31107,7 +31110,7 @@
       <c r="M193" t="s">
         <v>208</v>
       </c>
-      <c r="N193" t="s">
+      <c r="N193" s="3" t="s">
         <v>2068</v>
       </c>
       <c r="Q193" t="b">
@@ -31172,7 +31175,7 @@
       <c r="A194" t="s">
         <v>249</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>715</v>
       </c>
       <c r="C194" t="s">
@@ -31196,7 +31199,7 @@
       <c r="K194" t="s">
         <v>1939</v>
       </c>
-      <c r="N194" t="s">
+      <c r="N194" s="3" t="s">
         <v>2069</v>
       </c>
       <c r="Q194" t="b">
@@ -31258,7 +31261,7 @@
       <c r="A195" t="s">
         <v>250</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>716</v>
       </c>
       <c r="C195" t="s">
@@ -31282,7 +31285,7 @@
       <c r="M195" t="s">
         <v>208</v>
       </c>
-      <c r="N195" t="s">
+      <c r="N195" s="3" t="s">
         <v>2070</v>
       </c>
       <c r="Q195" t="b">
@@ -31347,7 +31350,7 @@
       <c r="A196" t="s">
         <v>251</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>717</v>
       </c>
       <c r="C196" t="s">
@@ -31368,7 +31371,7 @@
       <c r="K196" t="s">
         <v>1945</v>
       </c>
-      <c r="N196" t="s">
+      <c r="N196" s="3" t="s">
         <v>2071</v>
       </c>
       <c r="Q196" t="b">
@@ -31439,7 +31442,7 @@
       <c r="A197" t="s">
         <v>252</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>718</v>
       </c>
       <c r="C197" t="s">
@@ -31466,7 +31469,7 @@
       <c r="L197" t="s">
         <v>344</v>
       </c>
-      <c r="N197" t="s">
+      <c r="N197" s="3" t="s">
         <v>1183</v>
       </c>
       <c r="Q197" t="b">
@@ -31513,7 +31516,7 @@
       <c r="A198" t="s">
         <v>253</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>719</v>
       </c>
       <c r="C198" t="s">
@@ -31537,7 +31540,7 @@
       <c r="K198" t="s">
         <v>1942</v>
       </c>
-      <c r="N198" t="s">
+      <c r="N198" s="3" t="s">
         <v>2072</v>
       </c>
       <c r="Q198" t="b">
@@ -31608,7 +31611,7 @@
       <c r="A199" t="s">
         <v>254</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>720</v>
       </c>
       <c r="C199" t="s">
@@ -31632,7 +31635,7 @@
       <c r="L199" t="s">
         <v>306</v>
       </c>
-      <c r="N199" t="s">
+      <c r="N199" s="3" t="s">
         <v>2073</v>
       </c>
       <c r="Q199" t="b">
@@ -31697,7 +31700,7 @@
       <c r="A200" t="s">
         <v>255</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>721</v>
       </c>
       <c r="C200" t="s">
@@ -31724,7 +31727,7 @@
       <c r="M200" t="s">
         <v>517</v>
       </c>
-      <c r="N200" t="s">
+      <c r="N200" s="3" t="s">
         <v>2074</v>
       </c>
       <c r="Q200" t="b">
@@ -31795,7 +31798,7 @@
       <c r="A201" t="s">
         <v>256</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>722</v>
       </c>
       <c r="C201" t="s">
@@ -31819,7 +31822,7 @@
       <c r="M201" t="s">
         <v>208</v>
       </c>
-      <c r="N201" t="s">
+      <c r="N201" s="3" t="s">
         <v>2075</v>
       </c>
       <c r="Q201" t="b">
@@ -31884,7 +31887,7 @@
       <c r="A202" t="s">
         <v>257</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>723</v>
       </c>
       <c r="C202" t="s">
@@ -31911,7 +31914,7 @@
       <c r="M202" t="s">
         <v>263</v>
       </c>
-      <c r="N202" t="s">
+      <c r="N202" s="3" t="s">
         <v>2076</v>
       </c>
       <c r="Q202" t="b">
@@ -31982,7 +31985,7 @@
       <c r="A203" t="s">
         <v>258</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>724</v>
       </c>
       <c r="C203" t="s">
@@ -32006,7 +32009,7 @@
       <c r="L203" t="s">
         <v>259</v>
       </c>
-      <c r="N203" t="s">
+      <c r="N203" s="3" t="s">
         <v>2077</v>
       </c>
       <c r="Q203" t="b">
@@ -32071,7 +32074,7 @@
       <c r="A204" t="s">
         <v>259</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>725</v>
       </c>
       <c r="C204" t="s">
@@ -32092,7 +32095,7 @@
       <c r="K204" t="s">
         <v>1945</v>
       </c>
-      <c r="N204" t="s">
+      <c r="N204" s="3" t="s">
         <v>2078</v>
       </c>
       <c r="Q204" t="b">
@@ -32163,7 +32166,7 @@
       <c r="A205" t="s">
         <v>260</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>726</v>
       </c>
       <c r="C205" t="s">
@@ -32187,7 +32190,7 @@
       <c r="K205" t="s">
         <v>1938</v>
       </c>
-      <c r="N205" t="s">
+      <c r="N205" s="3" t="s">
         <v>2079</v>
       </c>
       <c r="Q205" t="b">
@@ -32240,7 +32243,7 @@
       <c r="A206" t="s">
         <v>261</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>727</v>
       </c>
       <c r="C206" t="s">
@@ -32264,7 +32267,7 @@
       <c r="M206" t="s">
         <v>208</v>
       </c>
-      <c r="N206" t="s">
+      <c r="N206" s="3" t="s">
         <v>2080</v>
       </c>
       <c r="Q206" t="b">
@@ -32329,7 +32332,7 @@
       <c r="A207" t="s">
         <v>262</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>728</v>
       </c>
       <c r="C207" t="s">
@@ -32353,7 +32356,7 @@
       <c r="K207" t="s">
         <v>1942</v>
       </c>
-      <c r="N207" t="s">
+      <c r="N207" s="3" t="s">
         <v>2081</v>
       </c>
       <c r="Q207" t="b">
@@ -32424,7 +32427,7 @@
       <c r="A208" t="s">
         <v>263</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>729</v>
       </c>
       <c r="C208" t="s">
@@ -32448,7 +32451,7 @@
       <c r="K208" t="s">
         <v>1946</v>
       </c>
-      <c r="N208" t="s">
+      <c r="N208" s="3" t="s">
         <v>2082</v>
       </c>
       <c r="Q208" t="b">
@@ -32492,7 +32495,7 @@
       <c r="A209" t="s">
         <v>264</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>730</v>
       </c>
       <c r="C209" t="s">
@@ -32519,7 +32522,7 @@
       <c r="M209" t="s">
         <v>517</v>
       </c>
-      <c r="N209" t="s">
+      <c r="N209" s="3" t="s">
         <v>2083</v>
       </c>
       <c r="Q209" t="b">
@@ -32590,7 +32593,7 @@
       <c r="A210" t="s">
         <v>265</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>731</v>
       </c>
       <c r="C210" t="s">
@@ -32611,7 +32614,7 @@
       <c r="K210" t="s">
         <v>1945</v>
       </c>
-      <c r="N210" t="s">
+      <c r="N210" s="3" t="s">
         <v>2084</v>
       </c>
       <c r="Q210" t="b">
@@ -32682,7 +32685,7 @@
       <c r="A211" t="s">
         <v>266</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>732</v>
       </c>
       <c r="C211" t="s">
@@ -32706,7 +32709,7 @@
       <c r="L211" t="s">
         <v>195</v>
       </c>
-      <c r="N211" t="s">
+      <c r="N211" s="3" t="s">
         <v>1196</v>
       </c>
       <c r="Q211" t="b">
@@ -32771,7 +32774,7 @@
       <c r="A212" t="s">
         <v>267</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>733</v>
       </c>
       <c r="C212" t="s">
@@ -32795,7 +32798,7 @@
       <c r="M212" t="s">
         <v>208</v>
       </c>
-      <c r="N212" t="s">
+      <c r="N212" s="3" t="s">
         <v>2085</v>
       </c>
       <c r="Q212" t="b">
@@ -32860,7 +32863,7 @@
       <c r="A213" t="s">
         <v>268</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>734</v>
       </c>
       <c r="C213" t="s">
@@ -32884,7 +32887,7 @@
       <c r="L213" t="s">
         <v>270</v>
       </c>
-      <c r="N213" t="s">
+      <c r="N213" s="3" t="s">
         <v>2086</v>
       </c>
       <c r="Q213" t="b">
@@ -32949,7 +32952,7 @@
       <c r="A214" t="s">
         <v>269</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>735</v>
       </c>
       <c r="C214" t="s">
@@ -32973,7 +32976,7 @@
       <c r="L214" t="s">
         <v>440</v>
       </c>
-      <c r="N214" t="s">
+      <c r="N214" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="Q214" t="b">
@@ -33038,7 +33041,7 @@
       <c r="A215" t="s">
         <v>270</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>736</v>
       </c>
       <c r="C215" t="s">
@@ -33059,7 +33062,7 @@
       <c r="K215" t="s">
         <v>1945</v>
       </c>
-      <c r="N215" t="s">
+      <c r="N215" s="3" t="s">
         <v>2087</v>
       </c>
       <c r="Q215" t="b">
@@ -33130,7 +33133,7 @@
       <c r="A216" t="s">
         <v>271</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>737</v>
       </c>
       <c r="C216" t="s">
@@ -33157,7 +33160,7 @@
       <c r="M216" t="s">
         <v>263</v>
       </c>
-      <c r="N216" t="s">
+      <c r="N216" s="3" t="s">
         <v>2088</v>
       </c>
       <c r="Q216" t="b">
@@ -33228,7 +33231,7 @@
       <c r="A217" t="s">
         <v>272</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>738</v>
       </c>
       <c r="C217" t="s">
@@ -33255,7 +33258,7 @@
       <c r="M217" t="s">
         <v>208</v>
       </c>
-      <c r="N217" t="s">
+      <c r="N217" s="3" t="s">
         <v>2089</v>
       </c>
       <c r="Q217" t="b">
@@ -33320,7 +33323,7 @@
       <c r="A218" t="s">
         <v>273</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>739</v>
       </c>
       <c r="C218" t="s">
@@ -33344,7 +33347,7 @@
       <c r="K218" t="s">
         <v>1942</v>
       </c>
-      <c r="N218" t="s">
+      <c r="N218" s="3" t="s">
         <v>2090</v>
       </c>
       <c r="Q218" t="b">
@@ -33415,7 +33418,7 @@
       <c r="A219" t="s">
         <v>274</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>740</v>
       </c>
       <c r="C219" t="s">
@@ -33439,7 +33442,7 @@
       <c r="L219" t="s">
         <v>251</v>
       </c>
-      <c r="N219" t="s">
+      <c r="N219" s="3" t="s">
         <v>1204</v>
       </c>
       <c r="Q219" t="b">
@@ -33504,7 +33507,7 @@
       <c r="A220" t="s">
         <v>275</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>741</v>
       </c>
       <c r="C220" t="s">
@@ -33528,7 +33531,7 @@
       <c r="L220" t="s">
         <v>193</v>
       </c>
-      <c r="N220" t="s">
+      <c r="N220" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="Q220" t="b">
@@ -33593,7 +33596,7 @@
       <c r="A221" t="s">
         <v>276</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>742</v>
       </c>
       <c r="C221" t="s">
@@ -33620,7 +33623,7 @@
       <c r="M221" t="s">
         <v>212</v>
       </c>
-      <c r="N221" t="s">
+      <c r="N221" s="3" t="s">
         <v>2091</v>
       </c>
       <c r="Q221" t="b">
@@ -33691,7 +33694,7 @@
       <c r="A222" t="s">
         <v>277</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>743</v>
       </c>
       <c r="C222" t="s">
@@ -33715,7 +33718,7 @@
       <c r="L222" t="s">
         <v>346</v>
       </c>
-      <c r="N222" t="s">
+      <c r="N222" s="3" t="s">
         <v>1207</v>
       </c>
       <c r="Q222" t="b">
@@ -33780,7 +33783,7 @@
       <c r="A223" t="s">
         <v>278</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>744</v>
       </c>
       <c r="C223" t="s">
@@ -33804,7 +33807,7 @@
       <c r="L223" t="s">
         <v>506</v>
       </c>
-      <c r="N223" t="s">
+      <c r="N223" s="3" t="s">
         <v>1208</v>
       </c>
       <c r="Q223" t="b">
@@ -33869,7 +33872,7 @@
       <c r="A224" t="s">
         <v>279</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>745</v>
       </c>
       <c r="C224" t="s">
@@ -33896,7 +33899,7 @@
       <c r="M224" t="s">
         <v>469</v>
       </c>
-      <c r="N224" t="s">
+      <c r="N224" s="3" t="s">
         <v>2092</v>
       </c>
       <c r="Q224" t="b">
@@ -33967,7 +33970,7 @@
       <c r="A225" t="s">
         <v>280</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>746</v>
       </c>
       <c r="C225" t="s">
@@ -33991,7 +33994,7 @@
       <c r="L225" t="s">
         <v>159</v>
       </c>
-      <c r="N225" t="s">
+      <c r="N225" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="Q225" t="b">
@@ -34056,7 +34059,7 @@
       <c r="A226" t="s">
         <v>281</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>747</v>
       </c>
       <c r="C226" t="s">
@@ -34080,7 +34083,7 @@
       <c r="K226" t="s">
         <v>1942</v>
       </c>
-      <c r="N226" t="s">
+      <c r="N226" s="3" t="s">
         <v>2093</v>
       </c>
       <c r="Q226" t="b">
@@ -34151,7 +34154,7 @@
       <c r="A227" t="s">
         <v>282</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>748</v>
       </c>
       <c r="C227" t="s">
@@ -34175,7 +34178,7 @@
       <c r="K227" t="s">
         <v>1938</v>
       </c>
-      <c r="N227" t="s">
+      <c r="N227" s="3" t="s">
         <v>2094</v>
       </c>
       <c r="Q227" t="b">
@@ -34228,7 +34231,7 @@
       <c r="A228" t="s">
         <v>283</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>749</v>
       </c>
       <c r="C228" t="s">
@@ -34252,7 +34255,7 @@
       <c r="L228" t="s">
         <v>265</v>
       </c>
-      <c r="N228" t="s">
+      <c r="N228" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="Q228" t="b">
@@ -34317,7 +34320,7 @@
       <c r="A229" t="s">
         <v>284</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>750</v>
       </c>
       <c r="C229" t="s">
@@ -34347,7 +34350,7 @@
       <c r="L229" t="s">
         <v>424</v>
       </c>
-      <c r="N229" t="s">
+      <c r="N229" s="3" t="s">
         <v>1214</v>
       </c>
       <c r="Q229" t="b">
@@ -34412,7 +34415,7 @@
       <c r="A230" t="s">
         <v>285</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>751</v>
       </c>
       <c r="C230" t="s">
@@ -34436,7 +34439,7 @@
       <c r="K230" t="s">
         <v>1942</v>
       </c>
-      <c r="N230" t="s">
+      <c r="N230" s="3" t="s">
         <v>2095</v>
       </c>
       <c r="Q230" t="b">
@@ -34507,7 +34510,7 @@
       <c r="A231" t="s">
         <v>286</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>752</v>
       </c>
       <c r="C231" t="s">
@@ -34531,7 +34534,7 @@
       <c r="K231" t="s">
         <v>1939</v>
       </c>
-      <c r="N231" t="s">
+      <c r="N231" s="3" t="s">
         <v>2096</v>
       </c>
       <c r="Q231" t="b">
@@ -34593,7 +34596,7 @@
       <c r="A232" t="s">
         <v>287</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>753</v>
       </c>
       <c r="C232" t="s">
@@ -34617,7 +34620,7 @@
       <c r="L232" t="s">
         <v>429</v>
       </c>
-      <c r="N232" t="s">
+      <c r="N232" s="3" t="s">
         <v>1217</v>
       </c>
       <c r="Q232" t="b">
@@ -34682,7 +34685,7 @@
       <c r="A233" t="s">
         <v>288</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>754</v>
       </c>
       <c r="C233" t="s">
@@ -34706,7 +34709,7 @@
       <c r="K233" t="s">
         <v>1941</v>
       </c>
-      <c r="N233" t="s">
+      <c r="N233" s="3" t="s">
         <v>2097</v>
       </c>
       <c r="Q233" t="b">
@@ -34771,7 +34774,7 @@
       <c r="A234" t="s">
         <v>289</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>755</v>
       </c>
       <c r="C234" t="s">
@@ -34795,7 +34798,7 @@
       <c r="M234" t="s">
         <v>208</v>
       </c>
-      <c r="N234" t="s">
+      <c r="N234" s="3" t="s">
         <v>2098</v>
       </c>
       <c r="Q234" t="b">
@@ -34860,7 +34863,7 @@
       <c r="A235" t="s">
         <v>290</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>756</v>
       </c>
       <c r="C235" t="s">
@@ -34884,7 +34887,7 @@
       <c r="K235" t="s">
         <v>1939</v>
       </c>
-      <c r="N235" t="s">
+      <c r="N235" s="3" t="s">
         <v>2099</v>
       </c>
       <c r="Q235" t="b">
@@ -34946,7 +34949,7 @@
       <c r="A236" t="s">
         <v>291</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>757</v>
       </c>
       <c r="C236" t="s">
@@ -34973,7 +34976,7 @@
       <c r="L236" t="s">
         <v>515</v>
       </c>
-      <c r="N236" t="s">
+      <c r="N236" s="3" t="s">
         <v>1221</v>
       </c>
       <c r="Q236" t="b">
@@ -35038,7 +35041,7 @@
       <c r="A237" t="s">
         <v>292</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>758</v>
       </c>
       <c r="C237" t="s">
@@ -35062,7 +35065,7 @@
       <c r="L237" t="s">
         <v>404</v>
       </c>
-      <c r="N237" t="s">
+      <c r="N237" s="3" t="s">
         <v>1222</v>
       </c>
       <c r="Q237" t="b">
@@ -35127,7 +35130,7 @@
       <c r="A238" t="s">
         <v>293</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>759</v>
       </c>
       <c r="C238" t="s">
@@ -35151,7 +35154,7 @@
       <c r="K238" t="s">
         <v>1941</v>
       </c>
-      <c r="N238" t="s">
+      <c r="N238" s="3" t="s">
         <v>2100</v>
       </c>
       <c r="Q238" t="b">
@@ -35216,7 +35219,7 @@
       <c r="A239" t="s">
         <v>294</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>760</v>
       </c>
       <c r="C239" t="s">
@@ -35240,7 +35243,7 @@
       <c r="K239" t="s">
         <v>1938</v>
       </c>
-      <c r="N239" t="s">
+      <c r="N239" s="3" t="s">
         <v>2101</v>
       </c>
       <c r="Q239" t="b">
@@ -35293,7 +35296,7 @@
       <c r="A240" t="s">
         <v>295</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>761</v>
       </c>
       <c r="C240" t="s">
@@ -35317,7 +35320,7 @@
       <c r="K240" t="s">
         <v>1939</v>
       </c>
-      <c r="N240" t="s">
+      <c r="N240" s="3" t="s">
         <v>2102</v>
       </c>
       <c r="Q240" t="b">
@@ -35379,7 +35382,7 @@
       <c r="A241" t="s">
         <v>296</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>762</v>
       </c>
       <c r="C241" t="s">
@@ -35406,7 +35409,7 @@
       <c r="M241" t="s">
         <v>343</v>
       </c>
-      <c r="N241" t="s">
+      <c r="N241" s="3" t="s">
         <v>2103</v>
       </c>
       <c r="O241" t="s">
@@ -35477,7 +35480,7 @@
       <c r="A242" t="s">
         <v>297</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>763</v>
       </c>
       <c r="C242" t="s">
@@ -35501,7 +35504,7 @@
       <c r="L242" t="s">
         <v>159</v>
       </c>
-      <c r="N242" t="s">
+      <c r="N242" s="3" t="s">
         <v>2104</v>
       </c>
       <c r="Q242" t="b">
@@ -35566,7 +35569,7 @@
       <c r="A243" t="s">
         <v>298</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>764</v>
       </c>
       <c r="C243" t="s">
@@ -35593,7 +35596,7 @@
       <c r="L243" t="s">
         <v>163</v>
       </c>
-      <c r="N243" t="s">
+      <c r="N243" s="3" t="s">
         <v>2105</v>
       </c>
       <c r="Q243" t="b">
@@ -35640,7 +35643,7 @@
       <c r="A244" t="s">
         <v>299</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>765</v>
       </c>
       <c r="C244" t="s">
@@ -35664,7 +35667,7 @@
       <c r="L244" t="s">
         <v>346</v>
       </c>
-      <c r="N244" t="s">
+      <c r="N244" s="3" t="s">
         <v>2106</v>
       </c>
       <c r="Q244" t="b">
@@ -35729,7 +35732,7 @@
       <c r="A245" t="s">
         <v>300</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>766</v>
       </c>
       <c r="C245" t="s">
@@ -35753,7 +35756,7 @@
       <c r="L245" t="s">
         <v>440</v>
       </c>
-      <c r="N245" t="s">
+      <c r="N245" s="3" t="s">
         <v>2107</v>
       </c>
       <c r="Q245" t="b">
@@ -35818,7 +35821,7 @@
       <c r="A246" t="s">
         <v>301</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>767</v>
       </c>
       <c r="C246" t="s">
@@ -35842,7 +35845,7 @@
       <c r="K246" t="s">
         <v>1946</v>
       </c>
-      <c r="N246" t="s">
+      <c r="N246" s="3" t="s">
         <v>2108</v>
       </c>
       <c r="O246" t="s">
@@ -35886,7 +35889,7 @@
       <c r="A247" t="s">
         <v>302</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>768</v>
       </c>
       <c r="C247" t="s">
@@ -35910,7 +35913,7 @@
       <c r="L247" t="s">
         <v>155</v>
       </c>
-      <c r="N247" t="s">
+      <c r="N247" s="3" t="s">
         <v>1232</v>
       </c>
       <c r="Q247" t="b">
@@ -35975,7 +35978,7 @@
       <c r="A248" t="s">
         <v>303</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>769</v>
       </c>
       <c r="C248" t="s">
@@ -35999,7 +36002,7 @@
       <c r="K248" t="s">
         <v>1942</v>
       </c>
-      <c r="N248" t="s">
+      <c r="N248" s="3" t="s">
         <v>2109</v>
       </c>
       <c r="Q248" t="b">
@@ -36070,7 +36073,7 @@
       <c r="A249" t="s">
         <v>304</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>770</v>
       </c>
       <c r="C249" t="s">
@@ -36097,7 +36100,7 @@
       <c r="M249" t="s">
         <v>343</v>
       </c>
-      <c r="N249" t="s">
+      <c r="N249" s="3" t="s">
         <v>2110</v>
       </c>
       <c r="Q249" t="b">
@@ -36168,7 +36171,7 @@
       <c r="A250" t="s">
         <v>305</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>771</v>
       </c>
       <c r="C250" t="s">
@@ -36192,7 +36195,7 @@
       <c r="L250" t="s">
         <v>223</v>
       </c>
-      <c r="N250" t="s">
+      <c r="N250" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="Q250" t="b">
@@ -36257,7 +36260,7 @@
       <c r="A251" t="s">
         <v>306</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>772</v>
       </c>
       <c r="C251" t="s">
@@ -36278,7 +36281,7 @@
       <c r="K251" t="s">
         <v>1945</v>
       </c>
-      <c r="N251" t="s">
+      <c r="N251" s="3" t="s">
         <v>2111</v>
       </c>
       <c r="Q251" t="b">
@@ -36349,7 +36352,7 @@
       <c r="A252" t="s">
         <v>307</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>773</v>
       </c>
       <c r="C252" t="s">
@@ -36373,7 +36376,7 @@
       <c r="K252" t="s">
         <v>1942</v>
       </c>
-      <c r="N252" t="s">
+      <c r="N252" s="3" t="s">
         <v>2112</v>
       </c>
       <c r="Q252" t="b">
@@ -36444,7 +36447,7 @@
       <c r="A253" t="s">
         <v>308</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>774</v>
       </c>
       <c r="C253" t="s">
@@ -36468,7 +36471,7 @@
       <c r="L253" t="s">
         <v>240</v>
       </c>
-      <c r="N253" t="s">
+      <c r="N253" s="3" t="s">
         <v>1238</v>
       </c>
       <c r="Q253" t="b">
@@ -36533,7 +36536,7 @@
       <c r="A254" t="s">
         <v>309</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>775</v>
       </c>
       <c r="C254" t="s">
@@ -36554,7 +36557,7 @@
       <c r="K254" t="s">
         <v>1938</v>
       </c>
-      <c r="N254" t="s">
+      <c r="N254" s="3" t="s">
         <v>1239</v>
       </c>
       <c r="Q254" t="b">
@@ -36580,7 +36583,7 @@
       <c r="A255" t="s">
         <v>310</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>776</v>
       </c>
       <c r="C255" t="s">
@@ -36601,7 +36604,7 @@
       <c r="K255" t="s">
         <v>1938</v>
       </c>
-      <c r="N255" t="s">
+      <c r="N255" s="3" t="s">
         <v>1240</v>
       </c>
       <c r="Q255" t="b">
@@ -36627,7 +36630,7 @@
       <c r="A256" t="s">
         <v>311</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>777</v>
       </c>
       <c r="C256" t="s">
@@ -36648,7 +36651,7 @@
       <c r="K256" t="s">
         <v>1938</v>
       </c>
-      <c r="N256" t="s">
+      <c r="N256" s="3" t="s">
         <v>1241</v>
       </c>
       <c r="Q256" t="b">
@@ -36674,7 +36677,7 @@
       <c r="A257" t="s">
         <v>312</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>778</v>
       </c>
       <c r="C257" t="s">
@@ -36695,7 +36698,7 @@
       <c r="K257" t="s">
         <v>1938</v>
       </c>
-      <c r="N257" t="s">
+      <c r="N257" s="3" t="s">
         <v>1242</v>
       </c>
       <c r="Q257" t="b">
@@ -36721,7 +36724,7 @@
       <c r="A258" t="s">
         <v>313</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>779</v>
       </c>
       <c r="C258" t="s">
@@ -36742,7 +36745,7 @@
       <c r="K258" t="s">
         <v>1938</v>
       </c>
-      <c r="N258" t="s">
+      <c r="N258" s="3" t="s">
         <v>1243</v>
       </c>
       <c r="Q258" t="b">
@@ -36768,7 +36771,7 @@
       <c r="A259" t="s">
         <v>314</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>780</v>
       </c>
       <c r="C259" t="s">
@@ -36789,7 +36792,7 @@
       <c r="K259" t="s">
         <v>1938</v>
       </c>
-      <c r="N259" t="s">
+      <c r="N259" s="3" t="s">
         <v>1244</v>
       </c>
       <c r="Q259" t="b">
@@ -36815,7 +36818,7 @@
       <c r="A260" t="s">
         <v>315</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>781</v>
       </c>
       <c r="C260" t="s">
@@ -36836,7 +36839,7 @@
       <c r="K260" t="s">
         <v>1938</v>
       </c>
-      <c r="N260" t="s">
+      <c r="N260" s="3" t="s">
         <v>1245</v>
       </c>
       <c r="Q260" t="b">
@@ -36862,7 +36865,7 @@
       <c r="A261" t="s">
         <v>316</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>782</v>
       </c>
       <c r="C261" t="s">
@@ -36883,7 +36886,7 @@
       <c r="K261" t="s">
         <v>1938</v>
       </c>
-      <c r="N261" t="s">
+      <c r="N261" s="3" t="s">
         <v>1246</v>
       </c>
       <c r="Q261" t="b">
@@ -36909,7 +36912,7 @@
       <c r="A262" t="s">
         <v>317</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>783</v>
       </c>
       <c r="C262" t="s">
@@ -36930,7 +36933,7 @@
       <c r="K262" t="s">
         <v>1938</v>
       </c>
-      <c r="N262" t="s">
+      <c r="N262" s="3" t="s">
         <v>1247</v>
       </c>
       <c r="Q262" t="b">
@@ -36956,7 +36959,7 @@
       <c r="A263" t="s">
         <v>318</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>784</v>
       </c>
       <c r="C263" t="s">
@@ -36977,7 +36980,7 @@
       <c r="K263" t="s">
         <v>1938</v>
       </c>
-      <c r="N263" t="s">
+      <c r="N263" s="3" t="s">
         <v>1248</v>
       </c>
       <c r="Q263" t="b">
@@ -37003,7 +37006,7 @@
       <c r="A264" t="s">
         <v>319</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>785</v>
       </c>
       <c r="C264" t="s">
@@ -37024,7 +37027,7 @@
       <c r="K264" t="s">
         <v>1938</v>
       </c>
-      <c r="N264" t="s">
+      <c r="N264" s="3" t="s">
         <v>1249</v>
       </c>
       <c r="Q264" t="b">
@@ -37050,7 +37053,7 @@
       <c r="A265" t="s">
         <v>320</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>786</v>
       </c>
       <c r="C265" t="s">
@@ -37071,7 +37074,7 @@
       <c r="K265" t="s">
         <v>1938</v>
       </c>
-      <c r="N265" t="s">
+      <c r="N265" s="3" t="s">
         <v>1250</v>
       </c>
       <c r="Q265" t="b">
@@ -37097,7 +37100,7 @@
       <c r="A266" t="s">
         <v>321</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>787</v>
       </c>
       <c r="C266" t="s">
@@ -37118,7 +37121,7 @@
       <c r="K266" t="s">
         <v>1938</v>
       </c>
-      <c r="N266" t="s">
+      <c r="N266" s="3" t="s">
         <v>1251</v>
       </c>
       <c r="Q266" t="b">
@@ -37144,7 +37147,7 @@
       <c r="A267" t="s">
         <v>322</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>788</v>
       </c>
       <c r="C267" t="s">
@@ -37165,7 +37168,7 @@
       <c r="K267" t="s">
         <v>1938</v>
       </c>
-      <c r="N267" t="s">
+      <c r="N267" s="3" t="s">
         <v>1252</v>
       </c>
       <c r="Q267" t="b">
@@ -37191,7 +37194,7 @@
       <c r="A268" t="s">
         <v>323</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>789</v>
       </c>
       <c r="C268" t="s">
@@ -37212,7 +37215,7 @@
       <c r="K268" t="s">
         <v>1938</v>
       </c>
-      <c r="N268" t="s">
+      <c r="N268" s="3" t="s">
         <v>1253</v>
       </c>
       <c r="Q268" t="b">
@@ -37238,7 +37241,7 @@
       <c r="A269" t="s">
         <v>324</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>790</v>
       </c>
       <c r="C269" t="s">
@@ -37259,7 +37262,7 @@
       <c r="K269" t="s">
         <v>1938</v>
       </c>
-      <c r="N269" t="s">
+      <c r="N269" s="3" t="s">
         <v>1254</v>
       </c>
       <c r="Q269" t="b">
@@ -37285,7 +37288,7 @@
       <c r="A270" t="s">
         <v>325</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>791</v>
       </c>
       <c r="C270" t="s">
@@ -37306,7 +37309,7 @@
       <c r="K270" t="s">
         <v>1938</v>
       </c>
-      <c r="N270" t="s">
+      <c r="N270" s="3" t="s">
         <v>1255</v>
       </c>
       <c r="Q270" t="b">
@@ -37332,7 +37335,7 @@
       <c r="A271" t="s">
         <v>326</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>792</v>
       </c>
       <c r="C271" t="s">
@@ -37353,7 +37356,7 @@
       <c r="K271" t="s">
         <v>1938</v>
       </c>
-      <c r="N271" t="s">
+      <c r="N271" s="3" t="s">
         <v>1256</v>
       </c>
       <c r="Q271" t="b">
@@ -37379,7 +37382,7 @@
       <c r="A272" t="s">
         <v>327</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>793</v>
       </c>
       <c r="C272" t="s">
@@ -37400,7 +37403,7 @@
       <c r="K272" t="s">
         <v>1938</v>
       </c>
-      <c r="N272" t="s">
+      <c r="N272" s="3" t="s">
         <v>1257</v>
       </c>
       <c r="Q272" t="b">
@@ -37426,7 +37429,7 @@
       <c r="A273" t="s">
         <v>328</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>794</v>
       </c>
       <c r="C273" t="s">
@@ -37447,7 +37450,7 @@
       <c r="K273" t="s">
         <v>1938</v>
       </c>
-      <c r="N273" t="s">
+      <c r="N273" s="3" t="s">
         <v>1258</v>
       </c>
       <c r="Q273" t="b">
@@ -37473,7 +37476,7 @@
       <c r="A274" t="s">
         <v>329</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C274" t="s">
@@ -37494,7 +37497,7 @@
       <c r="K274" t="s">
         <v>1938</v>
       </c>
-      <c r="N274" t="s">
+      <c r="N274" s="3" t="s">
         <v>1259</v>
       </c>
       <c r="Q274" t="b">
@@ -37520,7 +37523,7 @@
       <c r="A275" t="s">
         <v>330</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C275" t="s">
@@ -37541,7 +37544,7 @@
       <c r="K275" t="s">
         <v>1938</v>
       </c>
-      <c r="N275" t="s">
+      <c r="N275" s="3" t="s">
         <v>1260</v>
       </c>
       <c r="Q275" t="b">
@@ -37567,7 +37570,7 @@
       <c r="A276" t="s">
         <v>331</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C276" t="s">
@@ -37588,7 +37591,7 @@
       <c r="K276" t="s">
         <v>1938</v>
       </c>
-      <c r="N276" t="s">
+      <c r="N276" s="3" t="s">
         <v>1261</v>
       </c>
       <c r="Q276" t="b">
@@ -37614,7 +37617,7 @@
       <c r="A277" t="s">
         <v>332</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C277" t="s">
@@ -37635,7 +37638,7 @@
       <c r="K277" t="s">
         <v>1938</v>
       </c>
-      <c r="N277" t="s">
+      <c r="N277" s="3" t="s">
         <v>1262</v>
       </c>
       <c r="Q277" t="b">
@@ -37661,7 +37664,7 @@
       <c r="A278" t="s">
         <v>333</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C278" t="s">
@@ -37682,7 +37685,7 @@
       <c r="K278" t="s">
         <v>1938</v>
       </c>
-      <c r="N278" t="s">
+      <c r="N278" s="3" t="s">
         <v>1263</v>
       </c>
       <c r="Q278" t="b">
@@ -37708,7 +37711,7 @@
       <c r="A279" t="s">
         <v>334</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C279" t="s">
@@ -37732,7 +37735,7 @@
       <c r="L279" t="s">
         <v>270</v>
       </c>
-      <c r="N279" t="s">
+      <c r="N279" s="3" t="s">
         <v>1264</v>
       </c>
       <c r="Q279" t="b">
@@ -37797,7 +37800,7 @@
       <c r="A280" t="s">
         <v>335</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C280" t="s">
@@ -37821,7 +37824,7 @@
       <c r="K280" t="s">
         <v>1939</v>
       </c>
-      <c r="N280" t="s">
+      <c r="N280" s="3" t="s">
         <v>2113</v>
       </c>
       <c r="O280" t="s">
@@ -37886,7 +37889,7 @@
       <c r="A281" t="s">
         <v>336</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C281" t="s">
@@ -37910,7 +37913,7 @@
       <c r="K281" t="s">
         <v>1942</v>
       </c>
-      <c r="N281" t="s">
+      <c r="N281" s="3" t="s">
         <v>2114</v>
       </c>
       <c r="Q281" t="b">
@@ -37981,7 +37984,7 @@
       <c r="A282" t="s">
         <v>337</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C282" t="s">
@@ -38005,7 +38008,7 @@
       <c r="K282" t="s">
         <v>1938</v>
       </c>
-      <c r="N282" t="s">
+      <c r="N282" s="3" t="s">
         <v>2115</v>
       </c>
       <c r="Q282" t="b">
@@ -38058,7 +38061,7 @@
       <c r="A283" t="s">
         <v>338</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C283" t="s">
@@ -38082,7 +38085,7 @@
       <c r="L283" t="s">
         <v>306</v>
       </c>
-      <c r="N283" t="s">
+      <c r="N283" s="3" t="s">
         <v>1268</v>
       </c>
       <c r="Q283" t="b">
@@ -38147,7 +38150,7 @@
       <c r="A284" t="s">
         <v>339</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C284" t="s">
@@ -38171,10 +38174,10 @@
       <c r="K284" t="s">
         <v>1942</v>
       </c>
-      <c r="N284" t="s">
+      <c r="N284" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="P284" t="s">
+      <c r="P284" s="3" t="s">
         <v>2245</v>
       </c>
       <c r="Q284" t="b">
@@ -38209,7 +38212,7 @@
       <c r="A285" t="s">
         <v>340</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C285" t="s">
@@ -38239,7 +38242,7 @@
       <c r="L285" t="s">
         <v>344</v>
       </c>
-      <c r="N285" t="s">
+      <c r="N285" s="3" t="s">
         <v>1270</v>
       </c>
       <c r="Q285" t="b">
@@ -38286,7 +38289,7 @@
       <c r="A286" t="s">
         <v>341</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C286" t="s">
@@ -38310,7 +38313,7 @@
       <c r="L286" t="s">
         <v>306</v>
       </c>
-      <c r="N286" t="s">
+      <c r="N286" s="3" t="s">
         <v>1271</v>
       </c>
       <c r="Q286" t="b">
@@ -38375,7 +38378,7 @@
       <c r="A287" t="s">
         <v>342</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C287" t="s">
@@ -38399,7 +38402,7 @@
       <c r="K287" t="s">
         <v>1942</v>
       </c>
-      <c r="N287" t="s">
+      <c r="N287" s="3" t="s">
         <v>2116</v>
       </c>
       <c r="Q287" t="b">
@@ -38470,7 +38473,7 @@
       <c r="A288" t="s">
         <v>343</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C288" t="s">
@@ -38494,7 +38497,7 @@
       <c r="K288" t="s">
         <v>1946</v>
       </c>
-      <c r="N288" t="s">
+      <c r="N288" s="3" t="s">
         <v>2117</v>
       </c>
       <c r="Q288" t="b">
@@ -38535,7 +38538,7 @@
       <c r="A289" t="s">
         <v>344</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C289" t="s">
@@ -38562,7 +38565,7 @@
       <c r="K289" t="s">
         <v>1945</v>
       </c>
-      <c r="N289" t="s">
+      <c r="N289" s="3" t="s">
         <v>2118</v>
       </c>
       <c r="Q289" t="b">
@@ -38615,7 +38618,7 @@
       <c r="A290" t="s">
         <v>345</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C290" t="s">
@@ -38639,7 +38642,7 @@
       <c r="K290" t="s">
         <v>1941</v>
       </c>
-      <c r="N290" t="s">
+      <c r="N290" s="3" t="s">
         <v>2119</v>
       </c>
       <c r="Q290" t="b">
@@ -38704,7 +38707,7 @@
       <c r="A291" t="s">
         <v>346</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>812</v>
       </c>
       <c r="C291" t="s">
@@ -38725,7 +38728,7 @@
       <c r="K291" t="s">
         <v>1945</v>
       </c>
-      <c r="N291" t="s">
+      <c r="N291" s="3" t="s">
         <v>2120</v>
       </c>
       <c r="Q291" t="b">
@@ -38796,7 +38799,7 @@
       <c r="A292" t="s">
         <v>347</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>813</v>
       </c>
       <c r="C292" t="s">
@@ -38823,7 +38826,7 @@
       <c r="M292" t="s">
         <v>343</v>
       </c>
-      <c r="N292" t="s">
+      <c r="N292" s="3" t="s">
         <v>2121</v>
       </c>
       <c r="Q292" t="b">
@@ -38894,7 +38897,7 @@
       <c r="A293" t="s">
         <v>348</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>814</v>
       </c>
       <c r="C293" t="s">
@@ -38918,7 +38921,7 @@
       <c r="L293" t="s">
         <v>476</v>
       </c>
-      <c r="N293" t="s">
+      <c r="N293" s="3" t="s">
         <v>2122</v>
       </c>
       <c r="Q293" t="b">
@@ -38983,7 +38986,7 @@
       <c r="A294" t="s">
         <v>349</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>815</v>
       </c>
       <c r="C294" t="s">
@@ -39007,7 +39010,7 @@
       <c r="L294" t="s">
         <v>476</v>
       </c>
-      <c r="N294" t="s">
+      <c r="N294" s="3" t="s">
         <v>1279</v>
       </c>
       <c r="Q294" t="b">
@@ -39072,7 +39075,7 @@
       <c r="A295" t="s">
         <v>350</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>816</v>
       </c>
       <c r="C295" t="s">
@@ -39096,7 +39099,7 @@
       <c r="L295" t="s">
         <v>265</v>
       </c>
-      <c r="N295" t="s">
+      <c r="N295" s="3" t="s">
         <v>2123</v>
       </c>
       <c r="Q295" t="b">
@@ -39161,7 +39164,7 @@
       <c r="A296" t="s">
         <v>351</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>817</v>
       </c>
       <c r="C296" t="s">
@@ -39185,7 +39188,7 @@
       <c r="M296" t="s">
         <v>208</v>
       </c>
-      <c r="N296" t="s">
+      <c r="N296" s="3" t="s">
         <v>2124</v>
       </c>
       <c r="Q296" t="b">
@@ -39250,7 +39253,7 @@
       <c r="A297" t="s">
         <v>352</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>818</v>
       </c>
       <c r="C297" t="s">
@@ -39274,7 +39277,7 @@
       <c r="K297" t="s">
         <v>1941</v>
       </c>
-      <c r="N297" t="s">
+      <c r="N297" s="3" t="s">
         <v>2125</v>
       </c>
       <c r="Q297" t="b">
@@ -39339,7 +39342,7 @@
       <c r="A298" t="s">
         <v>353</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>819</v>
       </c>
       <c r="C298" t="s">
@@ -39360,7 +39363,7 @@
       <c r="K298" t="s">
         <v>1942</v>
       </c>
-      <c r="N298" t="s">
+      <c r="N298" s="3" t="s">
         <v>2126</v>
       </c>
       <c r="Q298" t="b">
@@ -39377,7 +39380,7 @@
       <c r="A299" t="s">
         <v>354</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>820</v>
       </c>
       <c r="C299" t="s">
@@ -39404,7 +39407,7 @@
       <c r="K299" t="s">
         <v>1945</v>
       </c>
-      <c r="N299" t="s">
+      <c r="N299" s="3" t="s">
         <v>2127</v>
       </c>
       <c r="Q299" t="b">
@@ -39475,7 +39478,7 @@
       <c r="A300" t="s">
         <v>355</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>821</v>
       </c>
       <c r="C300" t="s">
@@ -39499,7 +39502,7 @@
       <c r="L300" t="s">
         <v>265</v>
       </c>
-      <c r="N300" t="s">
+      <c r="N300" s="3" t="s">
         <v>2128</v>
       </c>
       <c r="Q300" t="b">
@@ -39564,7 +39567,7 @@
       <c r="A301" t="s">
         <v>356</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="3" t="s">
         <v>822</v>
       </c>
       <c r="C301" t="s">
@@ -39591,7 +39594,7 @@
       <c r="M301" t="s">
         <v>212</v>
       </c>
-      <c r="N301" t="s">
+      <c r="N301" s="3" t="s">
         <v>2129</v>
       </c>
       <c r="Q301" t="b">
@@ -39662,7 +39665,7 @@
       <c r="A302" t="s">
         <v>357</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>823</v>
       </c>
       <c r="C302" t="s">
@@ -39686,7 +39689,7 @@
       <c r="K302" t="s">
         <v>1939</v>
       </c>
-      <c r="N302" t="s">
+      <c r="N302" s="3" t="s">
         <v>2130</v>
       </c>
       <c r="Q302" t="b">
@@ -39748,7 +39751,7 @@
       <c r="A303" t="s">
         <v>358</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>824</v>
       </c>
       <c r="C303" t="s">
@@ -39769,7 +39772,7 @@
       <c r="K303" t="s">
         <v>1945</v>
       </c>
-      <c r="N303" t="s">
+      <c r="N303" s="3" t="s">
         <v>2131</v>
       </c>
       <c r="Q303" t="b">
@@ -39840,7 +39843,7 @@
       <c r="A304" t="s">
         <v>359</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>825</v>
       </c>
       <c r="C304" t="s">
@@ -39864,7 +39867,7 @@
       <c r="L304" t="s">
         <v>358</v>
       </c>
-      <c r="N304" t="s">
+      <c r="N304" s="3" t="s">
         <v>1288</v>
       </c>
       <c r="Q304" t="b">
@@ -39929,7 +39932,7 @@
       <c r="A305" t="s">
         <v>360</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>826</v>
       </c>
       <c r="C305" t="s">
@@ -39953,7 +39956,7 @@
       <c r="K305" t="s">
         <v>1941</v>
       </c>
-      <c r="N305" t="s">
+      <c r="N305" s="3" t="s">
         <v>2132</v>
       </c>
       <c r="Q305" t="b">
@@ -40018,7 +40021,7 @@
       <c r="A306" t="s">
         <v>361</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>827</v>
       </c>
       <c r="C306" t="s">
@@ -40042,7 +40045,7 @@
       <c r="L306" t="s">
         <v>259</v>
       </c>
-      <c r="N306" t="s">
+      <c r="N306" s="3" t="s">
         <v>1290</v>
       </c>
       <c r="Q306" t="b">
@@ -40107,7 +40110,7 @@
       <c r="A307" t="s">
         <v>362</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>828</v>
       </c>
       <c r="C307" t="s">
@@ -40131,7 +40134,7 @@
       <c r="K307" t="s">
         <v>1939</v>
       </c>
-      <c r="N307" t="s">
+      <c r="N307" s="3" t="s">
         <v>2133</v>
       </c>
       <c r="O307" t="s">
@@ -40196,7 +40199,7 @@
       <c r="A308" t="s">
         <v>363</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>829</v>
       </c>
       <c r="C308" t="s">
@@ -40220,7 +40223,7 @@
       <c r="K308" t="s">
         <v>1942</v>
       </c>
-      <c r="N308" t="s">
+      <c r="N308" s="3" t="s">
         <v>2134</v>
       </c>
       <c r="Q308" t="b">
@@ -40291,7 +40294,7 @@
       <c r="A309" t="s">
         <v>364</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>830</v>
       </c>
       <c r="C309" t="s">
@@ -40318,7 +40321,7 @@
       <c r="K309" t="s">
         <v>1942</v>
       </c>
-      <c r="N309" t="s">
+      <c r="N309" s="3" t="s">
         <v>2135</v>
       </c>
       <c r="Q309" t="b">
@@ -40368,7 +40371,7 @@
       <c r="A310" t="s">
         <v>365</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="3" t="s">
         <v>831</v>
       </c>
       <c r="C310" t="s">
@@ -40392,7 +40395,7 @@
       <c r="K310" t="s">
         <v>1942</v>
       </c>
-      <c r="N310" t="s">
+      <c r="N310" s="3" t="s">
         <v>2136</v>
       </c>
       <c r="Q310" t="b">
@@ -40463,7 +40466,7 @@
       <c r="A311" t="s">
         <v>366</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="3" t="s">
         <v>832</v>
       </c>
       <c r="C311" t="s">
@@ -40487,7 +40490,7 @@
       <c r="K311" t="s">
         <v>1941</v>
       </c>
-      <c r="N311" t="s">
+      <c r="N311" s="3" t="s">
         <v>2137</v>
       </c>
       <c r="Q311" t="b">
@@ -40552,7 +40555,7 @@
       <c r="A312" t="s">
         <v>367</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C312" t="s">
@@ -40576,7 +40579,7 @@
       <c r="L312" t="s">
         <v>259</v>
       </c>
-      <c r="N312" t="s">
+      <c r="N312" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="Q312" t="b">
@@ -40641,7 +40644,7 @@
       <c r="A313" t="s">
         <v>368</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="3" t="s">
         <v>834</v>
       </c>
       <c r="C313" t="s">
@@ -40668,7 +40671,7 @@
       <c r="M313" t="s">
         <v>145</v>
       </c>
-      <c r="N313" t="s">
+      <c r="N313" s="3" t="s">
         <v>2138</v>
       </c>
       <c r="Q313" t="b">
@@ -40739,7 +40742,7 @@
       <c r="A314" t="s">
         <v>369</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>835</v>
       </c>
       <c r="C314" t="s">
@@ -40766,7 +40769,7 @@
       <c r="L314" t="s">
         <v>163</v>
       </c>
-      <c r="N314" t="s">
+      <c r="N314" s="3" t="s">
         <v>1298</v>
       </c>
       <c r="Q314" t="b">
@@ -40813,7 +40816,7 @@
       <c r="A315" t="s">
         <v>370</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>836</v>
       </c>
       <c r="C315" t="s">
@@ -40840,7 +40843,7 @@
       <c r="M315" t="s">
         <v>469</v>
       </c>
-      <c r="N315" t="s">
+      <c r="N315" s="3" t="s">
         <v>2139</v>
       </c>
       <c r="Q315" t="b">
@@ -40911,7 +40914,7 @@
       <c r="A316" t="s">
         <v>371</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="3" t="s">
         <v>837</v>
       </c>
       <c r="C316" t="s">
@@ -40938,7 +40941,7 @@
       <c r="M316" t="s">
         <v>212</v>
       </c>
-      <c r="N316" t="s">
+      <c r="N316" s="3" t="s">
         <v>2140</v>
       </c>
       <c r="Q316" t="b">
@@ -41009,7 +41012,7 @@
       <c r="A317" t="s">
         <v>372</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="3" t="s">
         <v>838</v>
       </c>
       <c r="C317" t="s">
@@ -41033,7 +41036,7 @@
       <c r="K317" t="s">
         <v>1941</v>
       </c>
-      <c r="N317" t="s">
+      <c r="N317" s="3" t="s">
         <v>2141</v>
       </c>
       <c r="Q317" t="b">
@@ -41098,7 +41101,7 @@
       <c r="A318" t="s">
         <v>373</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="3" t="s">
         <v>839</v>
       </c>
       <c r="C318" t="s">
@@ -41122,7 +41125,7 @@
       <c r="M318" t="s">
         <v>208</v>
       </c>
-      <c r="N318" t="s">
+      <c r="N318" s="3" t="s">
         <v>2142</v>
       </c>
       <c r="Q318" t="b">
@@ -41187,7 +41190,7 @@
       <c r="A319" t="s">
         <v>374</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="3" t="s">
         <v>840</v>
       </c>
       <c r="C319" t="s">
@@ -41211,7 +41214,7 @@
       <c r="K319" t="s">
         <v>1942</v>
       </c>
-      <c r="N319" t="s">
+      <c r="N319" s="3" t="s">
         <v>2143</v>
       </c>
       <c r="Q319" t="b">
@@ -41282,7 +41285,7 @@
       <c r="A320" t="s">
         <v>375</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="3" t="s">
         <v>841</v>
       </c>
       <c r="C320" t="s">
@@ -41306,7 +41309,7 @@
       <c r="L320" t="s">
         <v>506</v>
       </c>
-      <c r="N320" t="s">
+      <c r="N320" s="3" t="s">
         <v>1304</v>
       </c>
       <c r="Q320" t="b">
@@ -41371,7 +41374,7 @@
       <c r="A321" t="s">
         <v>376</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="3" t="s">
         <v>842</v>
       </c>
       <c r="C321" t="s">
@@ -41395,7 +41398,7 @@
       <c r="L321" t="s">
         <v>429</v>
       </c>
-      <c r="N321" t="s">
+      <c r="N321" s="3" t="s">
         <v>2144</v>
       </c>
       <c r="Q321" t="b">
@@ -41460,7 +41463,7 @@
       <c r="A322" t="s">
         <v>377</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="3" t="s">
         <v>843</v>
       </c>
       <c r="C322" t="s">
@@ -41484,7 +41487,7 @@
       <c r="K322" t="s">
         <v>1939</v>
       </c>
-      <c r="N322" t="s">
+      <c r="N322" s="3" t="s">
         <v>2145</v>
       </c>
       <c r="Q322" t="b">
@@ -41546,7 +41549,7 @@
       <c r="A323" t="s">
         <v>378</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="3" t="s">
         <v>844</v>
       </c>
       <c r="C323" t="s">
@@ -41570,7 +41573,7 @@
       <c r="L323" t="s">
         <v>259</v>
       </c>
-      <c r="N323" t="s">
+      <c r="N323" s="3" t="s">
         <v>1307</v>
       </c>
       <c r="Q323" t="b">
@@ -41635,7 +41638,7 @@
       <c r="A324" t="s">
         <v>379</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="3" t="s">
         <v>845</v>
       </c>
       <c r="C324" t="s">
@@ -41659,7 +41662,7 @@
       <c r="M324" t="s">
         <v>208</v>
       </c>
-      <c r="N324" t="s">
+      <c r="N324" s="3" t="s">
         <v>2146</v>
       </c>
       <c r="Q324" t="b">
@@ -41724,7 +41727,7 @@
       <c r="A325" t="s">
         <v>380</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="3" t="s">
         <v>846</v>
       </c>
       <c r="C325" t="s">
@@ -41754,7 +41757,7 @@
       <c r="L325" t="s">
         <v>354</v>
       </c>
-      <c r="N325" t="s">
+      <c r="N325" s="3" t="s">
         <v>2147</v>
       </c>
       <c r="Q325" t="b">
@@ -41819,7 +41822,7 @@
       <c r="A326" t="s">
         <v>381</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="3" t="s">
         <v>847</v>
       </c>
       <c r="C326" t="s">
@@ -41843,7 +41846,7 @@
       <c r="L326" t="s">
         <v>193</v>
       </c>
-      <c r="N326" t="s">
+      <c r="N326" s="3" t="s">
         <v>1310</v>
       </c>
       <c r="Q326" t="b">
@@ -41908,7 +41911,7 @@
       <c r="A327" t="s">
         <v>382</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="3" t="s">
         <v>848</v>
       </c>
       <c r="C327" t="s">
@@ -41932,7 +41935,7 @@
       <c r="L327" t="s">
         <v>195</v>
       </c>
-      <c r="N327" t="s">
+      <c r="N327" s="3" t="s">
         <v>1311</v>
       </c>
       <c r="Q327" t="b">
@@ -41997,7 +42000,7 @@
       <c r="A328" t="s">
         <v>383</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="3" t="s">
         <v>849</v>
       </c>
       <c r="C328" t="s">
@@ -42021,7 +42024,7 @@
       <c r="L328" t="s">
         <v>259</v>
       </c>
-      <c r="N328" t="s">
+      <c r="N328" s="3" t="s">
         <v>1312</v>
       </c>
       <c r="Q328" t="b">
@@ -42086,7 +42089,7 @@
       <c r="A329" t="s">
         <v>384</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="3" t="s">
         <v>850</v>
       </c>
       <c r="C329" t="s">
@@ -42113,7 +42116,7 @@
       <c r="M329" t="s">
         <v>398</v>
       </c>
-      <c r="N329" t="s">
+      <c r="N329" s="3" t="s">
         <v>2148</v>
       </c>
       <c r="Q329" t="b">
@@ -42184,7 +42187,7 @@
       <c r="A330" t="s">
         <v>385</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="3" t="s">
         <v>851</v>
       </c>
       <c r="C330" t="s">
@@ -42208,7 +42211,7 @@
       <c r="L330" t="s">
         <v>476</v>
       </c>
-      <c r="N330" t="s">
+      <c r="N330" s="3" t="s">
         <v>1314</v>
       </c>
       <c r="Q330" t="b">
@@ -42273,7 +42276,7 @@
       <c r="A331" t="s">
         <v>386</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="3" t="s">
         <v>852</v>
       </c>
       <c r="C331" t="s">
@@ -42297,7 +42300,7 @@
       <c r="L331" t="s">
         <v>223</v>
       </c>
-      <c r="N331" t="s">
+      <c r="N331" s="3" t="s">
         <v>1315</v>
       </c>
       <c r="Q331" t="b">
@@ -42362,7 +42365,7 @@
       <c r="A332" t="s">
         <v>387</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="3" t="s">
         <v>853</v>
       </c>
       <c r="C332" t="s">
@@ -42386,7 +42389,7 @@
       <c r="L332" t="s">
         <v>429</v>
       </c>
-      <c r="N332" t="s">
+      <c r="N332" s="3" t="s">
         <v>1316</v>
       </c>
       <c r="Q332" t="b">
@@ -42451,7 +42454,7 @@
       <c r="A333" t="s">
         <v>388</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="3" t="s">
         <v>854</v>
       </c>
       <c r="C333" t="s">
@@ -42475,7 +42478,7 @@
       <c r="L333" t="s">
         <v>346</v>
       </c>
-      <c r="N333" t="s">
+      <c r="N333" s="3" t="s">
         <v>1317</v>
       </c>
       <c r="Q333" t="b">
@@ -42540,7 +42543,7 @@
       <c r="A334" t="s">
         <v>389</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="3" t="s">
         <v>855</v>
       </c>
       <c r="C334" t="s">
@@ -42564,7 +42567,7 @@
       <c r="K334" t="s">
         <v>1942</v>
       </c>
-      <c r="N334" t="s">
+      <c r="N334" s="3" t="s">
         <v>2149</v>
       </c>
       <c r="Q334" t="b">
@@ -42635,7 +42638,7 @@
       <c r="A335" t="s">
         <v>390</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="3" t="s">
         <v>856</v>
       </c>
       <c r="C335" t="s">
@@ -42665,7 +42668,7 @@
       <c r="L335" t="s">
         <v>354</v>
       </c>
-      <c r="N335" t="s">
+      <c r="N335" s="3" t="s">
         <v>1319</v>
       </c>
       <c r="Q335" t="b">
@@ -42730,7 +42733,7 @@
       <c r="A336" t="s">
         <v>391</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="3" t="s">
         <v>857</v>
       </c>
       <c r="C336" t="s">
@@ -42754,7 +42757,7 @@
       <c r="L336" t="s">
         <v>240</v>
       </c>
-      <c r="N336" t="s">
+      <c r="N336" s="3" t="s">
         <v>1320</v>
       </c>
       <c r="O336" t="s">
@@ -42822,7 +42825,7 @@
       <c r="A337" t="s">
         <v>392</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="3" t="s">
         <v>858</v>
       </c>
       <c r="C337" t="s">
@@ -42849,7 +42852,7 @@
       <c r="M337" t="s">
         <v>499</v>
       </c>
-      <c r="N337" t="s">
+      <c r="N337" s="3" t="s">
         <v>2150</v>
       </c>
       <c r="Q337" t="b">
@@ -42920,7 +42923,7 @@
       <c r="A338" t="s">
         <v>393</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="3" t="s">
         <v>859</v>
       </c>
       <c r="C338" t="s">
@@ -42944,7 +42947,7 @@
       <c r="K338" t="s">
         <v>1939</v>
       </c>
-      <c r="N338" t="s">
+      <c r="N338" s="3" t="s">
         <v>2151</v>
       </c>
       <c r="Q338" t="b">
@@ -43006,7 +43009,7 @@
       <c r="A339" t="s">
         <v>394</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="3" t="s">
         <v>860</v>
       </c>
       <c r="C339" t="s">
@@ -43036,7 +43039,7 @@
       <c r="L339" t="s">
         <v>87</v>
       </c>
-      <c r="N339" t="s">
+      <c r="N339" s="3" t="s">
         <v>2152</v>
       </c>
       <c r="Q339" t="b">
@@ -43083,7 +43086,7 @@
       <c r="A340" t="s">
         <v>395</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="3" t="s">
         <v>861</v>
       </c>
       <c r="C340" t="s">
@@ -43110,7 +43113,7 @@
       <c r="M340" t="s">
         <v>145</v>
       </c>
-      <c r="N340" t="s">
+      <c r="N340" s="3" t="s">
         <v>1324</v>
       </c>
       <c r="Q340" t="b">
@@ -43175,7 +43178,7 @@
       <c r="A341" t="s">
         <v>396</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="3" t="s">
         <v>862</v>
       </c>
       <c r="C341" t="s">
@@ -43199,7 +43202,7 @@
       <c r="K341" t="s">
         <v>1939</v>
       </c>
-      <c r="N341" t="s">
+      <c r="N341" s="3" t="s">
         <v>2153</v>
       </c>
       <c r="Q341" t="b">
@@ -43261,7 +43264,7 @@
       <c r="A342" t="s">
         <v>397</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="3" t="s">
         <v>863</v>
       </c>
       <c r="C342" t="s">
@@ -43291,7 +43294,7 @@
       <c r="L342" t="s">
         <v>354</v>
       </c>
-      <c r="N342" t="s">
+      <c r="N342" s="3" t="s">
         <v>2154</v>
       </c>
       <c r="Q342" t="b">
@@ -43356,7 +43359,7 @@
       <c r="A343" t="s">
         <v>398</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="3" t="s">
         <v>864</v>
       </c>
       <c r="C343" t="s">
@@ -43380,7 +43383,7 @@
       <c r="K343" t="s">
         <v>1946</v>
       </c>
-      <c r="N343" t="s">
+      <c r="N343" s="3" t="s">
         <v>2155</v>
       </c>
       <c r="Q343" t="b">
@@ -43424,7 +43427,7 @@
       <c r="A344" t="s">
         <v>399</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="3" t="s">
         <v>865</v>
       </c>
       <c r="C344" t="s">
@@ -43448,7 +43451,7 @@
       <c r="L344" t="s">
         <v>155</v>
       </c>
-      <c r="N344" t="s">
+      <c r="N344" s="3" t="s">
         <v>1327</v>
       </c>
       <c r="Q344" t="b">
@@ -43513,7 +43516,7 @@
       <c r="A345" t="s">
         <v>400</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="3" t="s">
         <v>866</v>
       </c>
       <c r="C345" t="s">
@@ -43540,7 +43543,7 @@
       <c r="L345" t="s">
         <v>404</v>
       </c>
-      <c r="N345" t="s">
+      <c r="N345" s="3" t="s">
         <v>1328</v>
       </c>
       <c r="Q345" t="b">
@@ -43587,7 +43590,7 @@
       <c r="A346" t="s">
         <v>401</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="3" t="s">
         <v>867</v>
       </c>
       <c r="C346" t="s">
@@ -43617,7 +43620,7 @@
       <c r="L346" t="s">
         <v>424</v>
       </c>
-      <c r="N346" t="s">
+      <c r="N346" s="3" t="s">
         <v>1329</v>
       </c>
       <c r="Q346" t="b">
@@ -43682,7 +43685,7 @@
       <c r="A347" t="s">
         <v>402</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="3" t="s">
         <v>868</v>
       </c>
       <c r="C347" t="s">
@@ -43712,7 +43715,7 @@
       <c r="L347" t="s">
         <v>354</v>
       </c>
-      <c r="N347" t="s">
+      <c r="N347" s="3" t="s">
         <v>1330</v>
       </c>
       <c r="Q347" t="b">
@@ -43777,7 +43780,7 @@
       <c r="A348" t="s">
         <v>403</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="3" t="s">
         <v>869</v>
       </c>
       <c r="C348" t="s">
@@ -43801,7 +43804,7 @@
       <c r="L348" t="s">
         <v>251</v>
       </c>
-      <c r="N348" t="s">
+      <c r="N348" s="3" t="s">
         <v>1331</v>
       </c>
       <c r="Q348" t="b">
@@ -43866,7 +43869,7 @@
       <c r="A349" t="s">
         <v>404</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="3" t="s">
         <v>870</v>
       </c>
       <c r="C349" t="s">
@@ -43887,7 +43890,7 @@
       <c r="K349" t="s">
         <v>1945</v>
       </c>
-      <c r="N349" t="s">
+      <c r="N349" s="3" t="s">
         <v>2156</v>
       </c>
       <c r="Q349" t="b">
@@ -43958,7 +43961,7 @@
       <c r="A350" t="s">
         <v>405</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="3" t="s">
         <v>871</v>
       </c>
       <c r="C350" t="s">
@@ -43985,7 +43988,7 @@
       <c r="M350" t="s">
         <v>263</v>
       </c>
-      <c r="N350" t="s">
+      <c r="N350" s="3" t="s">
         <v>2157</v>
       </c>
       <c r="Q350" t="b">
@@ -44056,7 +44059,7 @@
       <c r="A351" t="s">
         <v>406</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="3" t="s">
         <v>872</v>
       </c>
       <c r="C351" t="s">
@@ -44083,7 +44086,7 @@
       <c r="M351" t="s">
         <v>485</v>
       </c>
-      <c r="N351" t="s">
+      <c r="N351" s="3" t="s">
         <v>2158</v>
       </c>
       <c r="Q351" t="b">
@@ -44154,7 +44157,7 @@
       <c r="A352" t="s">
         <v>407</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="3" t="s">
         <v>873</v>
       </c>
       <c r="C352" t="s">
@@ -44178,7 +44181,7 @@
       <c r="L352" t="s">
         <v>159</v>
       </c>
-      <c r="N352" t="s">
+      <c r="N352" s="3" t="s">
         <v>2159</v>
       </c>
       <c r="Q352" t="b">
@@ -44243,7 +44246,7 @@
       <c r="A353" t="s">
         <v>408</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="3" t="s">
         <v>874</v>
       </c>
       <c r="C353" t="s">
@@ -44267,7 +44270,7 @@
       <c r="L353" t="s">
         <v>251</v>
       </c>
-      <c r="N353" t="s">
+      <c r="N353" s="3" t="s">
         <v>2160</v>
       </c>
       <c r="Q353" t="b">
@@ -44332,7 +44335,7 @@
       <c r="A354" t="s">
         <v>409</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="3" t="s">
         <v>875</v>
       </c>
       <c r="C354" t="s">
@@ -44359,7 +44362,7 @@
       <c r="M354" t="s">
         <v>398</v>
       </c>
-      <c r="N354" t="s">
+      <c r="N354" s="3" t="s">
         <v>2161</v>
       </c>
       <c r="Q354" t="b">
@@ -44430,7 +44433,7 @@
       <c r="A355" t="s">
         <v>410</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="3" t="s">
         <v>876</v>
       </c>
       <c r="C355" t="s">
@@ -44457,7 +44460,7 @@
       <c r="M355" t="s">
         <v>263</v>
       </c>
-      <c r="N355" t="s">
+      <c r="N355" s="3" t="s">
         <v>2162</v>
       </c>
       <c r="Q355" t="b">
@@ -44528,7 +44531,7 @@
       <c r="A356" t="s">
         <v>411</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="3" t="s">
         <v>877</v>
       </c>
       <c r="C356" t="s">
@@ -44552,7 +44555,7 @@
       <c r="L356" t="s">
         <v>270</v>
       </c>
-      <c r="N356" t="s">
+      <c r="N356" s="3" t="s">
         <v>2163</v>
       </c>
       <c r="Q356" t="b">
@@ -44617,7 +44620,7 @@
       <c r="A357" t="s">
         <v>412</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="3" t="s">
         <v>878</v>
       </c>
       <c r="C357" t="s">
@@ -44641,7 +44644,7 @@
       <c r="K357" t="s">
         <v>1942</v>
       </c>
-      <c r="N357" t="s">
+      <c r="N357" s="3" t="s">
         <v>2164</v>
       </c>
       <c r="Q357" t="b">
@@ -44712,7 +44715,7 @@
       <c r="A358" t="s">
         <v>413</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="3" t="s">
         <v>879</v>
       </c>
       <c r="C358" t="s">
@@ -44736,7 +44739,7 @@
       <c r="L358" t="s">
         <v>270</v>
       </c>
-      <c r="N358" t="s">
+      <c r="N358" s="3" t="s">
         <v>1341</v>
       </c>
       <c r="Q358" t="b">
@@ -44801,7 +44804,7 @@
       <c r="A359" t="s">
         <v>414</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="3" t="s">
         <v>880</v>
       </c>
       <c r="C359" t="s">
@@ -44828,7 +44831,7 @@
       <c r="M359" t="s">
         <v>212</v>
       </c>
-      <c r="N359" t="s">
+      <c r="N359" s="3" t="s">
         <v>2165</v>
       </c>
       <c r="Q359" t="b">
@@ -44899,7 +44902,7 @@
       <c r="A360" t="s">
         <v>415</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="3" t="s">
         <v>881</v>
       </c>
       <c r="C360" t="s">
@@ -44929,7 +44932,7 @@
       <c r="L360" t="s">
         <v>136</v>
       </c>
-      <c r="N360" t="s">
+      <c r="N360" s="3" t="s">
         <v>2166</v>
       </c>
       <c r="Q360" t="b">
@@ -44994,7 +44997,7 @@
       <c r="A361" t="s">
         <v>416</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="3" t="s">
         <v>882</v>
       </c>
       <c r="C361" t="s">
@@ -45021,7 +45024,7 @@
       <c r="M361" t="s">
         <v>212</v>
       </c>
-      <c r="N361" t="s">
+      <c r="N361" s="3" t="s">
         <v>2167</v>
       </c>
       <c r="Q361" t="b">
@@ -45092,7 +45095,7 @@
       <c r="A362" t="s">
         <v>417</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="3" t="s">
         <v>883</v>
       </c>
       <c r="C362" t="s">
@@ -45116,7 +45119,7 @@
       <c r="K362" t="s">
         <v>1942</v>
       </c>
-      <c r="N362" t="s">
+      <c r="N362" s="3" t="s">
         <v>2168</v>
       </c>
       <c r="Q362" t="b">
@@ -45187,7 +45190,7 @@
       <c r="A363" t="s">
         <v>418</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="3" t="s">
         <v>884</v>
       </c>
       <c r="C363" t="s">
@@ -45211,7 +45214,7 @@
       <c r="K363" t="s">
         <v>1939</v>
       </c>
-      <c r="N363" t="s">
+      <c r="N363" s="3" t="s">
         <v>2169</v>
       </c>
       <c r="Q363" t="b">
@@ -45273,7 +45276,7 @@
       <c r="A364" t="s">
         <v>419</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="3" t="s">
         <v>885</v>
       </c>
       <c r="C364" t="s">
@@ -45294,7 +45297,7 @@
       <c r="K364" t="s">
         <v>1942</v>
       </c>
-      <c r="N364" t="s">
+      <c r="N364" s="3" t="s">
         <v>2170</v>
       </c>
       <c r="Q364" t="b">
@@ -45311,7 +45314,7 @@
       <c r="A365" t="s">
         <v>420</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="3" t="s">
         <v>886</v>
       </c>
       <c r="C365" t="s">
@@ -45338,7 +45341,7 @@
       <c r="M365" t="s">
         <v>301</v>
       </c>
-      <c r="N365" t="s">
+      <c r="N365" s="3" t="s">
         <v>2171</v>
       </c>
       <c r="Q365" t="b">
@@ -45409,7 +45412,7 @@
       <c r="A366" t="s">
         <v>421</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="3" t="s">
         <v>887</v>
       </c>
       <c r="C366" t="s">
@@ -45433,7 +45436,7 @@
       <c r="L366" t="s">
         <v>306</v>
       </c>
-      <c r="N366" t="s">
+      <c r="N366" s="3" t="s">
         <v>1349</v>
       </c>
       <c r="Q366" t="b">
@@ -45498,7 +45501,7 @@
       <c r="A367" t="s">
         <v>422</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="3" t="s">
         <v>888</v>
       </c>
       <c r="C367" t="s">
@@ -45528,7 +45531,7 @@
       <c r="L367" t="s">
         <v>344</v>
       </c>
-      <c r="N367" t="s">
+      <c r="N367" s="3" t="s">
         <v>1350</v>
       </c>
       <c r="Q367" t="b">
@@ -45575,7 +45578,7 @@
       <c r="A368" t="s">
         <v>423</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="3" t="s">
         <v>889</v>
       </c>
       <c r="C368" t="s">
@@ -45602,7 +45605,7 @@
       <c r="M368" t="s">
         <v>499</v>
       </c>
-      <c r="N368" t="s">
+      <c r="N368" s="3" t="s">
         <v>1351</v>
       </c>
       <c r="Q368" t="b">
@@ -45673,7 +45676,7 @@
       <c r="A369" t="s">
         <v>424</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="3" t="s">
         <v>890</v>
       </c>
       <c r="C369" t="s">
@@ -45700,7 +45703,7 @@
       <c r="K369" t="s">
         <v>1945</v>
       </c>
-      <c r="N369" t="s">
+      <c r="N369" s="3" t="s">
         <v>2172</v>
       </c>
       <c r="Q369" t="b">
@@ -45771,7 +45774,7 @@
       <c r="A370" t="s">
         <v>425</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="3" t="s">
         <v>891</v>
       </c>
       <c r="C370" t="s">
@@ -45795,7 +45798,7 @@
       <c r="K370" t="s">
         <v>1942</v>
       </c>
-      <c r="N370" t="s">
+      <c r="N370" s="3" t="s">
         <v>2173</v>
       </c>
       <c r="Q370" t="b">
@@ -45866,7 +45869,7 @@
       <c r="A371" t="s">
         <v>426</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="3" t="s">
         <v>892</v>
       </c>
       <c r="C371" t="s">
@@ -45890,7 +45893,7 @@
       <c r="L371" t="s">
         <v>358</v>
       </c>
-      <c r="N371" t="s">
+      <c r="N371" s="3" t="s">
         <v>2174</v>
       </c>
       <c r="Q371" t="b">
@@ -45955,7 +45958,7 @@
       <c r="A372" t="s">
         <v>427</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="3" t="s">
         <v>893</v>
       </c>
       <c r="C372" t="s">
@@ -45979,7 +45982,7 @@
       <c r="L372" t="s">
         <v>429</v>
       </c>
-      <c r="N372" t="s">
+      <c r="N372" s="3" t="s">
         <v>1354</v>
       </c>
       <c r="Q372" t="b">
@@ -46044,7 +46047,7 @@
       <c r="A373" t="s">
         <v>428</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="3" t="s">
         <v>894</v>
       </c>
       <c r="C373" t="s">
@@ -46068,7 +46071,7 @@
       <c r="L373" t="s">
         <v>259</v>
       </c>
-      <c r="N373" t="s">
+      <c r="N373" s="3" t="s">
         <v>1355</v>
       </c>
       <c r="Q373" t="b">
@@ -46133,7 +46136,7 @@
       <c r="A374" t="s">
         <v>429</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="3" t="s">
         <v>895</v>
       </c>
       <c r="C374" t="s">
@@ -46154,7 +46157,7 @@
       <c r="K374" t="s">
         <v>1945</v>
       </c>
-      <c r="N374" t="s">
+      <c r="N374" s="3" t="s">
         <v>2175</v>
       </c>
       <c r="Q374" t="b">
@@ -46225,7 +46228,7 @@
       <c r="A375" t="s">
         <v>430</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="3" t="s">
         <v>896</v>
       </c>
       <c r="C375" t="s">
@@ -46255,7 +46258,7 @@
       <c r="L375" t="s">
         <v>424</v>
       </c>
-      <c r="N375" t="s">
+      <c r="N375" s="3" t="s">
         <v>1357</v>
       </c>
       <c r="Q375" t="b">
@@ -46320,7 +46323,7 @@
       <c r="A376" t="s">
         <v>431</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="3" t="s">
         <v>897</v>
       </c>
       <c r="C376" t="s">
@@ -46344,7 +46347,7 @@
       <c r="L376" t="s">
         <v>440</v>
       </c>
-      <c r="N376" t="s">
+      <c r="N376" s="3" t="s">
         <v>2176</v>
       </c>
       <c r="Q376" t="b">
@@ -46409,7 +46412,7 @@
       <c r="A377" t="s">
         <v>432</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="3" t="s">
         <v>898</v>
       </c>
       <c r="C377" t="s">
@@ -46433,7 +46436,7 @@
       <c r="L377" t="s">
         <v>440</v>
       </c>
-      <c r="N377" t="s">
+      <c r="N377" s="3" t="s">
         <v>2177</v>
       </c>
       <c r="Q377" t="b">
@@ -46498,7 +46501,7 @@
       <c r="A378" t="s">
         <v>433</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="3" t="s">
         <v>899</v>
       </c>
       <c r="C378" t="s">
@@ -46522,7 +46525,7 @@
       <c r="K378" t="s">
         <v>1942</v>
       </c>
-      <c r="N378" t="s">
+      <c r="N378" s="3" t="s">
         <v>2178</v>
       </c>
       <c r="Q378" t="b">
@@ -46593,7 +46596,7 @@
       <c r="A379" t="s">
         <v>434</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="3" t="s">
         <v>900</v>
       </c>
       <c r="C379" t="s">
@@ -46617,7 +46620,7 @@
       <c r="L379" t="s">
         <v>440</v>
       </c>
-      <c r="N379" t="s">
+      <c r="N379" s="3" t="s">
         <v>1361</v>
       </c>
       <c r="Q379" t="b">
@@ -46682,7 +46685,7 @@
       <c r="A380" t="s">
         <v>435</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="3" t="s">
         <v>901</v>
       </c>
       <c r="C380" t="s">
@@ -46706,7 +46709,7 @@
       <c r="K380" t="s">
         <v>1939</v>
       </c>
-      <c r="N380" t="s">
+      <c r="N380" s="3" t="s">
         <v>2179</v>
       </c>
       <c r="Q380" t="b">
@@ -46768,7 +46771,7 @@
       <c r="A381" t="s">
         <v>436</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="3" t="s">
         <v>902</v>
       </c>
       <c r="C381" t="s">
@@ -46792,7 +46795,7 @@
       <c r="K381" t="s">
         <v>1942</v>
       </c>
-      <c r="N381" t="s">
+      <c r="N381" s="3" t="s">
         <v>2180</v>
       </c>
       <c r="Q381" t="b">
@@ -46863,7 +46866,7 @@
       <c r="A382" t="s">
         <v>437</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="3" t="s">
         <v>903</v>
       </c>
       <c r="C382" t="s">
@@ -46887,7 +46890,7 @@
       <c r="M382" t="s">
         <v>208</v>
       </c>
-      <c r="N382" t="s">
+      <c r="N382" s="3" t="s">
         <v>2181</v>
       </c>
       <c r="Q382" t="b">
@@ -46952,7 +46955,7 @@
       <c r="A383" t="s">
         <v>438</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="3" t="s">
         <v>904</v>
       </c>
       <c r="C383" t="s">
@@ -46976,7 +46979,7 @@
       <c r="L383" t="s">
         <v>211</v>
       </c>
-      <c r="N383" t="s">
+      <c r="N383" s="3" t="s">
         <v>1365</v>
       </c>
       <c r="Q383" t="b">
@@ -47041,7 +47044,7 @@
       <c r="A384" t="s">
         <v>439</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="3" t="s">
         <v>905</v>
       </c>
       <c r="C384" t="s">
@@ -47065,7 +47068,7 @@
       <c r="L384" t="s">
         <v>476</v>
       </c>
-      <c r="N384" t="s">
+      <c r="N384" s="3" t="s">
         <v>1366</v>
       </c>
       <c r="Q384" t="b">
@@ -47130,7 +47133,7 @@
       <c r="A385" t="s">
         <v>440</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="3" t="s">
         <v>906</v>
       </c>
       <c r="C385" t="s">
@@ -47151,7 +47154,7 @@
       <c r="K385" t="s">
         <v>1945</v>
       </c>
-      <c r="N385" t="s">
+      <c r="N385" s="3" t="s">
         <v>2182</v>
       </c>
       <c r="Q385" t="b">
@@ -47222,7 +47225,7 @@
       <c r="A386" t="s">
         <v>441</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="3" t="s">
         <v>907</v>
       </c>
       <c r="C386" t="s">
@@ -47249,7 +47252,7 @@
       <c r="M386" t="s">
         <v>469</v>
       </c>
-      <c r="N386" t="s">
+      <c r="N386" s="3" t="s">
         <v>2183</v>
       </c>
       <c r="Q386" t="b">
@@ -47320,7 +47323,7 @@
       <c r="A387" t="s">
         <v>442</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="3" t="s">
         <v>908</v>
       </c>
       <c r="C387" t="s">
@@ -47344,7 +47347,7 @@
       <c r="L387" t="s">
         <v>240</v>
       </c>
-      <c r="N387" t="s">
+      <c r="N387" s="3" t="s">
         <v>2184</v>
       </c>
       <c r="O387" t="s">
@@ -47412,7 +47415,7 @@
       <c r="A388" t="s">
         <v>443</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="3" t="s">
         <v>909</v>
       </c>
       <c r="C388" t="s">
@@ -47439,7 +47442,7 @@
       <c r="M388" t="s">
         <v>301</v>
       </c>
-      <c r="N388" t="s">
+      <c r="N388" s="3" t="s">
         <v>2185</v>
       </c>
       <c r="Q388" t="b">
@@ -47510,7 +47513,7 @@
       <c r="A389" t="s">
         <v>444</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="3" t="s">
         <v>910</v>
       </c>
       <c r="C389" t="s">
@@ -47537,7 +47540,7 @@
       <c r="L389" t="s">
         <v>404</v>
       </c>
-      <c r="N389" t="s">
+      <c r="N389" s="3" t="s">
         <v>1371</v>
       </c>
       <c r="Q389" t="b">
@@ -47584,7 +47587,7 @@
       <c r="A390" t="s">
         <v>445</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="3" t="s">
         <v>911</v>
       </c>
       <c r="C390" t="s">
@@ -47608,7 +47611,7 @@
       <c r="L390" t="s">
         <v>429</v>
       </c>
-      <c r="N390" t="s">
+      <c r="N390" s="3" t="s">
         <v>1372</v>
       </c>
       <c r="Q390" t="b">
@@ -47673,7 +47676,7 @@
       <c r="A391" t="s">
         <v>446</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="3" t="s">
         <v>912</v>
       </c>
       <c r="C391" t="s">
@@ -47697,7 +47700,7 @@
       <c r="K391" t="s">
         <v>1941</v>
       </c>
-      <c r="N391" t="s">
+      <c r="N391" s="3" t="s">
         <v>2186</v>
       </c>
       <c r="Q391" t="b">
@@ -47762,7 +47765,7 @@
       <c r="A392" t="s">
         <v>447</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="3" t="s">
         <v>913</v>
       </c>
       <c r="C392" t="s">
@@ -47786,7 +47789,7 @@
       <c r="K392" t="s">
         <v>1942</v>
       </c>
-      <c r="N392" t="s">
+      <c r="N392" s="3" t="s">
         <v>2187</v>
       </c>
       <c r="Q392" t="b">
@@ -47857,7 +47860,7 @@
       <c r="A393" t="s">
         <v>448</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="3" t="s">
         <v>914</v>
       </c>
       <c r="C393" t="s">
@@ -47881,7 +47884,7 @@
       <c r="M393" t="s">
         <v>208</v>
       </c>
-      <c r="N393" t="s">
+      <c r="N393" s="3" t="s">
         <v>2188</v>
       </c>
       <c r="Q393" t="b">
@@ -47946,7 +47949,7 @@
       <c r="A394" t="s">
         <v>449</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="3" t="s">
         <v>915</v>
       </c>
       <c r="C394" t="s">
@@ -47970,7 +47973,7 @@
       <c r="L394" t="s">
         <v>251</v>
       </c>
-      <c r="N394" t="s">
+      <c r="N394" s="3" t="s">
         <v>1376</v>
       </c>
       <c r="Q394" t="b">
@@ -48035,7 +48038,7 @@
       <c r="A395" t="s">
         <v>450</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="3" t="s">
         <v>916</v>
       </c>
       <c r="C395" t="s">
@@ -48068,7 +48071,7 @@
       <c r="L395" t="s">
         <v>424</v>
       </c>
-      <c r="N395" t="s">
+      <c r="N395" s="3" t="s">
         <v>2189</v>
       </c>
       <c r="Q395" t="b">
@@ -48118,7 +48121,7 @@
       <c r="A396" t="s">
         <v>451</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="3" t="s">
         <v>917</v>
       </c>
       <c r="C396" t="s">
@@ -48145,7 +48148,7 @@
       <c r="M396" t="s">
         <v>212</v>
       </c>
-      <c r="N396" t="s">
+      <c r="N396" s="3" t="s">
         <v>2190</v>
       </c>
       <c r="Q396" t="b">
@@ -48216,7 +48219,7 @@
       <c r="A397" t="s">
         <v>452</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="3" t="s">
         <v>918</v>
       </c>
       <c r="C397" t="s">
@@ -48240,7 +48243,7 @@
       <c r="L397" t="s">
         <v>429</v>
       </c>
-      <c r="N397" t="s">
+      <c r="N397" s="3" t="s">
         <v>1379</v>
       </c>
       <c r="Q397" t="b">
@@ -48305,7 +48308,7 @@
       <c r="A398" t="s">
         <v>453</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="3" t="s">
         <v>919</v>
       </c>
       <c r="C398" t="s">
@@ -48332,7 +48335,7 @@
       <c r="L398" t="s">
         <v>424</v>
       </c>
-      <c r="N398" t="s">
+      <c r="N398" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="Q398" t="b">
@@ -48379,7 +48382,7 @@
       <c r="A399" t="s">
         <v>454</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="3" t="s">
         <v>920</v>
       </c>
       <c r="C399" t="s">
@@ -48403,7 +48406,7 @@
       <c r="L399" t="s">
         <v>440</v>
       </c>
-      <c r="N399" t="s">
+      <c r="N399" s="3" t="s">
         <v>1381</v>
       </c>
       <c r="Q399" t="b">
@@ -48468,7 +48471,7 @@
       <c r="A400" t="s">
         <v>455</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="3" t="s">
         <v>921</v>
       </c>
       <c r="C400" t="s">
@@ -48492,7 +48495,7 @@
       <c r="L400" t="s">
         <v>159</v>
       </c>
-      <c r="N400" t="s">
+      <c r="N400" s="3" t="s">
         <v>1382</v>
       </c>
       <c r="Q400" t="b">
@@ -48557,7 +48560,7 @@
       <c r="A401" t="s">
         <v>456</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="3" t="s">
         <v>922</v>
       </c>
       <c r="C401" t="s">
@@ -48581,7 +48584,7 @@
       <c r="L401" t="s">
         <v>193</v>
       </c>
-      <c r="N401" t="s">
+      <c r="N401" s="3" t="s">
         <v>1383</v>
       </c>
       <c r="Q401" t="b">
@@ -48646,7 +48649,7 @@
       <c r="A402" t="s">
         <v>457</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="3" t="s">
         <v>923</v>
       </c>
       <c r="C402" t="s">
@@ -48670,7 +48673,7 @@
       <c r="L402" t="s">
         <v>223</v>
       </c>
-      <c r="N402" t="s">
+      <c r="N402" s="3" t="s">
         <v>1384</v>
       </c>
       <c r="Q402" t="b">
@@ -48735,7 +48738,7 @@
       <c r="A403" t="s">
         <v>458</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="3" t="s">
         <v>924</v>
       </c>
       <c r="C403" t="s">
@@ -48759,7 +48762,7 @@
       <c r="L403" t="s">
         <v>211</v>
       </c>
-      <c r="N403" t="s">
+      <c r="N403" s="3" t="s">
         <v>1385</v>
       </c>
       <c r="Q403" t="b">
@@ -48824,7 +48827,7 @@
       <c r="A404" t="s">
         <v>459</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="3" t="s">
         <v>925</v>
       </c>
       <c r="C404" t="s">
@@ -48848,7 +48851,7 @@
       <c r="K404" t="s">
         <v>1942</v>
       </c>
-      <c r="N404" t="s">
+      <c r="N404" s="3" t="s">
         <v>2191</v>
       </c>
       <c r="Q404" t="b">
@@ -48919,7 +48922,7 @@
       <c r="A405" t="s">
         <v>460</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="3" t="s">
         <v>926</v>
       </c>
       <c r="C405" t="s">
@@ -48943,7 +48946,7 @@
       <c r="L405" t="s">
         <v>251</v>
       </c>
-      <c r="N405" t="s">
+      <c r="N405" s="3" t="s">
         <v>1387</v>
       </c>
       <c r="Q405" t="b">
@@ -49008,7 +49011,7 @@
       <c r="A406" t="s">
         <v>461</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="3" t="s">
         <v>927</v>
       </c>
       <c r="C406" t="s">
@@ -49032,7 +49035,7 @@
       <c r="L406" t="s">
         <v>240</v>
       </c>
-      <c r="N406" t="s">
+      <c r="N406" s="3" t="s">
         <v>1388</v>
       </c>
       <c r="Q406" t="b">
@@ -49097,7 +49100,7 @@
       <c r="A407" t="s">
         <v>462</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="3" t="s">
         <v>928</v>
       </c>
       <c r="C407" t="s">
@@ -49121,7 +49124,7 @@
       <c r="K407" t="s">
         <v>1942</v>
       </c>
-      <c r="N407" t="s">
+      <c r="N407" s="3" t="s">
         <v>2192</v>
       </c>
       <c r="Q407" t="b">
@@ -49192,7 +49195,7 @@
       <c r="A408" t="s">
         <v>463</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="3" t="s">
         <v>929</v>
       </c>
       <c r="C408" t="s">
@@ -49216,7 +49219,7 @@
       <c r="K408" t="s">
         <v>1942</v>
       </c>
-      <c r="N408" t="s">
+      <c r="N408" s="3" t="s">
         <v>2193</v>
       </c>
       <c r="Q408" t="b">
@@ -49287,7 +49290,7 @@
       <c r="A409" t="s">
         <v>464</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="3" t="s">
         <v>930</v>
       </c>
       <c r="C409" t="s">
@@ -49311,7 +49314,7 @@
       <c r="K409" t="s">
         <v>1941</v>
       </c>
-      <c r="N409" t="s">
+      <c r="N409" s="3" t="s">
         <v>2194</v>
       </c>
       <c r="Q409" t="b">
@@ -49376,7 +49379,7 @@
       <c r="A410" t="s">
         <v>465</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="3" t="s">
         <v>931</v>
       </c>
       <c r="C410" t="s">
@@ -49400,7 +49403,7 @@
       <c r="L410" t="s">
         <v>251</v>
       </c>
-      <c r="N410" t="s">
+      <c r="N410" s="3" t="s">
         <v>2195</v>
       </c>
       <c r="Q410" t="b">
@@ -49465,7 +49468,7 @@
       <c r="A411" t="s">
         <v>466</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="3" t="s">
         <v>932</v>
       </c>
       <c r="C411" t="s">
@@ -49489,7 +49492,7 @@
       <c r="L411" t="s">
         <v>159</v>
       </c>
-      <c r="N411" t="s">
+      <c r="N411" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="Q411" t="b">
@@ -49554,7 +49557,7 @@
       <c r="A412" t="s">
         <v>467</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="3" t="s">
         <v>933</v>
       </c>
       <c r="C412" t="s">
@@ -49581,7 +49584,7 @@
       <c r="M412" t="s">
         <v>212</v>
       </c>
-      <c r="N412" t="s">
+      <c r="N412" s="3" t="s">
         <v>2196</v>
       </c>
       <c r="Q412" t="b">
@@ -49652,7 +49655,7 @@
       <c r="A413" t="s">
         <v>468</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="3" t="s">
         <v>934</v>
       </c>
       <c r="C413" t="s">
@@ -49676,7 +49679,7 @@
       <c r="L413" t="s">
         <v>251</v>
       </c>
-      <c r="N413" t="s">
+      <c r="N413" s="3" t="s">
         <v>1395</v>
       </c>
       <c r="Q413" t="b">
@@ -49741,7 +49744,7 @@
       <c r="A414" t="s">
         <v>469</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="3" t="s">
         <v>935</v>
       </c>
       <c r="C414" t="s">
@@ -49765,7 +49768,7 @@
       <c r="K414" t="s">
         <v>1946</v>
       </c>
-      <c r="N414" t="s">
+      <c r="N414" s="3" t="s">
         <v>2197</v>
       </c>
       <c r="Q414" t="b">
@@ -49809,7 +49812,7 @@
       <c r="A415" t="s">
         <v>470</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="3" t="s">
         <v>936</v>
       </c>
       <c r="C415" t="s">
@@ -49833,7 +49836,7 @@
       <c r="M415" t="s">
         <v>208</v>
       </c>
-      <c r="N415" t="s">
+      <c r="N415" s="3" t="s">
         <v>2198</v>
       </c>
       <c r="Q415" t="b">
@@ -49898,7 +49901,7 @@
       <c r="A416" t="s">
         <v>471</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="3" t="s">
         <v>937</v>
       </c>
       <c r="C416" t="s">
@@ -49922,7 +49925,7 @@
       <c r="L416" t="s">
         <v>193</v>
       </c>
-      <c r="N416" t="s">
+      <c r="N416" s="3" t="s">
         <v>1398</v>
       </c>
       <c r="Q416" t="b">
@@ -49987,7 +49990,7 @@
       <c r="A417" t="s">
         <v>472</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="3" t="s">
         <v>938</v>
       </c>
       <c r="C417" t="s">
@@ -50011,7 +50014,7 @@
       <c r="L417" t="s">
         <v>358</v>
       </c>
-      <c r="N417" t="s">
+      <c r="N417" s="3" t="s">
         <v>1399</v>
       </c>
       <c r="Q417" t="b">
@@ -50076,7 +50079,7 @@
       <c r="A418" t="s">
         <v>473</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C418" t="s">
@@ -50100,7 +50103,7 @@
       <c r="K418" t="s">
         <v>1941</v>
       </c>
-      <c r="N418" t="s">
+      <c r="N418" s="3" t="s">
         <v>2199</v>
       </c>
       <c r="Q418" t="b">
@@ -50165,7 +50168,7 @@
       <c r="A419" t="s">
         <v>474</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="3" t="s">
         <v>940</v>
       </c>
       <c r="C419" t="s">
@@ -50189,7 +50192,7 @@
       <c r="L419" t="s">
         <v>429</v>
       </c>
-      <c r="N419" t="s">
+      <c r="N419" s="3" t="s">
         <v>1401</v>
       </c>
       <c r="Q419" t="b">
@@ -50254,7 +50257,7 @@
       <c r="A420" t="s">
         <v>475</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="3" t="s">
         <v>941</v>
       </c>
       <c r="C420" t="s">
@@ -50275,7 +50278,7 @@
       <c r="K420" t="s">
         <v>1942</v>
       </c>
-      <c r="N420" t="s">
+      <c r="N420" s="3" t="s">
         <v>2200</v>
       </c>
       <c r="Q420" t="b">
@@ -50292,7 +50295,7 @@
       <c r="A421" t="s">
         <v>476</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="3" t="s">
         <v>942</v>
       </c>
       <c r="C421" t="s">
@@ -50313,7 +50316,7 @@
       <c r="K421" t="s">
         <v>1945</v>
       </c>
-      <c r="N421" t="s">
+      <c r="N421" s="3" t="s">
         <v>1403</v>
       </c>
       <c r="Q421" t="b">
@@ -50384,7 +50387,7 @@
       <c r="A422" t="s">
         <v>477</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="3" t="s">
         <v>943</v>
       </c>
       <c r="C422" t="s">
@@ -50408,7 +50411,7 @@
       <c r="L422" t="s">
         <v>240</v>
       </c>
-      <c r="N422" t="s">
+      <c r="N422" s="3" t="s">
         <v>1404</v>
       </c>
       <c r="Q422" t="b">
@@ -50473,7 +50476,7 @@
       <c r="A423" t="s">
         <v>478</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="3" t="s">
         <v>944</v>
       </c>
       <c r="C423" t="s">
@@ -50500,7 +50503,7 @@
       <c r="L423" t="s">
         <v>404</v>
       </c>
-      <c r="N423" t="s">
+      <c r="N423" s="3" t="s">
         <v>1405</v>
       </c>
       <c r="Q423" t="b">
@@ -50547,7 +50550,7 @@
       <c r="A424" t="s">
         <v>479</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="3" t="s">
         <v>945</v>
       </c>
       <c r="C424" t="s">
@@ -50571,7 +50574,7 @@
       <c r="L424" t="s">
         <v>476</v>
       </c>
-      <c r="N424" t="s">
+      <c r="N424" s="3" t="s">
         <v>1406</v>
       </c>
       <c r="Q424" t="b">
@@ -50636,7 +50639,7 @@
       <c r="A425" t="s">
         <v>480</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="3" t="s">
         <v>946</v>
       </c>
       <c r="C425" t="s">
@@ -50660,7 +50663,7 @@
       <c r="K425" t="s">
         <v>1942</v>
       </c>
-      <c r="N425" t="s">
+      <c r="N425" s="3" t="s">
         <v>2201</v>
       </c>
       <c r="Q425" t="b">
@@ -50731,7 +50734,7 @@
       <c r="A426" t="s">
         <v>481</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="3" t="s">
         <v>947</v>
       </c>
       <c r="C426" t="s">
@@ -50755,7 +50758,7 @@
       <c r="L426" t="s">
         <v>159</v>
       </c>
-      <c r="N426" t="s">
+      <c r="N426" s="3" t="s">
         <v>2202</v>
       </c>
       <c r="Q426" t="b">
@@ -50820,7 +50823,7 @@
       <c r="A427" t="s">
         <v>482</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="3" t="s">
         <v>948</v>
       </c>
       <c r="C427" t="s">
@@ -50847,7 +50850,7 @@
       <c r="L427" t="s">
         <v>163</v>
       </c>
-      <c r="N427" t="s">
+      <c r="N427" s="3" t="s">
         <v>2203</v>
       </c>
       <c r="Q427" t="b">
@@ -50894,7 +50897,7 @@
       <c r="A428" t="s">
         <v>483</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="3" t="s">
         <v>949</v>
       </c>
       <c r="C428" t="s">
@@ -50918,7 +50921,7 @@
       <c r="K428" t="s">
         <v>1939</v>
       </c>
-      <c r="N428" t="s">
+      <c r="N428" s="3" t="s">
         <v>2204</v>
       </c>
       <c r="Q428" t="b">
@@ -50980,7 +50983,7 @@
       <c r="A429" t="s">
         <v>484</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="3" t="s">
         <v>950</v>
       </c>
       <c r="C429" t="s">
@@ -51004,7 +51007,7 @@
       <c r="L429" t="s">
         <v>195</v>
       </c>
-      <c r="N429" t="s">
+      <c r="N429" s="3" t="s">
         <v>1411</v>
       </c>
       <c r="Q429" t="b">
@@ -51069,7 +51072,7 @@
       <c r="A430" t="s">
         <v>485</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="3" t="s">
         <v>951</v>
       </c>
       <c r="C430" t="s">
@@ -51093,7 +51096,7 @@
       <c r="K430" t="s">
         <v>1946</v>
       </c>
-      <c r="N430" t="s">
+      <c r="N430" s="3" t="s">
         <v>2205</v>
       </c>
       <c r="Q430" t="b">
@@ -51125,7 +51128,7 @@
       <c r="A431" t="s">
         <v>486</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="3" t="s">
         <v>952</v>
       </c>
       <c r="C431" t="s">
@@ -51155,7 +51158,7 @@
       <c r="L431" t="s">
         <v>344</v>
       </c>
-      <c r="N431" t="s">
+      <c r="N431" s="3" t="s">
         <v>1413</v>
       </c>
       <c r="Q431" t="b">
@@ -51202,7 +51205,7 @@
       <c r="A432" t="s">
         <v>487</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="3" t="s">
         <v>953</v>
       </c>
       <c r="C432" t="s">
@@ -51226,7 +51229,7 @@
       <c r="L432" t="s">
         <v>240</v>
       </c>
-      <c r="N432" t="s">
+      <c r="N432" s="3" t="s">
         <v>1414</v>
       </c>
       <c r="O432" t="s">
@@ -51294,7 +51297,7 @@
       <c r="A433" t="s">
         <v>488</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="3" t="s">
         <v>954</v>
       </c>
       <c r="C433" t="s">
@@ -51324,7 +51327,7 @@
       <c r="L433" t="s">
         <v>163</v>
       </c>
-      <c r="N433" t="s">
+      <c r="N433" s="3" t="s">
         <v>2206</v>
       </c>
       <c r="Q433" t="b">
@@ -51371,7 +51374,7 @@
       <c r="A434" t="s">
         <v>489</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="3" t="s">
         <v>955</v>
       </c>
       <c r="C434" t="s">
@@ -51395,7 +51398,7 @@
       <c r="M434" t="s">
         <v>208</v>
       </c>
-      <c r="N434" t="s">
+      <c r="N434" s="3" t="s">
         <v>2207</v>
       </c>
       <c r="Q434" t="b">
@@ -51460,7 +51463,7 @@
       <c r="A435" t="s">
         <v>490</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="3" t="s">
         <v>956</v>
       </c>
       <c r="C435" t="s">
@@ -51487,7 +51490,7 @@
       <c r="M435" t="s">
         <v>212</v>
       </c>
-      <c r="N435" t="s">
+      <c r="N435" s="3" t="s">
         <v>2208</v>
       </c>
       <c r="Q435" t="b">
@@ -51558,7 +51561,7 @@
       <c r="A436" t="s">
         <v>491</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="3" t="s">
         <v>957</v>
       </c>
       <c r="C436" t="s">
@@ -51582,7 +51585,7 @@
       <c r="K436" t="s">
         <v>1942</v>
       </c>
-      <c r="N436" t="s">
+      <c r="N436" s="3" t="s">
         <v>2209</v>
       </c>
       <c r="Q436" t="b">
@@ -51653,7 +51656,7 @@
       <c r="A437" t="s">
         <v>492</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="3" t="s">
         <v>958</v>
       </c>
       <c r="C437" t="s">
@@ -51677,7 +51680,7 @@
       <c r="L437" t="s">
         <v>223</v>
       </c>
-      <c r="N437" t="s">
+      <c r="N437" s="3" t="s">
         <v>1419</v>
       </c>
       <c r="Q437" t="b">
@@ -51742,7 +51745,7 @@
       <c r="A438" t="s">
         <v>493</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="3" t="s">
         <v>959</v>
       </c>
       <c r="C438" t="s">
@@ -51769,7 +51772,7 @@
       <c r="M438" t="s">
         <v>517</v>
       </c>
-      <c r="N438" t="s">
+      <c r="N438" s="3" t="s">
         <v>2210</v>
       </c>
       <c r="Q438" t="b">
@@ -51840,7 +51843,7 @@
       <c r="A439" t="s">
         <v>494</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="3" t="s">
         <v>960</v>
       </c>
       <c r="C439" t="s">
@@ -51864,7 +51867,7 @@
       <c r="L439" t="s">
         <v>259</v>
       </c>
-      <c r="N439" t="s">
+      <c r="N439" s="3" t="s">
         <v>2211</v>
       </c>
       <c r="Q439" t="b">
@@ -51929,7 +51932,7 @@
       <c r="A440" t="s">
         <v>495</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="3" t="s">
         <v>961</v>
       </c>
       <c r="C440" t="s">
@@ -51953,7 +51956,7 @@
       <c r="L440" t="s">
         <v>270</v>
       </c>
-      <c r="N440" t="s">
+      <c r="N440" s="3" t="s">
         <v>2212</v>
       </c>
       <c r="Q440" t="b">
@@ -52018,7 +52021,7 @@
       <c r="A441" t="s">
         <v>496</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="3" t="s">
         <v>962</v>
       </c>
       <c r="C441" t="s">
@@ -52045,7 +52048,7 @@
       <c r="M441" t="s">
         <v>499</v>
       </c>
-      <c r="N441" t="s">
+      <c r="N441" s="3" t="s">
         <v>2213</v>
       </c>
       <c r="Q441" t="b">
@@ -52116,7 +52119,7 @@
       <c r="A442" t="s">
         <v>497</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="3" t="s">
         <v>963</v>
       </c>
       <c r="C442" t="s">
@@ -52140,7 +52143,7 @@
       <c r="K442" t="s">
         <v>1939</v>
       </c>
-      <c r="N442" t="s">
+      <c r="N442" s="3" t="s">
         <v>2214</v>
       </c>
       <c r="Q442" t="b">
@@ -52202,7 +52205,7 @@
       <c r="A443" t="s">
         <v>498</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="3" t="s">
         <v>964</v>
       </c>
       <c r="C443" t="s">
@@ -52229,7 +52232,7 @@
       <c r="M443" t="s">
         <v>499</v>
       </c>
-      <c r="N443" t="s">
+      <c r="N443" s="3" t="s">
         <v>2215</v>
       </c>
       <c r="Q443" t="b">
@@ -52300,7 +52303,7 @@
       <c r="A444" t="s">
         <v>499</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="3" t="s">
         <v>965</v>
       </c>
       <c r="C444" t="s">
@@ -52324,7 +52327,7 @@
       <c r="K444" t="s">
         <v>1946</v>
       </c>
-      <c r="N444" t="s">
+      <c r="N444" s="3" t="s">
         <v>2216</v>
       </c>
       <c r="Q444" t="b">
@@ -52356,7 +52359,7 @@
       <c r="A445" t="s">
         <v>500</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="3" t="s">
         <v>966</v>
       </c>
       <c r="C445" t="s">
@@ -52380,7 +52383,7 @@
       <c r="M445" t="s">
         <v>208</v>
       </c>
-      <c r="N445" t="s">
+      <c r="N445" s="3" t="s">
         <v>2217</v>
       </c>
       <c r="Q445" t="b">
@@ -52445,7 +52448,7 @@
       <c r="A446" t="s">
         <v>501</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="3" t="s">
         <v>967</v>
       </c>
       <c r="C446" t="s">
@@ -52469,7 +52472,7 @@
       <c r="K446" t="s">
         <v>1942</v>
       </c>
-      <c r="N446" t="s">
+      <c r="N446" s="3" t="s">
         <v>2218</v>
       </c>
       <c r="Q446" t="b">
@@ -52540,7 +52543,7 @@
       <c r="A447" t="s">
         <v>502</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="3" t="s">
         <v>968</v>
       </c>
       <c r="C447" t="s">
@@ -52564,10 +52567,10 @@
       <c r="K447" t="s">
         <v>1942</v>
       </c>
-      <c r="N447" t="s">
+      <c r="N447" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="P447" t="s">
+      <c r="P447" s="3" t="s">
         <v>2245</v>
       </c>
       <c r="Q447" t="b">
@@ -52602,7 +52605,7 @@
       <c r="A448" t="s">
         <v>503</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="3" t="s">
         <v>969</v>
       </c>
       <c r="C448" t="s">
@@ -52626,7 +52629,7 @@
       <c r="L448" t="s">
         <v>506</v>
       </c>
-      <c r="N448" t="s">
+      <c r="N448" s="3" t="s">
         <v>2219</v>
       </c>
       <c r="Q448" t="b">
@@ -52691,7 +52694,7 @@
       <c r="A449" t="s">
         <v>504</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="3" t="s">
         <v>970</v>
       </c>
       <c r="C449" t="s">
@@ -52715,7 +52718,7 @@
       <c r="L449" t="s">
         <v>429</v>
       </c>
-      <c r="N449" t="s">
+      <c r="N449" s="3" t="s">
         <v>1431</v>
       </c>
       <c r="Q449" t="b">
@@ -52780,7 +52783,7 @@
       <c r="A450" t="s">
         <v>505</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="3" t="s">
         <v>971</v>
       </c>
       <c r="C450" t="s">
@@ -52804,7 +52807,7 @@
       <c r="K450" t="s">
         <v>1942</v>
       </c>
-      <c r="N450" t="s">
+      <c r="N450" s="3" t="s">
         <v>2220</v>
       </c>
       <c r="Q450" t="b">
@@ -52875,7 +52878,7 @@
       <c r="A451" t="s">
         <v>506</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="3" t="s">
         <v>972</v>
       </c>
       <c r="C451" t="s">
@@ -52896,7 +52899,7 @@
       <c r="K451" t="s">
         <v>1945</v>
       </c>
-      <c r="N451" t="s">
+      <c r="N451" s="3" t="s">
         <v>2221</v>
       </c>
       <c r="Q451" t="b">
@@ -52967,7 +52970,7 @@
       <c r="A452" t="s">
         <v>507</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="3" t="s">
         <v>973</v>
       </c>
       <c r="C452" t="s">
@@ -52994,7 +52997,7 @@
       <c r="L452" t="s">
         <v>515</v>
       </c>
-      <c r="N452" t="s">
+      <c r="N452" s="3" t="s">
         <v>2222</v>
       </c>
       <c r="Q452" t="b">
@@ -53059,7 +53062,7 @@
       <c r="A453" t="s">
         <v>508</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="3" t="s">
         <v>974</v>
       </c>
       <c r="C453" t="s">
@@ -53083,7 +53086,7 @@
       <c r="L453" t="s">
         <v>358</v>
       </c>
-      <c r="N453" t="s">
+      <c r="N453" s="3" t="s">
         <v>1435</v>
       </c>
       <c r="Q453" t="b">
@@ -53148,7 +53151,7 @@
       <c r="A454" t="s">
         <v>509</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="3" t="s">
         <v>975</v>
       </c>
       <c r="C454" t="s">
@@ -53175,7 +53178,7 @@
       <c r="M454" t="s">
         <v>263</v>
       </c>
-      <c r="N454" t="s">
+      <c r="N454" s="3" t="s">
         <v>2223</v>
       </c>
       <c r="Q454" t="b">
@@ -53246,7 +53249,7 @@
       <c r="A455" t="s">
         <v>510</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="3" t="s">
         <v>976</v>
       </c>
       <c r="C455" t="s">
@@ -53270,7 +53273,7 @@
       <c r="K455" t="s">
         <v>1942</v>
       </c>
-      <c r="N455" t="s">
+      <c r="N455" s="3" t="s">
         <v>2224</v>
       </c>
       <c r="Q455" t="b">
@@ -53341,7 +53344,7 @@
       <c r="A456" t="s">
         <v>511</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="3" t="s">
         <v>977</v>
       </c>
       <c r="C456" t="s">
@@ -53365,7 +53368,7 @@
       <c r="K456" t="s">
         <v>1941</v>
       </c>
-      <c r="N456" t="s">
+      <c r="N456" s="3" t="s">
         <v>2225</v>
       </c>
       <c r="Q456" t="b">
@@ -53430,7 +53433,7 @@
       <c r="A457" t="s">
         <v>512</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="3" t="s">
         <v>978</v>
       </c>
       <c r="C457" t="s">
@@ -53457,7 +53460,7 @@
       <c r="L457" t="s">
         <v>404</v>
       </c>
-      <c r="N457" t="s">
+      <c r="N457" s="3" t="s">
         <v>1439</v>
       </c>
       <c r="Q457" t="b">
@@ -53507,7 +53510,7 @@
       <c r="A458" t="s">
         <v>513</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="3" t="s">
         <v>979</v>
       </c>
       <c r="C458" t="s">
@@ -53531,7 +53534,7 @@
       <c r="M458" t="s">
         <v>208</v>
       </c>
-      <c r="N458" t="s">
+      <c r="N458" s="3" t="s">
         <v>2226</v>
       </c>
       <c r="Q458" t="b">
@@ -53596,7 +53599,7 @@
       <c r="A459" t="s">
         <v>514</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="3" t="s">
         <v>980</v>
       </c>
       <c r="C459" t="s">
@@ -53623,7 +53626,7 @@
       <c r="L459" t="s">
         <v>424</v>
       </c>
-      <c r="N459" t="s">
+      <c r="N459" s="3" t="s">
         <v>1441</v>
       </c>
       <c r="Q459" t="b">
@@ -53670,7 +53673,7 @@
       <c r="A460" t="s">
         <v>515</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="3" t="s">
         <v>981</v>
       </c>
       <c r="C460" t="s">
@@ -53691,7 +53694,7 @@
       <c r="K460" t="s">
         <v>1945</v>
       </c>
-      <c r="N460" t="s">
+      <c r="N460" s="3" t="s">
         <v>2227</v>
       </c>
       <c r="Q460" t="b">
@@ -53762,7 +53765,7 @@
       <c r="A461" t="s">
         <v>516</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="3" t="s">
         <v>982</v>
       </c>
       <c r="C461" t="s">
@@ -53786,7 +53789,7 @@
       <c r="L461" t="s">
         <v>506</v>
       </c>
-      <c r="N461" t="s">
+      <c r="N461" s="3" t="s">
         <v>1443</v>
       </c>
       <c r="Q461" t="b">
@@ -53851,7 +53854,7 @@
       <c r="A462" t="s">
         <v>517</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="3" t="s">
         <v>983</v>
       </c>
       <c r="C462" t="s">
@@ -53875,7 +53878,7 @@
       <c r="K462" t="s">
         <v>1946</v>
       </c>
-      <c r="N462" t="s">
+      <c r="N462" s="3" t="s">
         <v>2228</v>
       </c>
       <c r="Q462" t="b">
@@ -53916,7 +53919,7 @@
       <c r="A463" t="s">
         <v>518</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="3" t="s">
         <v>984</v>
       </c>
       <c r="C463" t="s">
@@ -53940,7 +53943,7 @@
       <c r="L463" t="s">
         <v>506</v>
       </c>
-      <c r="N463" t="s">
+      <c r="N463" s="3" t="s">
         <v>1445</v>
       </c>
       <c r="Q463" t="b">
@@ -54005,7 +54008,7 @@
       <c r="A464" t="s">
         <v>519</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="3" t="s">
         <v>985</v>
       </c>
       <c r="C464" t="s">
@@ -54035,7 +54038,7 @@
       <c r="L464" t="s">
         <v>87</v>
       </c>
-      <c r="N464" t="s">
+      <c r="N464" s="3" t="s">
         <v>1446</v>
       </c>
       <c r="Q464" t="b">
@@ -54082,7 +54085,7 @@
       <c r="A465" t="s">
         <v>520</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="3" t="s">
         <v>986</v>
       </c>
       <c r="C465" t="s">
@@ -54106,7 +54109,7 @@
       <c r="L465" t="s">
         <v>259</v>
       </c>
-      <c r="N465" t="s">
+      <c r="N465" s="3" t="s">
         <v>2229</v>
       </c>
       <c r="Q465" t="b">
@@ -54171,7 +54174,7 @@
       <c r="A466" t="s">
         <v>521</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="3" t="s">
         <v>987</v>
       </c>
       <c r="C466" t="s">
@@ -54195,7 +54198,7 @@
       <c r="K466" t="s">
         <v>1942</v>
       </c>
-      <c r="N466" t="s">
+      <c r="N466" s="3" t="s">
         <v>2230</v>
       </c>
       <c r="Q466" t="b">
@@ -54266,7 +54269,7 @@
       <c r="A467" t="s">
         <v>522</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="3" t="s">
         <v>988</v>
       </c>
       <c r="C467" t="s">
@@ -54290,7 +54293,7 @@
       <c r="K467" t="s">
         <v>1939</v>
       </c>
-      <c r="N467" t="s">
+      <c r="N467" s="3" t="s">
         <v>2231</v>
       </c>
       <c r="Q467" t="b">
@@ -54362,30 +54365,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="183.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="110.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="229.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4448</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4449</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4450</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4451</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4452</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4453</v>
       </c>
     </row>
@@ -54393,13 +54396,13 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4454</v>
       </c>
       <c r="C2" t="s">
         <v>4492</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E2" t="s">
@@ -54410,14 +54413,14 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4455</v>
       </c>
       <c r="C3" t="s">
         <v>4492</v>
       </c>
-      <c r="D3" t="s">
-        <v>523</v>
+      <c r="D3" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="E3" t="s">
         <v>4496</v>
@@ -54427,14 +54430,14 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4456</v>
       </c>
       <c r="C4" t="s">
         <v>4492</v>
       </c>
-      <c r="D4" t="s">
-        <v>989</v>
+      <c r="D4" s="3" t="s">
+        <v>991</v>
       </c>
       <c r="E4" t="s">
         <v>4497</v>
@@ -54444,14 +54447,14 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4457</v>
       </c>
       <c r="C5" t="s">
         <v>4492</v>
       </c>
-      <c r="D5" t="s">
-        <v>1450</v>
+      <c r="D5" s="3" t="s">
+        <v>1631</v>
       </c>
       <c r="E5" t="s">
         <v>4497</v>
@@ -54461,14 +54464,14 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>4458</v>
       </c>
       <c r="C6" t="s">
         <v>4492</v>
       </c>
-      <c r="D6" t="s">
-        <v>1887</v>
+      <c r="D6" s="3" t="s">
+        <v>1894</v>
       </c>
       <c r="E6" t="s">
         <v>4497</v>
@@ -54478,14 +54481,14 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4459</v>
       </c>
       <c r="C7" t="s">
         <v>4492</v>
       </c>
-      <c r="D7" t="s">
-        <v>1898</v>
+      <c r="D7" s="3" t="s">
+        <v>1914</v>
       </c>
       <c r="E7" t="s">
         <v>4497</v>
@@ -54495,14 +54498,14 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>4460</v>
       </c>
       <c r="C8" t="s">
         <v>4492</v>
       </c>
-      <c r="D8" t="s">
-        <v>119</v>
+      <c r="D8" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>4497</v>
@@ -54512,19 +54515,19 @@
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>4461</v>
       </c>
       <c r="C9" t="s">
         <v>4492</v>
       </c>
-      <c r="D9" t="s">
-        <v>1917</v>
+      <c r="D9" s="3" t="s">
+        <v>1919</v>
       </c>
       <c r="E9" t="s">
         <v>4497</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>4498</v>
       </c>
     </row>
@@ -54532,14 +54535,14 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>4462</v>
       </c>
       <c r="C10" t="s">
         <v>4492</v>
       </c>
-      <c r="D10" t="s">
-        <v>1917</v>
+      <c r="D10" s="3" t="s">
+        <v>1923</v>
       </c>
       <c r="E10" t="s">
         <v>4497</v>
@@ -54549,19 +54552,19 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>4463</v>
       </c>
       <c r="C11" t="s">
         <v>4492</v>
       </c>
-      <c r="D11" t="s">
-        <v>1928</v>
+      <c r="D11" s="3" t="s">
+        <v>1937</v>
       </c>
       <c r="E11" t="s">
         <v>4497</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>4499</v>
       </c>
     </row>
@@ -54569,19 +54572,19 @@
       <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>4464</v>
       </c>
       <c r="C12" t="s">
         <v>4492</v>
       </c>
-      <c r="D12" t="s">
-        <v>1938</v>
+      <c r="D12" s="3" t="s">
+        <v>1948</v>
       </c>
       <c r="E12" t="s">
         <v>4497</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>4500</v>
       </c>
     </row>
@@ -54589,14 +54592,14 @@
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>4465</v>
       </c>
       <c r="C13" t="s">
         <v>4492</v>
       </c>
-      <c r="D13" t="s">
-        <v>515</v>
+      <c r="D13" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>4497</v>
@@ -54606,14 +54609,14 @@
       <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>4466</v>
       </c>
       <c r="C14" t="s">
         <v>4492</v>
       </c>
-      <c r="D14" t="s">
-        <v>485</v>
+      <c r="D14" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E14" t="s">
         <v>4497</v>
@@ -54623,14 +54626,14 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>4467</v>
       </c>
       <c r="C15" t="s">
         <v>4492</v>
       </c>
-      <c r="D15" t="s">
-        <v>1949</v>
+      <c r="D15" s="3" t="s">
+        <v>1951</v>
       </c>
       <c r="E15" t="s">
         <v>4496</v>
@@ -54640,14 +54643,14 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>4468</v>
       </c>
       <c r="C16" t="s">
         <v>4492</v>
       </c>
-      <c r="D16" t="s">
-        <v>2232</v>
+      <c r="D16" s="3" t="s">
+        <v>2237</v>
       </c>
       <c r="E16" t="s">
         <v>4497</v>
@@ -54657,13 +54660,13 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>4469</v>
       </c>
       <c r="C17" t="s">
         <v>4492</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>2244</v>
       </c>
       <c r="E17" t="s">
@@ -54674,19 +54677,19 @@
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>4470</v>
       </c>
       <c r="C18" t="s">
         <v>4493</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>4495</v>
       </c>
       <c r="E18" t="s">
         <v>4497</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>4501</v>
       </c>
     </row>
@@ -54694,13 +54697,13 @@
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>4471</v>
       </c>
       <c r="C19" t="s">
         <v>4492</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E19" t="s">
@@ -54711,14 +54714,14 @@
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>4472</v>
       </c>
       <c r="C20" t="s">
         <v>4492</v>
       </c>
-      <c r="D20" t="s">
-        <v>2246</v>
+      <c r="D20" s="3" t="s">
+        <v>2258</v>
       </c>
       <c r="E20" t="s">
         <v>4497</v>
@@ -54728,13 +54731,13 @@
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>4473</v>
       </c>
       <c r="C21" t="s">
         <v>4492</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>2600</v>
       </c>
       <c r="E21" t="s">
@@ -54745,14 +54748,14 @@
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>4474</v>
       </c>
       <c r="C22" t="s">
         <v>4492</v>
       </c>
-      <c r="D22" t="s">
-        <v>2622</v>
+      <c r="D22" s="3" t="s">
+        <v>2624</v>
       </c>
       <c r="E22" t="s">
         <v>4497</v>
@@ -54762,14 +54765,14 @@
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>4475</v>
       </c>
       <c r="C23" t="s">
         <v>4494</v>
       </c>
-      <c r="D23">
-        <v>1338</v>
+      <c r="D23" s="3">
+        <v>3</v>
       </c>
       <c r="E23" t="s">
         <v>4497</v>
@@ -54779,14 +54782,14 @@
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>4476</v>
       </c>
       <c r="C24" t="s">
         <v>4494</v>
       </c>
-      <c r="D24">
-        <v>217232</v>
+      <c r="D24" s="3">
+        <v>2226</v>
       </c>
       <c r="E24" t="s">
         <v>4497</v>
@@ -54796,14 +54799,14 @@
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>4477</v>
       </c>
       <c r="C25" t="s">
         <v>4494</v>
       </c>
-      <c r="D25">
-        <v>110637.8371026796</v>
+      <c r="D25" s="3">
+        <v>43329.5655016295</v>
       </c>
       <c r="E25" t="s">
         <v>4497</v>
@@ -54813,14 +54816,14 @@
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>4478</v>
       </c>
       <c r="C26" t="s">
         <v>4494</v>
       </c>
-      <c r="D26">
-        <v>506234.4148047699</v>
+      <c r="D26" s="3">
+        <v>13020.53266434047</v>
       </c>
       <c r="E26" t="s">
         <v>4497</v>
@@ -54830,14 +54833,14 @@
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>4479</v>
       </c>
       <c r="C27" t="s">
         <v>4494</v>
       </c>
-      <c r="D27">
-        <v>54.36919159394883</v>
+      <c r="D27" s="3">
+        <v>49.93693291412038</v>
       </c>
       <c r="E27" t="s">
         <v>4497</v>
@@ -54847,14 +54850,14 @@
       <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>4480</v>
       </c>
       <c r="C28" t="s">
         <v>4494</v>
       </c>
-      <c r="D28">
-        <v>-6.456724092266463</v>
+      <c r="D28" s="3">
+        <v>-7.503784363910277</v>
       </c>
       <c r="E28" t="s">
         <v>4497</v>
@@ -54864,19 +54867,19 @@
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>4481</v>
       </c>
       <c r="C29" t="s">
         <v>4492</v>
       </c>
-      <c r="D29" t="s">
-        <v>3040</v>
+      <c r="D29" s="3" t="s">
+        <v>3044</v>
       </c>
       <c r="E29" t="s">
         <v>4497</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>4502</v>
       </c>
     </row>
@@ -54884,19 +54887,19 @@
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>4482</v>
       </c>
       <c r="C30" t="s">
         <v>4493</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>4495</v>
       </c>
       <c r="E30" t="s">
         <v>4497</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>4501</v>
       </c>
     </row>
@@ -54904,14 +54907,14 @@
       <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>4483</v>
       </c>
       <c r="C31" t="s">
         <v>4492</v>
       </c>
-      <c r="D31" t="s">
-        <v>3045</v>
+      <c r="D31" s="3" t="s">
+        <v>3048</v>
       </c>
       <c r="E31" t="s">
         <v>4497</v>
@@ -54921,14 +54924,14 @@
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>4484</v>
       </c>
       <c r="C32" t="s">
         <v>4492</v>
       </c>
-      <c r="D32" t="s">
-        <v>3049</v>
+      <c r="D32" s="3" t="s">
+        <v>3068</v>
       </c>
       <c r="E32" t="s">
         <v>4497</v>
@@ -54938,14 +54941,14 @@
       <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>4485</v>
       </c>
       <c r="C33" t="s">
         <v>4492</v>
       </c>
-      <c r="D33" t="s">
-        <v>3232</v>
+      <c r="D33" s="3" t="s">
+        <v>3238</v>
       </c>
       <c r="E33" t="s">
         <v>4497</v>
@@ -54955,14 +54958,14 @@
       <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>4486</v>
       </c>
       <c r="C34" t="s">
         <v>4492</v>
       </c>
-      <c r="D34" t="s">
-        <v>3586</v>
+      <c r="D34" s="3" t="s">
+        <v>3589</v>
       </c>
       <c r="E34" t="s">
         <v>4497</v>
@@ -54972,14 +54975,14 @@
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>4487</v>
       </c>
       <c r="C35" t="s">
         <v>4494</v>
       </c>
-      <c r="D35">
-        <v>1002</v>
+      <c r="D35" s="3">
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>4497</v>
@@ -54989,13 +54992,13 @@
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>4488</v>
       </c>
       <c r="C36" t="s">
         <v>4492</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>4043</v>
       </c>
       <c r="E36" t="s">
@@ -55006,14 +55009,14 @@
       <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>4489</v>
       </c>
       <c r="C37" t="s">
         <v>4494</v>
       </c>
-      <c r="D37">
-        <v>7000000000030110</v>
+      <c r="D37" s="3">
+        <v>7000000000000000</v>
       </c>
       <c r="E37" t="s">
         <v>4497</v>
@@ -55023,14 +55026,14 @@
       <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>4490</v>
       </c>
       <c r="C38" t="s">
         <v>4492</v>
       </c>
-      <c r="D38" t="s">
-        <v>4216</v>
+      <c r="D38" s="3" t="s">
+        <v>4320</v>
       </c>
       <c r="E38" t="s">
         <v>4497</v>
@@ -55040,14 +55043,14 @@
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>4491</v>
       </c>
       <c r="C39" t="s">
         <v>4494</v>
       </c>
-      <c r="D39">
-        <v>54906</v>
+      <c r="D39" s="3">
+        <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>4497</v>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Contributors</t>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://mysociety.github.io/uk_local_authority_names_and_codes/datasets/datasets/uk-la-future/</t>
+    <t>https://pages.mysociety.org/uk_local_authority_names_and_codes/datasets/datasets/uk-la-future/</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -46,7 +46,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.7</t>
+    <t>1.0.8</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -19707,6 +19707,24 @@
       <c r="Q64" t="b">
         <v>1</v>
       </c>
+      <c r="V64">
+        <v>3012</v>
+      </c>
+      <c r="W64">
+        <v>274396</v>
+      </c>
+      <c r="X64">
+        <v>326336.0353755673</v>
+      </c>
+      <c r="Y64">
+        <v>534360.5854541283</v>
+      </c>
+      <c r="Z64">
+        <v>54.69862280385885</v>
+      </c>
+      <c r="AA64">
+        <v>-3.14326575232159</v>
+      </c>
       <c r="AB64" t="s">
         <v>3041</v>
       </c>
@@ -39369,6 +39387,24 @@
       <c r="Q298" t="b">
         <v>1</v>
       </c>
+      <c r="V298">
+        <v>8037</v>
+      </c>
+      <c r="W298">
+        <v>620610</v>
+      </c>
+      <c r="X298">
+        <v>440702.8433753164</v>
+      </c>
+      <c r="Y298">
+        <v>474726.2834333429</v>
+      </c>
+      <c r="Z298">
+        <v>54.16561062368424</v>
+      </c>
+      <c r="AA298">
+        <v>-1.37783789419976</v>
+      </c>
       <c r="AB298" t="s">
         <v>3041</v>
       </c>
@@ -45303,6 +45339,24 @@
       <c r="Q364" t="b">
         <v>1</v>
       </c>
+      <c r="V364">
+        <v>3450</v>
+      </c>
+      <c r="W364">
+        <v>563851</v>
+      </c>
+      <c r="X364">
+        <v>337618.9846160223</v>
+      </c>
+      <c r="Y364">
+        <v>135570.8559151427</v>
+      </c>
+      <c r="Z364">
+        <v>51.11561060978463</v>
+      </c>
+      <c r="AA364">
+        <v>-2.892494846753527</v>
+      </c>
       <c r="AB364" t="s">
         <v>3041</v>
       </c>
@@ -50283,6 +50337,24 @@
       </c>
       <c r="Q420" t="b">
         <v>1</v>
+      </c>
+      <c r="V420">
+        <v>3755</v>
+      </c>
+      <c r="W420">
+        <v>225385</v>
+      </c>
+      <c r="X420">
+        <v>341859.2504198118</v>
+      </c>
+      <c r="Y420">
+        <v>494670.8301204606</v>
+      </c>
+      <c r="Z420">
+        <v>54.34401050125833</v>
+      </c>
+      <c r="AA420">
+        <v>-2.894727720440298</v>
       </c>
       <c r="AB420" t="s">
         <v>3041</v>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -29,7 +29,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://pages.mysociety.org/uk_local_authority_names_and_codes/datasets/uk_la_future/1_4_0</t>
+    <t>https://pages.mysociety.org/uk_local_authority_names_and_codes/datasets/uk_la_future/1_4_1</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -48,7 +48,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -56360,6 +56360,24 @@
       <c r="Q466" t="b">
         <v>1</v>
       </c>
+      <c r="V466">
+        <v>8309</v>
+      </c>
+      <c r="W466">
+        <v>831622</v>
+      </c>
+      <c r="X466">
+        <v>440702.8433753164</v>
+      </c>
+      <c r="Y466">
+        <v>474726.2834333429</v>
+      </c>
+      <c r="Z466">
+        <v>54.16561062368424</v>
+      </c>
+      <c r="AA466">
+        <v>-1.37783789419976</v>
+      </c>
       <c r="AB466" t="s">
         <v>3056</v>
       </c>

--- a/docs/data/uk_la_future/1/uk_la_future.xlsx
+++ b/docs/data/uk_la_future/1/uk_la_future.xlsx
@@ -29,7 +29,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://pages.mysociety.org/uk_local_authority_names_and_codes/datasets/uk_la_future/1_7_2</t>
+    <t>https://pages.mysociety.org/uk_local_authority_names_and_codes/datasets/uk_la_future/1_7_3</t>
   </si>
   <si>
     <t>Dataset description</t>
@@ -48,7 +48,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.2</t>
+    <t>1.7.3</t>
   </si>
   <si>
     <t>Contributors</t>
@@ -159,12 +159,12 @@
     <t>y</t>
   </si>
   <si>
+    <t>lat</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
     <t>powers</t>
   </si>
   <si>
@@ -13542,10 +13542,10 @@
     <t>Y coordinate for the center of the local authority.</t>
   </si>
   <si>
+    <t>Latitude of the center of the local authority</t>
+  </si>
+  <si>
     <t>Longitude of the center of the local authority</t>
-  </si>
-  <si>
-    <t>Latitude of the center of the local authority</t>
   </si>
   <si>
     <t>A grouping of local authority type based on the actual powers of an area (merges several effective 'unitary' categories)</t>
